--- a/Reading_list_abstract_sift.xlsx
+++ b/Reading_list_abstract_sift.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" tabRatio="500"/>
+    <workbookView xWindow="13400" yWindow="460" windowWidth="21420" windowHeight="18940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3308" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4141" uniqueCount="598">
   <si>
     <t>Study (R / Q)</t>
   </si>
@@ -1617,6 +1617,210 @@
   </si>
   <si>
     <t>Anne Cunningham</t>
+  </si>
+  <si>
+    <t>Predicting reading comprehension of narrative and expository texts among Hebrew-speaking readers with and without a reading disability</t>
+  </si>
+  <si>
+    <t>linkage study</t>
+  </si>
+  <si>
+    <t>developmental surface and phonological dysgraphia in German 3rd Graders</t>
+  </si>
+  <si>
+    <t>Park Jungjun</t>
+  </si>
+  <si>
+    <t>Linda J Lombardino</t>
+  </si>
+  <si>
+    <t>Characteristics of phonological processing, reading, oral language and auditory processing skills of children with mild-to-moderate SN Hearing Loss</t>
+  </si>
+  <si>
+    <t>No item effects</t>
+  </si>
+  <si>
+    <t>sublexical frequency measures for orthographical and phonological units in German</t>
+  </si>
+  <si>
+    <t>Locus and Nature of perceptual phonological deficity in Spanish Children with Reading Disabilities</t>
+  </si>
+  <si>
+    <t>Spelling consistency affects reading in Young Dutch readers with and without Dyslexia</t>
+  </si>
+  <si>
+    <t>Gene P Oulette</t>
+  </si>
+  <si>
+    <t>Carelton University Canada</t>
+  </si>
+  <si>
+    <t>Pathways to literacy:   A study of invented spelling and its role in learning to read</t>
+  </si>
+  <si>
+    <t>Auditory modality</t>
+  </si>
+  <si>
+    <t>spelling</t>
+  </si>
+  <si>
+    <t>Auditory word identification and phonological skills in dyslexic and average readers</t>
+  </si>
+  <si>
+    <t>Explicit and implicit processing of words and pseudowords by adult developmental dyslexics: A search for Wernicke's Wortschatz?</t>
+  </si>
+  <si>
+    <t>management</t>
+  </si>
+  <si>
+    <t>writing study</t>
+  </si>
+  <si>
+    <t>music study</t>
+  </si>
+  <si>
+    <t>grapheme analysis</t>
+  </si>
+  <si>
+    <t>The impact of fading reading on children with reading difficulties</t>
+  </si>
+  <si>
+    <t>genetic study</t>
+  </si>
+  <si>
+    <t>a comparison of orthographic processing in children with and without reading and spelling disorder in a regular orthography</t>
+  </si>
+  <si>
+    <t>The effects of orthographic transparency and familiarity on reading Hebrew words in adults with and without  dyslexia</t>
+  </si>
+  <si>
+    <t>opinion article</t>
+  </si>
+  <si>
+    <t>Phonological awareness and reading in Children with and without Dyslexia in English and Kannada</t>
+  </si>
+  <si>
+    <t>Eye movements of university students with and without reading difficulties during naming speed tasks</t>
+  </si>
+  <si>
+    <t>Individual Differences in Reading Development: A review of 25 years of Empirical Research on Matthew Effects on Reading</t>
+  </si>
+  <si>
+    <t>written in Spanish</t>
+  </si>
+  <si>
+    <t>Individual differences in children's literacy development: the contribution of orthographic knowledge</t>
+  </si>
+  <si>
+    <t>The  double deficit hypothesis in the transparent Finnish  orthography: a longitudinal study from Kindergarten to Grade 2</t>
+  </si>
+  <si>
+    <t>Improving word  reading speed: individual differences interact with a training focus on successes or failures</t>
+  </si>
+  <si>
+    <t>dyslexia review</t>
+  </si>
+  <si>
+    <t>advertising</t>
+  </si>
+  <si>
+    <t>Orthographic influences on sublexical processing</t>
+  </si>
+  <si>
+    <t>Rachael Suddarth</t>
+  </si>
+  <si>
+    <t>Elena Plante</t>
+  </si>
+  <si>
+    <t>Naming speed and reading: from prediction to instruction</t>
+  </si>
+  <si>
+    <t>dyslexia study</t>
+  </si>
+  <si>
+    <t>Changes in reading strategies in school age children</t>
+  </si>
+  <si>
+    <t>Variability in reading ability</t>
+  </si>
+  <si>
+    <t>John Adam Naples</t>
+  </si>
+  <si>
+    <t>Elena L Grigorenko</t>
+  </si>
+  <si>
+    <t>Yale University</t>
+  </si>
+  <si>
+    <t>Evaluation of the double deficit hypothesis subtype classification of readers in Spanish</t>
+  </si>
+  <si>
+    <t>Computer speech-based remediation for RD: The size of spelling to sound unit in a transparent orthography</t>
+  </si>
+  <si>
+    <t>Evaluating the procedural deficit hypothesis: Language and motor deficits in preschool children</t>
+  </si>
+  <si>
+    <t>Renee Laura Fabus</t>
+  </si>
+  <si>
+    <t>Colombia University</t>
+  </si>
+  <si>
+    <t>Core deficits and variable differences in Dutch poor readers learning English</t>
+  </si>
+  <si>
+    <t>Dyslexia and dysgraphia in Greek in relation to normal development: Cross linguistic and longitudinal studies</t>
+  </si>
+  <si>
+    <t>Vassiliki Diamanti</t>
+  </si>
+  <si>
+    <t>University college London</t>
+  </si>
+  <si>
+    <t>is the deficit in phonological awareness better explained in terms of task differences or effects of syllable structure</t>
+  </si>
+  <si>
+    <t>Lexical access in children with reading disorder: The lexical indeterminy hypothesis</t>
+  </si>
+  <si>
+    <t>David D Schwartz</t>
+  </si>
+  <si>
+    <t>Brian P Ackerman</t>
+  </si>
+  <si>
+    <t>University of Delaware</t>
+  </si>
+  <si>
+    <t>animal study</t>
+  </si>
+  <si>
+    <t>Multiple pathways to dysfluent reading: a developmental-componential investigation of the development and breakdown of fluent reading</t>
+  </si>
+  <si>
+    <t>Tami Katzir</t>
+  </si>
+  <si>
+    <t>A developmental profile of reading errors in disabled and normal readers</t>
+  </si>
+  <si>
+    <t>janet louise Henderson</t>
+  </si>
+  <si>
+    <t>Linda Siegel</t>
+  </si>
+  <si>
+    <t>Janet Margaret Olds</t>
+  </si>
+  <si>
+    <t>McMaster University, Canada</t>
+  </si>
+  <si>
+    <t>Reading and repetition individual differences in adult reading skill</t>
   </si>
 </sst>
 </file>
@@ -1973,23 +2177,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W656"/>
+  <dimension ref="A1:W863"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="210" zoomScaleNormal="210" zoomScalePageLayoutView="210" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A643" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D656" sqref="D656"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="210" zoomScaleNormal="210" zoomScalePageLayoutView="210" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A848" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D848" sqref="D848:D859"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="3" width="10.83203125" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="46.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="0" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="16.5" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="13.5" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="17.6640625" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="21.1640625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="21.1640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="21.1640625" style="1" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="21.6640625" customWidth="1"/>
     <col min="17" max="17" width="21.5" bestFit="1" customWidth="1"/>
@@ -15796,6 +16001,15 @@
       </c>
     </row>
     <row r="622" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+      <c r="A622">
+        <v>8</v>
+      </c>
+      <c r="B622" t="s">
+        <v>129</v>
+      </c>
+      <c r="C622" t="s">
+        <v>507</v>
+      </c>
       <c r="D622" s="1" t="s">
         <v>509</v>
       </c>
@@ -15807,6 +16021,15 @@
       </c>
     </row>
     <row r="623" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+      <c r="A623">
+        <v>8</v>
+      </c>
+      <c r="B623" t="s">
+        <v>129</v>
+      </c>
+      <c r="C623" t="s">
+        <v>507</v>
+      </c>
       <c r="D623" s="1" t="s">
         <v>510</v>
       </c>
@@ -15821,6 +16044,15 @@
       </c>
     </row>
     <row r="624" spans="1:20" ht="48" x14ac:dyDescent="0.2">
+      <c r="A624">
+        <v>8</v>
+      </c>
+      <c r="B624" t="s">
+        <v>129</v>
+      </c>
+      <c r="C624" t="s">
+        <v>507</v>
+      </c>
       <c r="D624" s="1" t="s">
         <v>357</v>
       </c>
@@ -15831,7 +16063,16 @@
         <v>262</v>
       </c>
     </row>
-    <row r="625" spans="4:20" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A625">
+        <v>8</v>
+      </c>
+      <c r="B625" t="s">
+        <v>129</v>
+      </c>
+      <c r="C625" t="s">
+        <v>507</v>
+      </c>
       <c r="D625" s="1">
         <v>6</v>
       </c>
@@ -15842,7 +16083,19 @@
         <v>49</v>
       </c>
     </row>
-    <row r="626" spans="4:20" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A626">
+        <v>8</v>
+      </c>
+      <c r="B626" t="s">
+        <v>129</v>
+      </c>
+      <c r="C626" t="s">
+        <v>507</v>
+      </c>
+      <c r="D626" s="1">
+        <v>7</v>
+      </c>
       <c r="L626" t="s">
         <v>194</v>
       </c>
@@ -15850,7 +16103,19 @@
         <v>432</v>
       </c>
     </row>
-    <row r="627" spans="4:20" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A627">
+        <v>8</v>
+      </c>
+      <c r="B627" t="s">
+        <v>129</v>
+      </c>
+      <c r="C627" t="s">
+        <v>507</v>
+      </c>
+      <c r="D627" s="1">
+        <v>8</v>
+      </c>
       <c r="L627" t="s">
         <v>46</v>
       </c>
@@ -15858,7 +16123,19 @@
         <v>197</v>
       </c>
     </row>
-    <row r="628" spans="4:20" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A628">
+        <v>8</v>
+      </c>
+      <c r="B628" t="s">
+        <v>129</v>
+      </c>
+      <c r="C628" t="s">
+        <v>507</v>
+      </c>
+      <c r="D628" s="1">
+        <v>9</v>
+      </c>
       <c r="L628" t="s">
         <v>46</v>
       </c>
@@ -15866,7 +16143,16 @@
         <v>57</v>
       </c>
     </row>
-    <row r="629" spans="4:20" ht="32" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+      <c r="A629">
+        <v>8</v>
+      </c>
+      <c r="B629" t="s">
+        <v>129</v>
+      </c>
+      <c r="C629" t="s">
+        <v>507</v>
+      </c>
       <c r="D629" s="1" t="s">
         <v>514</v>
       </c>
@@ -15898,7 +16184,16 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="630" spans="4:20" ht="32" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+      <c r="A630">
+        <v>8</v>
+      </c>
+      <c r="B630" t="s">
+        <v>129</v>
+      </c>
+      <c r="C630" t="s">
+        <v>507</v>
+      </c>
       <c r="D630" s="1" t="s">
         <v>302</v>
       </c>
@@ -15909,7 +16204,16 @@
         <v>262</v>
       </c>
     </row>
-    <row r="631" spans="4:20" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A631">
+        <v>8</v>
+      </c>
+      <c r="B631" t="s">
+        <v>129</v>
+      </c>
+      <c r="C631" t="s">
+        <v>507</v>
+      </c>
       <c r="D631" s="1">
         <v>12</v>
       </c>
@@ -15920,7 +16224,19 @@
         <v>515</v>
       </c>
     </row>
-    <row r="632" spans="4:20" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A632">
+        <v>8</v>
+      </c>
+      <c r="B632" t="s">
+        <v>129</v>
+      </c>
+      <c r="C632" t="s">
+        <v>507</v>
+      </c>
+      <c r="D632" s="1">
+        <v>13</v>
+      </c>
       <c r="L632" t="s">
         <v>46</v>
       </c>
@@ -15928,7 +16244,19 @@
         <v>49</v>
       </c>
     </row>
-    <row r="633" spans="4:20" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A633">
+        <v>8</v>
+      </c>
+      <c r="B633" t="s">
+        <v>129</v>
+      </c>
+      <c r="C633" t="s">
+        <v>507</v>
+      </c>
+      <c r="D633" s="1">
+        <v>14</v>
+      </c>
       <c r="L633" t="s">
         <v>46</v>
       </c>
@@ -15936,7 +16264,19 @@
         <v>515</v>
       </c>
     </row>
-    <row r="634" spans="4:20" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A634">
+        <v>8</v>
+      </c>
+      <c r="B634" t="s">
+        <v>129</v>
+      </c>
+      <c r="C634" t="s">
+        <v>507</v>
+      </c>
+      <c r="D634" s="1">
+        <v>15</v>
+      </c>
       <c r="L634" t="s">
         <v>46</v>
       </c>
@@ -15944,7 +16284,16 @@
         <v>196</v>
       </c>
     </row>
-    <row r="635" spans="4:20" ht="32" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+      <c r="A635">
+        <v>8</v>
+      </c>
+      <c r="B635" t="s">
+        <v>129</v>
+      </c>
+      <c r="C635" t="s">
+        <v>507</v>
+      </c>
       <c r="D635" s="1" t="s">
         <v>308</v>
       </c>
@@ -15973,7 +16322,16 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="636" spans="4:20" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A636">
+        <v>8</v>
+      </c>
+      <c r="B636" t="s">
+        <v>129</v>
+      </c>
+      <c r="C636" t="s">
+        <v>507</v>
+      </c>
       <c r="D636" s="1">
         <v>17</v>
       </c>
@@ -15984,7 +16342,16 @@
         <v>55</v>
       </c>
     </row>
-    <row r="637" spans="4:20" ht="32" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+      <c r="A637">
+        <v>8</v>
+      </c>
+      <c r="B637" t="s">
+        <v>129</v>
+      </c>
+      <c r="C637" t="s">
+        <v>507</v>
+      </c>
       <c r="D637" s="1" t="s">
         <v>517</v>
       </c>
@@ -16016,7 +16383,16 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="638" spans="4:20" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A638">
+        <v>8</v>
+      </c>
+      <c r="B638" t="s">
+        <v>129</v>
+      </c>
+      <c r="C638" t="s">
+        <v>507</v>
+      </c>
       <c r="D638" s="1">
         <v>19</v>
       </c>
@@ -16027,7 +16403,19 @@
         <v>520</v>
       </c>
     </row>
-    <row r="639" spans="4:20" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A639">
+        <v>8</v>
+      </c>
+      <c r="B639" t="s">
+        <v>129</v>
+      </c>
+      <c r="C639" t="s">
+        <v>507</v>
+      </c>
+      <c r="D639" s="1">
+        <v>20</v>
+      </c>
       <c r="L639" t="s">
         <v>46</v>
       </c>
@@ -16035,7 +16423,16 @@
         <v>515</v>
       </c>
     </row>
-    <row r="640" spans="4:20" ht="32" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+      <c r="A640">
+        <v>8</v>
+      </c>
+      <c r="B640" t="s">
+        <v>129</v>
+      </c>
+      <c r="C640" t="s">
+        <v>507</v>
+      </c>
       <c r="D640" s="1" t="s">
         <v>521</v>
       </c>
@@ -16046,7 +16443,16 @@
         <v>262</v>
       </c>
     </row>
-    <row r="641" spans="4:20" ht="48" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:20" ht="48" x14ac:dyDescent="0.2">
+      <c r="A641">
+        <v>8</v>
+      </c>
+      <c r="B641" t="s">
+        <v>129</v>
+      </c>
+      <c r="C641" t="s">
+        <v>507</v>
+      </c>
       <c r="D641" s="1" t="s">
         <v>522</v>
       </c>
@@ -16054,7 +16460,16 @@
         <v>69</v>
       </c>
     </row>
-    <row r="642" spans="4:20" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A642">
+        <v>8</v>
+      </c>
+      <c r="B642" t="s">
+        <v>129</v>
+      </c>
+      <c r="C642" t="s">
+        <v>507</v>
+      </c>
       <c r="D642" s="1">
         <v>23</v>
       </c>
@@ -16065,7 +16480,16 @@
         <v>515</v>
       </c>
     </row>
-    <row r="643" spans="4:20" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A643">
+        <v>8</v>
+      </c>
+      <c r="B643" t="s">
+        <v>129</v>
+      </c>
+      <c r="C643" t="s">
+        <v>507</v>
+      </c>
       <c r="D643" s="1">
         <v>24</v>
       </c>
@@ -16076,7 +16500,16 @@
         <v>57</v>
       </c>
     </row>
-    <row r="644" spans="4:20" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A644">
+        <v>8</v>
+      </c>
+      <c r="B644" t="s">
+        <v>129</v>
+      </c>
+      <c r="C644" t="s">
+        <v>507</v>
+      </c>
       <c r="D644" s="1">
         <v>25</v>
       </c>
@@ -16087,7 +16520,16 @@
         <v>515</v>
       </c>
     </row>
-    <row r="645" spans="4:20" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A645">
+        <v>8</v>
+      </c>
+      <c r="B645" t="s">
+        <v>129</v>
+      </c>
+      <c r="C645" t="s">
+        <v>507</v>
+      </c>
       <c r="D645" s="1">
         <v>26</v>
       </c>
@@ -16098,7 +16540,16 @@
         <v>523</v>
       </c>
     </row>
-    <row r="646" spans="4:20" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A646">
+        <v>8</v>
+      </c>
+      <c r="B646" t="s">
+        <v>129</v>
+      </c>
+      <c r="C646" t="s">
+        <v>507</v>
+      </c>
       <c r="D646" s="1">
         <v>27</v>
       </c>
@@ -16109,7 +16560,16 @@
         <v>515</v>
       </c>
     </row>
-    <row r="647" spans="4:20" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A647">
+        <v>8</v>
+      </c>
+      <c r="B647" t="s">
+        <v>129</v>
+      </c>
+      <c r="C647" t="s">
+        <v>507</v>
+      </c>
       <c r="D647" s="1">
         <v>28</v>
       </c>
@@ -16120,7 +16580,16 @@
         <v>55</v>
       </c>
     </row>
-    <row r="648" spans="4:20" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A648">
+        <v>8</v>
+      </c>
+      <c r="B648" t="s">
+        <v>129</v>
+      </c>
+      <c r="C648" t="s">
+        <v>507</v>
+      </c>
       <c r="D648" s="1">
         <v>29</v>
       </c>
@@ -16131,7 +16600,16 @@
         <v>515</v>
       </c>
     </row>
-    <row r="649" spans="4:20" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A649">
+        <v>8</v>
+      </c>
+      <c r="B649" t="s">
+        <v>129</v>
+      </c>
+      <c r="C649" t="s">
+        <v>507</v>
+      </c>
       <c r="D649" s="1">
         <v>30</v>
       </c>
@@ -16142,7 +16620,16 @@
         <v>55</v>
       </c>
     </row>
-    <row r="650" spans="4:20" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A650">
+        <v>8</v>
+      </c>
+      <c r="B650" t="s">
+        <v>129</v>
+      </c>
+      <c r="C650" t="s">
+        <v>507</v>
+      </c>
       <c r="D650" s="1">
         <v>31</v>
       </c>
@@ -16153,7 +16640,16 @@
         <v>55</v>
       </c>
     </row>
-    <row r="651" spans="4:20" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A651">
+        <v>8</v>
+      </c>
+      <c r="B651" t="s">
+        <v>129</v>
+      </c>
+      <c r="C651" t="s">
+        <v>507</v>
+      </c>
       <c r="D651" s="1">
         <v>32</v>
       </c>
@@ -16164,7 +16660,16 @@
         <v>523</v>
       </c>
     </row>
-    <row r="652" spans="4:20" ht="32" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+      <c r="A652">
+        <v>8</v>
+      </c>
+      <c r="B652" t="s">
+        <v>129</v>
+      </c>
+      <c r="C652" t="s">
+        <v>507</v>
+      </c>
       <c r="D652" s="1" t="s">
         <v>524</v>
       </c>
@@ -16193,7 +16698,16 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="653" spans="4:20" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A653">
+        <v>8</v>
+      </c>
+      <c r="B653" t="s">
+        <v>129</v>
+      </c>
+      <c r="C653" t="s">
+        <v>507</v>
+      </c>
       <c r="D653" s="1">
         <v>34</v>
       </c>
@@ -16204,7 +16718,16 @@
         <v>515</v>
       </c>
     </row>
-    <row r="654" spans="4:20" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A654">
+        <v>8</v>
+      </c>
+      <c r="B654" t="s">
+        <v>129</v>
+      </c>
+      <c r="C654" t="s">
+        <v>507</v>
+      </c>
       <c r="D654" s="1">
         <v>35</v>
       </c>
@@ -16215,7 +16738,16 @@
         <v>57</v>
       </c>
     </row>
-    <row r="655" spans="4:20" ht="32" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+      <c r="A655">
+        <v>8</v>
+      </c>
+      <c r="B655" t="s">
+        <v>129</v>
+      </c>
+      <c r="C655" t="s">
+        <v>507</v>
+      </c>
       <c r="D655" s="1" t="s">
         <v>527</v>
       </c>
@@ -16244,9 +16776,3597 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="656" spans="4:20" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A656">
+        <v>8</v>
+      </c>
+      <c r="B656" t="s">
+        <v>129</v>
+      </c>
+      <c r="C656" t="s">
+        <v>507</v>
+      </c>
       <c r="D656" s="1">
         <v>37</v>
+      </c>
+      <c r="L656" t="s">
+        <v>194</v>
+      </c>
+      <c r="M656" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="657" spans="1:20" ht="48" x14ac:dyDescent="0.2">
+      <c r="A657">
+        <v>8</v>
+      </c>
+      <c r="B657" t="s">
+        <v>129</v>
+      </c>
+      <c r="C657" t="s">
+        <v>507</v>
+      </c>
+      <c r="D657" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="L657" t="s">
+        <v>69</v>
+      </c>
+      <c r="N657" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="658" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A658">
+        <v>8</v>
+      </c>
+      <c r="B658" t="s">
+        <v>129</v>
+      </c>
+      <c r="C658" t="s">
+        <v>507</v>
+      </c>
+      <c r="D658" s="1">
+        <v>39</v>
+      </c>
+      <c r="L658" t="s">
+        <v>194</v>
+      </c>
+      <c r="M658" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="659" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A659">
+        <v>8</v>
+      </c>
+      <c r="B659" t="s">
+        <v>129</v>
+      </c>
+      <c r="C659" t="s">
+        <v>507</v>
+      </c>
+      <c r="D659" s="1">
+        <v>40</v>
+      </c>
+      <c r="L659" t="s">
+        <v>194</v>
+      </c>
+      <c r="M659" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="660" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A660">
+        <v>8</v>
+      </c>
+      <c r="B660" t="s">
+        <v>129</v>
+      </c>
+      <c r="C660" t="s">
+        <v>507</v>
+      </c>
+      <c r="D660" s="1">
+        <v>41</v>
+      </c>
+      <c r="L660" t="s">
+        <v>194</v>
+      </c>
+      <c r="M660" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="661" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A661">
+        <v>8</v>
+      </c>
+      <c r="B661" t="s">
+        <v>129</v>
+      </c>
+      <c r="C661" t="s">
+        <v>507</v>
+      </c>
+      <c r="D661" s="1">
+        <v>42</v>
+      </c>
+      <c r="L661" t="s">
+        <v>194</v>
+      </c>
+      <c r="M661" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="662" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A662">
+        <v>8</v>
+      </c>
+      <c r="B662" t="s">
+        <v>129</v>
+      </c>
+      <c r="C662" t="s">
+        <v>507</v>
+      </c>
+      <c r="D662" s="1">
+        <v>43</v>
+      </c>
+      <c r="L662" t="s">
+        <v>194</v>
+      </c>
+      <c r="M662" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="663" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+      <c r="A663">
+        <v>8</v>
+      </c>
+      <c r="B663" t="s">
+        <v>129</v>
+      </c>
+      <c r="C663" t="s">
+        <v>507</v>
+      </c>
+      <c r="D663" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="L663" t="s">
+        <v>69</v>
+      </c>
+      <c r="N663" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="664" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A664">
+        <v>8</v>
+      </c>
+      <c r="B664" t="s">
+        <v>129</v>
+      </c>
+      <c r="C664" t="s">
+        <v>507</v>
+      </c>
+      <c r="D664" s="1">
+        <v>45</v>
+      </c>
+      <c r="L664" t="s">
+        <v>46</v>
+      </c>
+      <c r="M664" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="665" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A665">
+        <v>8</v>
+      </c>
+      <c r="B665" t="s">
+        <v>129</v>
+      </c>
+      <c r="C665" t="s">
+        <v>507</v>
+      </c>
+      <c r="D665" s="1">
+        <v>46</v>
+      </c>
+      <c r="L665" t="s">
+        <v>194</v>
+      </c>
+      <c r="M665" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="666" spans="1:20" ht="48" x14ac:dyDescent="0.2">
+      <c r="A666">
+        <v>8</v>
+      </c>
+      <c r="B666" t="s">
+        <v>129</v>
+      </c>
+      <c r="C666" t="s">
+        <v>507</v>
+      </c>
+      <c r="D666" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="L666" t="s">
+        <v>69</v>
+      </c>
+      <c r="N666" t="s">
+        <v>46</v>
+      </c>
+      <c r="O666" t="s">
+        <v>69</v>
+      </c>
+      <c r="P666" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q666" t="s">
+        <v>533</v>
+      </c>
+      <c r="R666" t="s">
+        <v>534</v>
+      </c>
+      <c r="S666" t="s">
+        <v>500</v>
+      </c>
+      <c r="T666">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="667" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A667">
+        <v>8</v>
+      </c>
+      <c r="B667" t="s">
+        <v>129</v>
+      </c>
+      <c r="C667" t="s">
+        <v>507</v>
+      </c>
+      <c r="D667" s="1">
+        <v>48</v>
+      </c>
+      <c r="L667" t="s">
+        <v>46</v>
+      </c>
+      <c r="M667" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="668" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A668">
+        <v>8</v>
+      </c>
+      <c r="B668" t="s">
+        <v>129</v>
+      </c>
+      <c r="C668" t="s">
+        <v>507</v>
+      </c>
+      <c r="D668" s="1">
+        <v>49</v>
+      </c>
+      <c r="L668" t="s">
+        <v>194</v>
+      </c>
+      <c r="M668" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="669" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A669">
+        <v>8</v>
+      </c>
+      <c r="B669" t="s">
+        <v>129</v>
+      </c>
+      <c r="C669" t="s">
+        <v>507</v>
+      </c>
+      <c r="D669" s="1">
+        <v>50</v>
+      </c>
+      <c r="L669" t="s">
+        <v>194</v>
+      </c>
+      <c r="M669" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="670" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A670">
+        <v>8</v>
+      </c>
+      <c r="B670" t="s">
+        <v>129</v>
+      </c>
+      <c r="C670" t="s">
+        <v>507</v>
+      </c>
+      <c r="D670" s="1">
+        <v>51</v>
+      </c>
+      <c r="L670" t="s">
+        <v>46</v>
+      </c>
+      <c r="M670" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="671" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A671">
+        <v>8</v>
+      </c>
+      <c r="B671" t="s">
+        <v>129</v>
+      </c>
+      <c r="C671" t="s">
+        <v>507</v>
+      </c>
+      <c r="D671" s="1">
+        <v>52</v>
+      </c>
+      <c r="L671" t="s">
+        <v>46</v>
+      </c>
+      <c r="M671" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="672" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A672">
+        <v>8</v>
+      </c>
+      <c r="B672" t="s">
+        <v>129</v>
+      </c>
+      <c r="C672" t="s">
+        <v>507</v>
+      </c>
+      <c r="D672" s="1">
+        <v>53</v>
+      </c>
+      <c r="L672" t="s">
+        <v>194</v>
+      </c>
+      <c r="M672" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="673" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+      <c r="A673">
+        <v>8</v>
+      </c>
+      <c r="B673" t="s">
+        <v>129</v>
+      </c>
+      <c r="C673" t="s">
+        <v>507</v>
+      </c>
+      <c r="D673" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="L673" t="s">
+        <v>69</v>
+      </c>
+      <c r="N673" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="674" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A674">
+        <v>8</v>
+      </c>
+      <c r="B674" t="s">
+        <v>129</v>
+      </c>
+      <c r="C674" t="s">
+        <v>507</v>
+      </c>
+      <c r="D674" s="1">
+        <v>55</v>
+      </c>
+      <c r="L674" t="s">
+        <v>46</v>
+      </c>
+      <c r="M674" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="675" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A675">
+        <v>8</v>
+      </c>
+      <c r="B675" t="s">
+        <v>129</v>
+      </c>
+      <c r="C675" t="s">
+        <v>507</v>
+      </c>
+      <c r="D675" s="1">
+        <v>56</v>
+      </c>
+      <c r="L675" t="s">
+        <v>46</v>
+      </c>
+      <c r="M675" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="676" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A676">
+        <v>8</v>
+      </c>
+      <c r="B676" t="s">
+        <v>129</v>
+      </c>
+      <c r="C676" t="s">
+        <v>507</v>
+      </c>
+      <c r="D676" s="1">
+        <v>57</v>
+      </c>
+      <c r="L676" t="s">
+        <v>46</v>
+      </c>
+      <c r="M676" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="677" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A677">
+        <v>8</v>
+      </c>
+      <c r="B677" t="s">
+        <v>129</v>
+      </c>
+      <c r="C677" t="s">
+        <v>507</v>
+      </c>
+      <c r="D677" s="1">
+        <v>58</v>
+      </c>
+      <c r="L677" t="s">
+        <v>46</v>
+      </c>
+      <c r="M677" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="678" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A678">
+        <v>8</v>
+      </c>
+      <c r="B678" t="s">
+        <v>129</v>
+      </c>
+      <c r="C678" t="s">
+        <v>507</v>
+      </c>
+      <c r="D678" s="1">
+        <v>59</v>
+      </c>
+      <c r="L678" t="s">
+        <v>46</v>
+      </c>
+      <c r="M678" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="679" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+      <c r="A679">
+        <v>8</v>
+      </c>
+      <c r="B679" t="s">
+        <v>129</v>
+      </c>
+      <c r="C679" t="s">
+        <v>507</v>
+      </c>
+      <c r="D679" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="L679" t="s">
+        <v>69</v>
+      </c>
+      <c r="N679" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="680" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A680">
+        <v>8</v>
+      </c>
+      <c r="B680" t="s">
+        <v>129</v>
+      </c>
+      <c r="C680" t="s">
+        <v>507</v>
+      </c>
+      <c r="D680" s="1">
+        <v>61</v>
+      </c>
+      <c r="L680" t="s">
+        <v>46</v>
+      </c>
+      <c r="M680" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="681" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+      <c r="A681">
+        <v>8</v>
+      </c>
+      <c r="B681" t="s">
+        <v>129</v>
+      </c>
+      <c r="C681" t="s">
+        <v>507</v>
+      </c>
+      <c r="D681" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="L681" t="s">
+        <v>69</v>
+      </c>
+      <c r="N681" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="682" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+      <c r="A682">
+        <v>8</v>
+      </c>
+      <c r="B682" t="s">
+        <v>129</v>
+      </c>
+      <c r="C682" t="s">
+        <v>507</v>
+      </c>
+      <c r="D682" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="L682" t="s">
+        <v>450</v>
+      </c>
+      <c r="M682" t="s">
+        <v>458</v>
+      </c>
+      <c r="N682" t="s">
+        <v>46</v>
+      </c>
+      <c r="O682" t="s">
+        <v>69</v>
+      </c>
+      <c r="P682" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q682" t="s">
+        <v>540</v>
+      </c>
+      <c r="S682" t="s">
+        <v>541</v>
+      </c>
+      <c r="T682">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="683" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A683">
+        <v>8</v>
+      </c>
+      <c r="B683" t="s">
+        <v>129</v>
+      </c>
+      <c r="C683" t="s">
+        <v>507</v>
+      </c>
+      <c r="D683" s="1">
+        <v>64</v>
+      </c>
+      <c r="L683" t="s">
+        <v>63</v>
+      </c>
+      <c r="M683" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="684" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A684">
+        <v>8</v>
+      </c>
+      <c r="B684" t="s">
+        <v>129</v>
+      </c>
+      <c r="C684" t="s">
+        <v>507</v>
+      </c>
+      <c r="D684" s="1">
+        <v>65</v>
+      </c>
+      <c r="L684" t="s">
+        <v>194</v>
+      </c>
+      <c r="M684" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="685" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A685">
+        <v>8</v>
+      </c>
+      <c r="B685" t="s">
+        <v>129</v>
+      </c>
+      <c r="C685" t="s">
+        <v>507</v>
+      </c>
+      <c r="D685" s="1">
+        <v>66</v>
+      </c>
+      <c r="L685" t="s">
+        <v>194</v>
+      </c>
+      <c r="M685" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="686" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A686">
+        <v>8</v>
+      </c>
+      <c r="B686" t="s">
+        <v>129</v>
+      </c>
+      <c r="C686" t="s">
+        <v>507</v>
+      </c>
+      <c r="D686" s="1">
+        <v>67</v>
+      </c>
+      <c r="L686" t="s">
+        <v>194</v>
+      </c>
+      <c r="M686" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="687" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A687">
+        <v>8</v>
+      </c>
+      <c r="B687" t="s">
+        <v>129</v>
+      </c>
+      <c r="C687" t="s">
+        <v>507</v>
+      </c>
+      <c r="D687" s="1">
+        <v>68</v>
+      </c>
+      <c r="L687" t="s">
+        <v>194</v>
+      </c>
+      <c r="M687" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="688" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A688">
+        <v>8</v>
+      </c>
+      <c r="B688" t="s">
+        <v>129</v>
+      </c>
+      <c r="C688" t="s">
+        <v>507</v>
+      </c>
+      <c r="D688" s="1">
+        <v>69</v>
+      </c>
+      <c r="L688" t="s">
+        <v>194</v>
+      </c>
+      <c r="M688" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="689" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A689">
+        <v>8</v>
+      </c>
+      <c r="B689" t="s">
+        <v>129</v>
+      </c>
+      <c r="C689" t="s">
+        <v>507</v>
+      </c>
+      <c r="D689" s="1">
+        <v>70</v>
+      </c>
+      <c r="L689" t="s">
+        <v>194</v>
+      </c>
+      <c r="M689" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="690" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A690">
+        <v>8</v>
+      </c>
+      <c r="B690" t="s">
+        <v>129</v>
+      </c>
+      <c r="C690" t="s">
+        <v>507</v>
+      </c>
+      <c r="D690" s="1">
+        <v>71</v>
+      </c>
+      <c r="L690" t="s">
+        <v>194</v>
+      </c>
+      <c r="M690" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="691" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A691">
+        <v>8</v>
+      </c>
+      <c r="B691" t="s">
+        <v>129</v>
+      </c>
+      <c r="C691" t="s">
+        <v>507</v>
+      </c>
+      <c r="D691" s="1">
+        <v>72</v>
+      </c>
+      <c r="L691" t="s">
+        <v>194</v>
+      </c>
+      <c r="M691" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="692" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A692">
+        <v>8</v>
+      </c>
+      <c r="B692" t="s">
+        <v>129</v>
+      </c>
+      <c r="C692" t="s">
+        <v>507</v>
+      </c>
+      <c r="D692" s="1">
+        <v>73</v>
+      </c>
+      <c r="L692" t="s">
+        <v>194</v>
+      </c>
+      <c r="M692" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="693" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A693">
+        <v>8</v>
+      </c>
+      <c r="B693" t="s">
+        <v>129</v>
+      </c>
+      <c r="C693" t="s">
+        <v>507</v>
+      </c>
+      <c r="D693" s="1">
+        <v>74</v>
+      </c>
+      <c r="L693" t="s">
+        <v>194</v>
+      </c>
+      <c r="M693" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="694" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A694">
+        <v>8</v>
+      </c>
+      <c r="B694" t="s">
+        <v>129</v>
+      </c>
+      <c r="C694" t="s">
+        <v>507</v>
+      </c>
+      <c r="D694" s="1">
+        <v>75</v>
+      </c>
+      <c r="L694" t="s">
+        <v>194</v>
+      </c>
+      <c r="M694" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="695" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A695">
+        <v>8</v>
+      </c>
+      <c r="B695" t="s">
+        <v>129</v>
+      </c>
+      <c r="C695" t="s">
+        <v>507</v>
+      </c>
+      <c r="D695" s="1">
+        <v>76</v>
+      </c>
+      <c r="L695" t="s">
+        <v>194</v>
+      </c>
+      <c r="M695" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="696" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A696">
+        <v>8</v>
+      </c>
+      <c r="B696" t="s">
+        <v>129</v>
+      </c>
+      <c r="C696" t="s">
+        <v>507</v>
+      </c>
+      <c r="D696" s="1">
+        <v>77</v>
+      </c>
+      <c r="L696" t="s">
+        <v>194</v>
+      </c>
+      <c r="M696" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="697" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A697">
+        <v>8</v>
+      </c>
+      <c r="B697" t="s">
+        <v>129</v>
+      </c>
+      <c r="C697" t="s">
+        <v>507</v>
+      </c>
+      <c r="D697" s="1">
+        <v>78</v>
+      </c>
+      <c r="L697" t="s">
+        <v>194</v>
+      </c>
+      <c r="M697" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="698" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A698">
+        <v>8</v>
+      </c>
+      <c r="B698" t="s">
+        <v>129</v>
+      </c>
+      <c r="C698" t="s">
+        <v>507</v>
+      </c>
+      <c r="D698" s="1">
+        <v>79</v>
+      </c>
+      <c r="L698" t="s">
+        <v>194</v>
+      </c>
+      <c r="M698" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="699" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A699">
+        <v>8</v>
+      </c>
+      <c r="B699" t="s">
+        <v>129</v>
+      </c>
+      <c r="C699" t="s">
+        <v>507</v>
+      </c>
+      <c r="D699" s="1">
+        <v>80</v>
+      </c>
+      <c r="L699" t="s">
+        <v>194</v>
+      </c>
+      <c r="M699" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="700" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A700">
+        <v>8</v>
+      </c>
+      <c r="B700" t="s">
+        <v>129</v>
+      </c>
+      <c r="C700" t="s">
+        <v>507</v>
+      </c>
+      <c r="D700" s="1">
+        <v>81</v>
+      </c>
+      <c r="L700" t="s">
+        <v>194</v>
+      </c>
+      <c r="M700" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="701" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A701">
+        <v>8</v>
+      </c>
+      <c r="B701" t="s">
+        <v>129</v>
+      </c>
+      <c r="C701" t="s">
+        <v>507</v>
+      </c>
+      <c r="D701" s="1">
+        <v>82</v>
+      </c>
+      <c r="L701" t="s">
+        <v>194</v>
+      </c>
+      <c r="M701" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="702" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A702">
+        <v>8</v>
+      </c>
+      <c r="B702" t="s">
+        <v>129</v>
+      </c>
+      <c r="C702" t="s">
+        <v>507</v>
+      </c>
+      <c r="D702" s="1">
+        <v>83</v>
+      </c>
+      <c r="L702" t="s">
+        <v>194</v>
+      </c>
+      <c r="M702" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="703" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A703">
+        <v>8</v>
+      </c>
+      <c r="B703" t="s">
+        <v>129</v>
+      </c>
+      <c r="C703" t="s">
+        <v>507</v>
+      </c>
+      <c r="D703" s="1">
+        <v>84</v>
+      </c>
+      <c r="L703" t="s">
+        <v>194</v>
+      </c>
+      <c r="M703" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="704" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A704">
+        <v>8</v>
+      </c>
+      <c r="B704" t="s">
+        <v>129</v>
+      </c>
+      <c r="C704" t="s">
+        <v>507</v>
+      </c>
+      <c r="D704" s="1">
+        <v>85</v>
+      </c>
+      <c r="L704" t="s">
+        <v>194</v>
+      </c>
+      <c r="M704" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="705" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A705">
+        <v>8</v>
+      </c>
+      <c r="B705" t="s">
+        <v>129</v>
+      </c>
+      <c r="C705" t="s">
+        <v>507</v>
+      </c>
+      <c r="D705" s="1">
+        <v>86</v>
+      </c>
+      <c r="L705" t="s">
+        <v>194</v>
+      </c>
+      <c r="M705" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="706" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A706">
+        <v>8</v>
+      </c>
+      <c r="B706" t="s">
+        <v>129</v>
+      </c>
+      <c r="C706" t="s">
+        <v>507</v>
+      </c>
+      <c r="D706" s="1">
+        <v>87</v>
+      </c>
+      <c r="L706" t="s">
+        <v>194</v>
+      </c>
+      <c r="M706" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="707" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A707">
+        <v>8</v>
+      </c>
+      <c r="B707" t="s">
+        <v>129</v>
+      </c>
+      <c r="C707" t="s">
+        <v>507</v>
+      </c>
+      <c r="D707" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="L707" t="s">
+        <v>69</v>
+      </c>
+      <c r="N707" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="708" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A708">
+        <v>8</v>
+      </c>
+      <c r="B708" t="s">
+        <v>129</v>
+      </c>
+      <c r="C708" t="s">
+        <v>507</v>
+      </c>
+      <c r="D708" s="1">
+        <v>89</v>
+      </c>
+      <c r="L708" t="s">
+        <v>194</v>
+      </c>
+      <c r="M708" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="709" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="A709">
+        <v>8</v>
+      </c>
+      <c r="B709" t="s">
+        <v>129</v>
+      </c>
+      <c r="C709" t="s">
+        <v>507</v>
+      </c>
+      <c r="D709" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="L709" t="s">
+        <v>69</v>
+      </c>
+      <c r="N709" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="710" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A710">
+        <v>8</v>
+      </c>
+      <c r="B710" t="s">
+        <v>129</v>
+      </c>
+      <c r="C710" t="s">
+        <v>507</v>
+      </c>
+      <c r="D710" s="1">
+        <v>91</v>
+      </c>
+      <c r="L710" t="s">
+        <v>46</v>
+      </c>
+      <c r="M710" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="711" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A711">
+        <v>8</v>
+      </c>
+      <c r="B711" t="s">
+        <v>129</v>
+      </c>
+      <c r="C711" t="s">
+        <v>507</v>
+      </c>
+      <c r="D711" s="1">
+        <v>92</v>
+      </c>
+      <c r="L711" t="s">
+        <v>194</v>
+      </c>
+      <c r="M711" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="712" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A712">
+        <v>8</v>
+      </c>
+      <c r="B712" t="s">
+        <v>129</v>
+      </c>
+      <c r="C712" t="s">
+        <v>507</v>
+      </c>
+      <c r="D712" s="1">
+        <v>93</v>
+      </c>
+      <c r="L712" t="s">
+        <v>194</v>
+      </c>
+      <c r="M712" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="713" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A713">
+        <v>8</v>
+      </c>
+      <c r="B713" t="s">
+        <v>129</v>
+      </c>
+      <c r="C713" t="s">
+        <v>507</v>
+      </c>
+      <c r="D713" s="1">
+        <v>94</v>
+      </c>
+      <c r="L713" t="s">
+        <v>194</v>
+      </c>
+      <c r="M713" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="714" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A714">
+        <v>8</v>
+      </c>
+      <c r="B714" t="s">
+        <v>129</v>
+      </c>
+      <c r="C714" t="s">
+        <v>507</v>
+      </c>
+      <c r="D714" s="1">
+        <v>95</v>
+      </c>
+      <c r="L714" t="s">
+        <v>194</v>
+      </c>
+      <c r="M714" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="715" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A715">
+        <v>8</v>
+      </c>
+      <c r="B715" t="s">
+        <v>129</v>
+      </c>
+      <c r="C715" t="s">
+        <v>507</v>
+      </c>
+      <c r="D715" s="1">
+        <v>96</v>
+      </c>
+      <c r="L715" t="s">
+        <v>194</v>
+      </c>
+      <c r="M715" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="716" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A716">
+        <v>8</v>
+      </c>
+      <c r="B716" t="s">
+        <v>129</v>
+      </c>
+      <c r="C716" t="s">
+        <v>507</v>
+      </c>
+      <c r="D716" s="1">
+        <v>97</v>
+      </c>
+      <c r="L716" t="s">
+        <v>194</v>
+      </c>
+      <c r="M716" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="717" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A717">
+        <v>9</v>
+      </c>
+      <c r="B717" t="s">
+        <v>129</v>
+      </c>
+      <c r="C717" t="s">
+        <v>507</v>
+      </c>
+      <c r="D717" s="1">
+        <v>1</v>
+      </c>
+      <c r="L717" t="s">
+        <v>194</v>
+      </c>
+      <c r="M717" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="718" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A718">
+        <v>9</v>
+      </c>
+      <c r="B718" t="s">
+        <v>129</v>
+      </c>
+      <c r="C718" t="s">
+        <v>507</v>
+      </c>
+      <c r="D718" s="1">
+        <v>2</v>
+      </c>
+      <c r="L718" t="s">
+        <v>194</v>
+      </c>
+      <c r="M718" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="719" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A719">
+        <v>9</v>
+      </c>
+      <c r="B719" t="s">
+        <v>129</v>
+      </c>
+      <c r="C719" t="s">
+        <v>507</v>
+      </c>
+      <c r="D719" s="1">
+        <v>3</v>
+      </c>
+      <c r="L719" t="s">
+        <v>194</v>
+      </c>
+      <c r="M719" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="720" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A720">
+        <v>9</v>
+      </c>
+      <c r="B720" t="s">
+        <v>129</v>
+      </c>
+      <c r="C720" t="s">
+        <v>507</v>
+      </c>
+      <c r="D720" s="1">
+        <v>4</v>
+      </c>
+      <c r="L720" t="s">
+        <v>194</v>
+      </c>
+      <c r="M720" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="721" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A721">
+        <v>9</v>
+      </c>
+      <c r="B721" t="s">
+        <v>129</v>
+      </c>
+      <c r="C721" t="s">
+        <v>507</v>
+      </c>
+      <c r="D721" s="1">
+        <v>5</v>
+      </c>
+      <c r="L721" t="s">
+        <v>194</v>
+      </c>
+      <c r="M721" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="722" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A722">
+        <v>9</v>
+      </c>
+      <c r="B722" t="s">
+        <v>129</v>
+      </c>
+      <c r="C722" t="s">
+        <v>507</v>
+      </c>
+      <c r="D722" s="1">
+        <v>6</v>
+      </c>
+      <c r="L722" t="s">
+        <v>194</v>
+      </c>
+      <c r="M722" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="723" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A723">
+        <v>9</v>
+      </c>
+      <c r="B723" t="s">
+        <v>129</v>
+      </c>
+      <c r="C723" t="s">
+        <v>507</v>
+      </c>
+      <c r="D723" s="1">
+        <v>7</v>
+      </c>
+      <c r="L723" t="s">
+        <v>194</v>
+      </c>
+      <c r="M723" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="724" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A724">
+        <v>9</v>
+      </c>
+      <c r="B724" t="s">
+        <v>129</v>
+      </c>
+      <c r="C724" t="s">
+        <v>507</v>
+      </c>
+      <c r="D724" s="1">
+        <v>8</v>
+      </c>
+      <c r="L724" t="s">
+        <v>194</v>
+      </c>
+      <c r="M724" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="725" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A725">
+        <v>9</v>
+      </c>
+      <c r="B725" t="s">
+        <v>129</v>
+      </c>
+      <c r="C725" t="s">
+        <v>507</v>
+      </c>
+      <c r="D725" s="1">
+        <v>9</v>
+      </c>
+      <c r="L725" t="s">
+        <v>194</v>
+      </c>
+      <c r="M725" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="726" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A726">
+        <v>9</v>
+      </c>
+      <c r="B726" t="s">
+        <v>129</v>
+      </c>
+      <c r="C726" t="s">
+        <v>507</v>
+      </c>
+      <c r="D726" s="1">
+        <v>10</v>
+      </c>
+      <c r="L726" t="s">
+        <v>194</v>
+      </c>
+      <c r="M726" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="727" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A727">
+        <v>9</v>
+      </c>
+      <c r="B727" t="s">
+        <v>129</v>
+      </c>
+      <c r="C727" t="s">
+        <v>507</v>
+      </c>
+      <c r="D727" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="L727" t="s">
+        <v>69</v>
+      </c>
+      <c r="M727" t="s">
+        <v>458</v>
+      </c>
+      <c r="N727" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="728" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A728">
+        <v>9</v>
+      </c>
+      <c r="B728" t="s">
+        <v>129</v>
+      </c>
+      <c r="C728" t="s">
+        <v>507</v>
+      </c>
+      <c r="D728" s="1">
+        <v>112</v>
+      </c>
+      <c r="L728" t="s">
+        <v>194</v>
+      </c>
+      <c r="M728" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="729" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A729">
+        <v>9</v>
+      </c>
+      <c r="B729" t="s">
+        <v>129</v>
+      </c>
+      <c r="C729" t="s">
+        <v>507</v>
+      </c>
+      <c r="D729" s="1">
+        <v>113</v>
+      </c>
+      <c r="L729" t="s">
+        <v>194</v>
+      </c>
+      <c r="M729" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="730" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="A730">
+        <v>9</v>
+      </c>
+      <c r="B730" t="s">
+        <v>129</v>
+      </c>
+      <c r="C730" t="s">
+        <v>507</v>
+      </c>
+      <c r="D730" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="L730" t="s">
+        <v>69</v>
+      </c>
+      <c r="N730" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="731" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="A731">
+        <v>9</v>
+      </c>
+      <c r="B731" t="s">
+        <v>129</v>
+      </c>
+      <c r="C731" t="s">
+        <v>507</v>
+      </c>
+      <c r="D731" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="L731" t="s">
+        <v>69</v>
+      </c>
+      <c r="N731" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="732" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A732">
+        <v>9</v>
+      </c>
+      <c r="B732" t="s">
+        <v>129</v>
+      </c>
+      <c r="C732" t="s">
+        <v>507</v>
+      </c>
+      <c r="D732" s="1">
+        <v>116</v>
+      </c>
+      <c r="L732" t="s">
+        <v>194</v>
+      </c>
+      <c r="M732" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="733" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A733">
+        <v>9</v>
+      </c>
+      <c r="B733" t="s">
+        <v>129</v>
+      </c>
+      <c r="C733" t="s">
+        <v>507</v>
+      </c>
+      <c r="D733" s="1">
+        <v>117</v>
+      </c>
+      <c r="L733" t="s">
+        <v>194</v>
+      </c>
+      <c r="M733" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="734" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A734">
+        <v>9</v>
+      </c>
+      <c r="B734" t="s">
+        <v>129</v>
+      </c>
+      <c r="C734" t="s">
+        <v>507</v>
+      </c>
+      <c r="D734" s="1">
+        <v>118</v>
+      </c>
+      <c r="L734" t="s">
+        <v>194</v>
+      </c>
+      <c r="M734" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="735" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A735">
+        <v>9</v>
+      </c>
+      <c r="B735" t="s">
+        <v>129</v>
+      </c>
+      <c r="C735" t="s">
+        <v>507</v>
+      </c>
+      <c r="D735" s="1">
+        <v>119</v>
+      </c>
+      <c r="L735" t="s">
+        <v>194</v>
+      </c>
+      <c r="M735" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="736" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A736">
+        <v>9</v>
+      </c>
+      <c r="B736" t="s">
+        <v>129</v>
+      </c>
+      <c r="C736" t="s">
+        <v>507</v>
+      </c>
+      <c r="D736" s="1">
+        <v>120</v>
+      </c>
+      <c r="L736" t="s">
+        <v>194</v>
+      </c>
+      <c r="M736" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="737" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A737">
+        <v>9</v>
+      </c>
+      <c r="B737" t="s">
+        <v>129</v>
+      </c>
+      <c r="C737" t="s">
+        <v>507</v>
+      </c>
+      <c r="D737" s="1">
+        <v>121</v>
+      </c>
+      <c r="L737" t="s">
+        <v>194</v>
+      </c>
+      <c r="M737" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="738" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A738">
+        <v>9</v>
+      </c>
+      <c r="B738" t="s">
+        <v>129</v>
+      </c>
+      <c r="C738" t="s">
+        <v>507</v>
+      </c>
+      <c r="D738" s="1">
+        <v>122</v>
+      </c>
+      <c r="L738" t="s">
+        <v>194</v>
+      </c>
+      <c r="M738" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="739" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A739">
+        <v>9</v>
+      </c>
+      <c r="B739" t="s">
+        <v>129</v>
+      </c>
+      <c r="C739" t="s">
+        <v>507</v>
+      </c>
+      <c r="D739" s="1">
+        <v>123</v>
+      </c>
+      <c r="L739" t="s">
+        <v>194</v>
+      </c>
+      <c r="M739" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="740" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A740">
+        <v>9</v>
+      </c>
+      <c r="B740" t="s">
+        <v>129</v>
+      </c>
+      <c r="C740" t="s">
+        <v>507</v>
+      </c>
+      <c r="D740" s="1">
+        <v>124</v>
+      </c>
+      <c r="L740" t="s">
+        <v>194</v>
+      </c>
+      <c r="M740" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="741" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A741">
+        <v>9</v>
+      </c>
+      <c r="B741" t="s">
+        <v>129</v>
+      </c>
+      <c r="C741" t="s">
+        <v>507</v>
+      </c>
+      <c r="D741" s="1">
+        <v>125</v>
+      </c>
+      <c r="L741" t="s">
+        <v>194</v>
+      </c>
+      <c r="M741" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="742" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A742">
+        <v>9</v>
+      </c>
+      <c r="B742" t="s">
+        <v>129</v>
+      </c>
+      <c r="C742" t="s">
+        <v>507</v>
+      </c>
+      <c r="D742" s="1">
+        <v>126</v>
+      </c>
+      <c r="L742" t="s">
+        <v>194</v>
+      </c>
+      <c r="M742" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="743" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A743">
+        <v>9</v>
+      </c>
+      <c r="B743" t="s">
+        <v>129</v>
+      </c>
+      <c r="C743" t="s">
+        <v>507</v>
+      </c>
+      <c r="D743" s="1">
+        <v>127</v>
+      </c>
+      <c r="L743" t="s">
+        <v>194</v>
+      </c>
+      <c r="M743" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="744" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A744">
+        <v>9</v>
+      </c>
+      <c r="B744" t="s">
+        <v>129</v>
+      </c>
+      <c r="C744" t="s">
+        <v>507</v>
+      </c>
+      <c r="D744" s="1">
+        <v>128</v>
+      </c>
+      <c r="L744" t="s">
+        <v>194</v>
+      </c>
+      <c r="M744" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="745" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A745">
+        <v>9</v>
+      </c>
+      <c r="B745" t="s">
+        <v>129</v>
+      </c>
+      <c r="C745" t="s">
+        <v>507</v>
+      </c>
+      <c r="D745" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="L745" t="s">
+        <v>69</v>
+      </c>
+      <c r="N745" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="746" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A746">
+        <v>9</v>
+      </c>
+      <c r="B746" t="s">
+        <v>129</v>
+      </c>
+      <c r="C746" t="s">
+        <v>507</v>
+      </c>
+      <c r="D746" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="L746" t="s">
+        <v>69</v>
+      </c>
+      <c r="N746" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="747" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="A747">
+        <v>9</v>
+      </c>
+      <c r="B747" t="s">
+        <v>129</v>
+      </c>
+      <c r="C747" t="s">
+        <v>507</v>
+      </c>
+      <c r="D747" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="L747" t="s">
+        <v>69</v>
+      </c>
+      <c r="N747" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="748" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A748">
+        <v>9</v>
+      </c>
+      <c r="B748" t="s">
+        <v>129</v>
+      </c>
+      <c r="C748" t="s">
+        <v>507</v>
+      </c>
+      <c r="D748" s="1">
+        <v>132</v>
+      </c>
+      <c r="L748" t="s">
+        <v>194</v>
+      </c>
+      <c r="M748" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="749" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A749">
+        <v>9</v>
+      </c>
+      <c r="B749" t="s">
+        <v>129</v>
+      </c>
+      <c r="C749" t="s">
+        <v>507</v>
+      </c>
+      <c r="D749" s="1">
+        <v>133</v>
+      </c>
+      <c r="L749" t="s">
+        <v>194</v>
+      </c>
+      <c r="M749" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="750" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A750">
+        <v>9</v>
+      </c>
+      <c r="B750" t="s">
+        <v>129</v>
+      </c>
+      <c r="C750" t="s">
+        <v>507</v>
+      </c>
+      <c r="D750" s="1">
+        <v>134</v>
+      </c>
+      <c r="L750" t="s">
+        <v>194</v>
+      </c>
+      <c r="M750" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="751" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A751">
+        <v>9</v>
+      </c>
+      <c r="B751" t="s">
+        <v>129</v>
+      </c>
+      <c r="C751" t="s">
+        <v>507</v>
+      </c>
+      <c r="D751" s="1">
+        <v>135</v>
+      </c>
+      <c r="L751" t="s">
+        <v>194</v>
+      </c>
+      <c r="M751" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="752" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A752">
+        <v>9</v>
+      </c>
+      <c r="B752" t="s">
+        <v>129</v>
+      </c>
+      <c r="C752" t="s">
+        <v>507</v>
+      </c>
+      <c r="D752" s="1">
+        <v>136</v>
+      </c>
+      <c r="L752" t="s">
+        <v>194</v>
+      </c>
+      <c r="M752" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="753" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A753">
+        <v>9</v>
+      </c>
+      <c r="B753" t="s">
+        <v>129</v>
+      </c>
+      <c r="C753" t="s">
+        <v>507</v>
+      </c>
+      <c r="D753" s="1">
+        <v>137</v>
+      </c>
+      <c r="L753" t="s">
+        <v>194</v>
+      </c>
+      <c r="M753" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="754" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A754">
+        <v>9</v>
+      </c>
+      <c r="B754" t="s">
+        <v>129</v>
+      </c>
+      <c r="C754" t="s">
+        <v>507</v>
+      </c>
+      <c r="D754" s="1">
+        <v>138</v>
+      </c>
+      <c r="L754" t="s">
+        <v>194</v>
+      </c>
+      <c r="M754" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="755" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A755">
+        <v>9</v>
+      </c>
+      <c r="B755" t="s">
+        <v>129</v>
+      </c>
+      <c r="C755" t="s">
+        <v>507</v>
+      </c>
+      <c r="D755" s="1">
+        <v>139</v>
+      </c>
+      <c r="L755" t="s">
+        <v>194</v>
+      </c>
+      <c r="M755" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="756" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A756">
+        <v>9</v>
+      </c>
+      <c r="B756" t="s">
+        <v>129</v>
+      </c>
+      <c r="C756" t="s">
+        <v>507</v>
+      </c>
+      <c r="D756" s="1">
+        <v>140</v>
+      </c>
+      <c r="L756" t="s">
+        <v>194</v>
+      </c>
+      <c r="M756" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="757" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A757">
+        <v>9</v>
+      </c>
+      <c r="B757" t="s">
+        <v>129</v>
+      </c>
+      <c r="C757" t="s">
+        <v>507</v>
+      </c>
+      <c r="D757" s="1">
+        <v>141</v>
+      </c>
+      <c r="L757" t="s">
+        <v>194</v>
+      </c>
+      <c r="M757" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="758" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A758">
+        <v>9</v>
+      </c>
+      <c r="B758" t="s">
+        <v>129</v>
+      </c>
+      <c r="C758" t="s">
+        <v>507</v>
+      </c>
+      <c r="D758" s="1">
+        <v>142</v>
+      </c>
+      <c r="L758" t="s">
+        <v>450</v>
+      </c>
+      <c r="M758" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="759" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="A759">
+        <v>9</v>
+      </c>
+      <c r="B759" t="s">
+        <v>129</v>
+      </c>
+      <c r="C759" t="s">
+        <v>507</v>
+      </c>
+      <c r="D759" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="L759" t="s">
+        <v>69</v>
+      </c>
+      <c r="N759" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="760" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="A760">
+        <v>9</v>
+      </c>
+      <c r="B760" t="s">
+        <v>129</v>
+      </c>
+      <c r="C760" t="s">
+        <v>507</v>
+      </c>
+      <c r="D760" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="L760" t="s">
+        <v>227</v>
+      </c>
+      <c r="N760" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="761" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A761">
+        <v>9</v>
+      </c>
+      <c r="B761" t="s">
+        <v>129</v>
+      </c>
+      <c r="C761" t="s">
+        <v>507</v>
+      </c>
+      <c r="D761" s="1">
+        <v>145</v>
+      </c>
+      <c r="L761" t="s">
+        <v>194</v>
+      </c>
+      <c r="M761" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="762" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A762">
+        <v>10</v>
+      </c>
+      <c r="B762" t="s">
+        <v>129</v>
+      </c>
+      <c r="D762" s="1">
+        <v>146</v>
+      </c>
+      <c r="L762" t="s">
+        <v>194</v>
+      </c>
+      <c r="M762" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="763" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A763">
+        <v>10</v>
+      </c>
+      <c r="B763" t="s">
+        <v>129</v>
+      </c>
+      <c r="D763" s="1">
+        <v>147</v>
+      </c>
+      <c r="L763" t="s">
+        <v>194</v>
+      </c>
+      <c r="M763" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="764" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B764" t="s">
+        <v>129</v>
+      </c>
+      <c r="D764" s="1">
+        <v>1</v>
+      </c>
+      <c r="L764" t="s">
+        <v>194</v>
+      </c>
+      <c r="M764" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="765" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="B765" t="s">
+        <v>129</v>
+      </c>
+      <c r="D765" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="L765" t="s">
+        <v>69</v>
+      </c>
+      <c r="N765" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="766" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B766" t="s">
+        <v>129</v>
+      </c>
+      <c r="D766" s="1">
+        <v>3</v>
+      </c>
+      <c r="L766" t="s">
+        <v>194</v>
+      </c>
+      <c r="M766" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="767" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B767" t="s">
+        <v>129</v>
+      </c>
+      <c r="D767" s="1">
+        <v>4</v>
+      </c>
+      <c r="L767" t="s">
+        <v>194</v>
+      </c>
+      <c r="M767" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="768" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B768" t="s">
+        <v>129</v>
+      </c>
+      <c r="D768" s="1">
+        <v>5</v>
+      </c>
+      <c r="L768" t="s">
+        <v>194</v>
+      </c>
+      <c r="M768" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="769" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B769" t="s">
+        <v>129</v>
+      </c>
+      <c r="D769" s="1">
+        <v>6</v>
+      </c>
+      <c r="L769" t="s">
+        <v>194</v>
+      </c>
+      <c r="M769" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="770" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B770" t="s">
+        <v>129</v>
+      </c>
+      <c r="D770" s="1">
+        <v>7</v>
+      </c>
+      <c r="L770" t="s">
+        <v>194</v>
+      </c>
+      <c r="M770" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="771" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B771" t="s">
+        <v>129</v>
+      </c>
+      <c r="D771" s="1">
+        <v>8</v>
+      </c>
+      <c r="L771" t="s">
+        <v>194</v>
+      </c>
+      <c r="M771" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="772" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B772" t="s">
+        <v>129</v>
+      </c>
+      <c r="D772" s="1">
+        <v>9</v>
+      </c>
+      <c r="L772" t="s">
+        <v>194</v>
+      </c>
+      <c r="M772" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="773" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B773" t="s">
+        <v>129</v>
+      </c>
+      <c r="D773" s="1">
+        <v>10</v>
+      </c>
+      <c r="L773" t="s">
+        <v>194</v>
+      </c>
+      <c r="M773" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="774" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B774" t="s">
+        <v>129</v>
+      </c>
+      <c r="D774" s="1">
+        <v>11</v>
+      </c>
+      <c r="L774" t="s">
+        <v>194</v>
+      </c>
+      <c r="M774" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="775" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B775" t="s">
+        <v>129</v>
+      </c>
+      <c r="D775" s="1">
+        <v>12</v>
+      </c>
+      <c r="L775" t="s">
+        <v>194</v>
+      </c>
+      <c r="M775" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="776" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B776" t="s">
+        <v>129</v>
+      </c>
+      <c r="D776" s="1">
+        <v>13</v>
+      </c>
+      <c r="L776" t="s">
+        <v>194</v>
+      </c>
+      <c r="M776" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="777" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B777" t="s">
+        <v>129</v>
+      </c>
+      <c r="D777" s="1">
+        <v>14</v>
+      </c>
+      <c r="L777" t="s">
+        <v>194</v>
+      </c>
+      <c r="M777" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="778" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B778" t="s">
+        <v>129</v>
+      </c>
+      <c r="D778" s="1">
+        <v>15</v>
+      </c>
+      <c r="L778" t="s">
+        <v>194</v>
+      </c>
+      <c r="M778" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="779" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B779" t="s">
+        <v>129</v>
+      </c>
+      <c r="D779" s="1">
+        <v>16</v>
+      </c>
+      <c r="L779" t="s">
+        <v>194</v>
+      </c>
+      <c r="M779" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="780" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B780" t="s">
+        <v>129</v>
+      </c>
+      <c r="D780" s="1">
+        <v>17</v>
+      </c>
+      <c r="L780" t="s">
+        <v>194</v>
+      </c>
+      <c r="M780" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="781" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B781" t="s">
+        <v>129</v>
+      </c>
+      <c r="D781" s="1">
+        <v>18</v>
+      </c>
+      <c r="L781" t="s">
+        <v>194</v>
+      </c>
+      <c r="M781" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="782" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B782" t="s">
+        <v>129</v>
+      </c>
+      <c r="D782" s="1">
+        <v>19</v>
+      </c>
+      <c r="L782" t="s">
+        <v>194</v>
+      </c>
+      <c r="M782" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="783" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B783" t="s">
+        <v>129</v>
+      </c>
+      <c r="D783" s="1">
+        <v>20</v>
+      </c>
+      <c r="L783" t="s">
+        <v>194</v>
+      </c>
+      <c r="M783" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="784" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B784" t="s">
+        <v>129</v>
+      </c>
+      <c r="D784" s="1">
+        <v>21</v>
+      </c>
+      <c r="L784" t="s">
+        <v>194</v>
+      </c>
+      <c r="M784" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="785" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B785" t="s">
+        <v>129</v>
+      </c>
+      <c r="D785" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="L785" t="s">
+        <v>69</v>
+      </c>
+      <c r="N785" t="s">
+        <v>194</v>
+      </c>
+      <c r="O785" t="s">
+        <v>227</v>
+      </c>
+      <c r="P785" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q785" t="s">
+        <v>566</v>
+      </c>
+      <c r="R785" t="s">
+        <v>567</v>
+      </c>
+      <c r="S785" t="s">
+        <v>257</v>
+      </c>
+      <c r="T785">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="786" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B786" t="s">
+        <v>129</v>
+      </c>
+      <c r="D786" s="1">
+        <v>23</v>
+      </c>
+      <c r="L786" t="s">
+        <v>194</v>
+      </c>
+      <c r="M786" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="787" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B787" t="s">
+        <v>129</v>
+      </c>
+      <c r="D787" s="1">
+        <v>24</v>
+      </c>
+      <c r="L787" t="s">
+        <v>194</v>
+      </c>
+      <c r="M787" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="788" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B788" t="s">
+        <v>129</v>
+      </c>
+      <c r="D788" s="1">
+        <v>25</v>
+      </c>
+      <c r="L788" t="s">
+        <v>194</v>
+      </c>
+      <c r="M788" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="789" spans="2:20" ht="32" x14ac:dyDescent="0.2">
+      <c r="B789" t="s">
+        <v>129</v>
+      </c>
+      <c r="D789" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="L789" t="s">
+        <v>69</v>
+      </c>
+      <c r="N789" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="790" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B790" t="s">
+        <v>129</v>
+      </c>
+      <c r="D790" s="1">
+        <v>27</v>
+      </c>
+      <c r="L790" t="s">
+        <v>194</v>
+      </c>
+      <c r="M790" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="791" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B791" t="s">
+        <v>129</v>
+      </c>
+      <c r="D791" s="1">
+        <v>28</v>
+      </c>
+      <c r="L791" t="s">
+        <v>194</v>
+      </c>
+      <c r="M791" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="792" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B792" t="s">
+        <v>129</v>
+      </c>
+      <c r="D792" s="1">
+        <v>29</v>
+      </c>
+      <c r="L792" t="s">
+        <v>194</v>
+      </c>
+      <c r="M792" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="793" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B793" t="s">
+        <v>129</v>
+      </c>
+      <c r="D793" s="1">
+        <v>30</v>
+      </c>
+      <c r="L793" t="s">
+        <v>194</v>
+      </c>
+      <c r="M793" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="794" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B794" t="s">
+        <v>129</v>
+      </c>
+      <c r="D794" s="1">
+        <v>31</v>
+      </c>
+      <c r="L794" t="s">
+        <v>194</v>
+      </c>
+      <c r="M794" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="795" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B795" t="s">
+        <v>129</v>
+      </c>
+      <c r="D795" s="1">
+        <v>32</v>
+      </c>
+      <c r="L795" t="s">
+        <v>194</v>
+      </c>
+      <c r="M795" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="796" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B796" t="s">
+        <v>129</v>
+      </c>
+      <c r="D796" s="1">
+        <v>33</v>
+      </c>
+      <c r="L796" t="s">
+        <v>194</v>
+      </c>
+      <c r="M796" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="797" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B797" t="s">
+        <v>129</v>
+      </c>
+      <c r="D797" s="1">
+        <v>34</v>
+      </c>
+      <c r="L797" t="s">
+        <v>194</v>
+      </c>
+      <c r="M797" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="798" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B798" t="s">
+        <v>129</v>
+      </c>
+      <c r="D798" s="1">
+        <v>35</v>
+      </c>
+      <c r="L798" t="s">
+        <v>194</v>
+      </c>
+      <c r="M798" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="799" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B799" t="s">
+        <v>129</v>
+      </c>
+      <c r="D799" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="L799" t="s">
+        <v>227</v>
+      </c>
+      <c r="N799" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="800" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B800" t="s">
+        <v>129</v>
+      </c>
+      <c r="D800" s="1">
+        <v>37</v>
+      </c>
+      <c r="L800" t="s">
+        <v>194</v>
+      </c>
+      <c r="M800" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="801" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B801" t="s">
+        <v>129</v>
+      </c>
+      <c r="D801" s="9" t="s">
+        <v>571</v>
+      </c>
+      <c r="L801" t="s">
+        <v>69</v>
+      </c>
+      <c r="N801" t="s">
+        <v>46</v>
+      </c>
+      <c r="O801" t="s">
+        <v>69</v>
+      </c>
+      <c r="P801" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q801" t="s">
+        <v>572</v>
+      </c>
+      <c r="R801" t="s">
+        <v>573</v>
+      </c>
+      <c r="S801" t="s">
+        <v>574</v>
+      </c>
+      <c r="T801">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="802" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B802" t="s">
+        <v>129</v>
+      </c>
+      <c r="D802" s="1">
+        <v>39</v>
+      </c>
+      <c r="L802" t="s">
+        <v>194</v>
+      </c>
+      <c r="M802" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="803" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B803" t="s">
+        <v>129</v>
+      </c>
+      <c r="D803" s="1">
+        <v>40</v>
+      </c>
+      <c r="L803" t="s">
+        <v>194</v>
+      </c>
+      <c r="M803" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="804" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B804" t="s">
+        <v>129</v>
+      </c>
+      <c r="D804" s="1">
+        <v>41</v>
+      </c>
+      <c r="L804" t="s">
+        <v>194</v>
+      </c>
+      <c r="M804" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="805" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B805" t="s">
+        <v>129</v>
+      </c>
+      <c r="D805" s="1">
+        <v>42</v>
+      </c>
+      <c r="L805" t="s">
+        <v>194</v>
+      </c>
+      <c r="M805" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="806" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B806" t="s">
+        <v>129</v>
+      </c>
+      <c r="D806" s="1">
+        <v>43</v>
+      </c>
+      <c r="L806" t="s">
+        <v>194</v>
+      </c>
+      <c r="M806" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="807" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B807" t="s">
+        <v>129</v>
+      </c>
+      <c r="D807" s="1">
+        <v>44</v>
+      </c>
+      <c r="L807" t="s">
+        <v>194</v>
+      </c>
+      <c r="M807" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="808" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B808" t="s">
+        <v>129</v>
+      </c>
+      <c r="D808" s="1">
+        <v>45</v>
+      </c>
+      <c r="L808" t="s">
+        <v>194</v>
+      </c>
+      <c r="M808" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="809" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B809" t="s">
+        <v>129</v>
+      </c>
+      <c r="D809" s="1">
+        <v>46</v>
+      </c>
+      <c r="L809" t="s">
+        <v>194</v>
+      </c>
+      <c r="M809" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="810" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B810" t="s">
+        <v>129</v>
+      </c>
+      <c r="D810" s="1">
+        <v>47</v>
+      </c>
+      <c r="L810" t="s">
+        <v>194</v>
+      </c>
+      <c r="M810" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="811" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B811" t="s">
+        <v>129</v>
+      </c>
+      <c r="D811" s="1">
+        <v>48</v>
+      </c>
+      <c r="L811" t="s">
+        <v>194</v>
+      </c>
+      <c r="M811" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="812" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B812" t="s">
+        <v>129</v>
+      </c>
+      <c r="D812" s="1">
+        <v>49</v>
+      </c>
+      <c r="L812" t="s">
+        <v>194</v>
+      </c>
+      <c r="M812" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="813" spans="2:20" ht="32" x14ac:dyDescent="0.2">
+      <c r="B813" t="s">
+        <v>129</v>
+      </c>
+      <c r="D813" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="L813" t="s">
+        <v>69</v>
+      </c>
+      <c r="N813" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="814" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B814" t="s">
+        <v>129</v>
+      </c>
+      <c r="D814" s="1">
+        <v>51</v>
+      </c>
+      <c r="L814" t="s">
+        <v>194</v>
+      </c>
+      <c r="M814" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="815" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B815" t="s">
+        <v>129</v>
+      </c>
+      <c r="D815" s="1">
+        <v>52</v>
+      </c>
+      <c r="L815" t="s">
+        <v>194</v>
+      </c>
+      <c r="M815" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="816" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B816" t="s">
+        <v>129</v>
+      </c>
+      <c r="D816" s="1">
+        <v>53</v>
+      </c>
+      <c r="L816" t="s">
+        <v>194</v>
+      </c>
+      <c r="M816" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="817" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D817" s="1">
+        <v>54</v>
+      </c>
+      <c r="L817" t="s">
+        <v>194</v>
+      </c>
+      <c r="M817" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="818" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D818" s="1">
+        <v>55</v>
+      </c>
+      <c r="L818" t="s">
+        <v>194</v>
+      </c>
+      <c r="M818" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="819" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D819" s="1">
+        <v>56</v>
+      </c>
+      <c r="L819" t="s">
+        <v>194</v>
+      </c>
+      <c r="M819" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="820" spans="4:20" ht="32" x14ac:dyDescent="0.2">
+      <c r="D820" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="L820" t="s">
+        <v>69</v>
+      </c>
+      <c r="N820" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="821" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D821" s="1">
+        <v>58</v>
+      </c>
+      <c r="L821" t="s">
+        <v>194</v>
+      </c>
+      <c r="M821" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="822" spans="4:20" ht="32" x14ac:dyDescent="0.2">
+      <c r="D822" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="L822" t="s">
+        <v>227</v>
+      </c>
+      <c r="N822" t="s">
+        <v>46</v>
+      </c>
+      <c r="O822" t="s">
+        <v>69</v>
+      </c>
+      <c r="P822" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q822" t="s">
+        <v>578</v>
+      </c>
+      <c r="R822" t="s">
+        <v>285</v>
+      </c>
+      <c r="S822" t="s">
+        <v>579</v>
+      </c>
+      <c r="T822">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="823" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D823" s="1">
+        <v>60</v>
+      </c>
+      <c r="L823" t="s">
+        <v>194</v>
+      </c>
+      <c r="M823" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="824" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D824" s="1">
+        <v>61</v>
+      </c>
+      <c r="L824" t="s">
+        <v>194</v>
+      </c>
+      <c r="M824" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="825" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D825" s="1">
+        <v>62</v>
+      </c>
+      <c r="L825" t="s">
+        <v>194</v>
+      </c>
+      <c r="M825" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="826" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D826" s="1">
+        <v>63</v>
+      </c>
+      <c r="L826" t="s">
+        <v>194</v>
+      </c>
+      <c r="M826" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="827" spans="4:20" ht="32" x14ac:dyDescent="0.2">
+      <c r="D827" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="L827" t="s">
+        <v>69</v>
+      </c>
+      <c r="N827" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="828" spans="4:20" ht="32" x14ac:dyDescent="0.2">
+      <c r="D828" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="L828" t="s">
+        <v>69</v>
+      </c>
+      <c r="N828" t="s">
+        <v>46</v>
+      </c>
+      <c r="O828" t="s">
+        <v>69</v>
+      </c>
+      <c r="P828" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q828" t="s">
+        <v>582</v>
+      </c>
+      <c r="S828" t="s">
+        <v>583</v>
+      </c>
+      <c r="T828">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="829" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D829" s="1">
+        <v>66</v>
+      </c>
+      <c r="L829" t="s">
+        <v>194</v>
+      </c>
+      <c r="M829" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="830" spans="4:20" ht="48" x14ac:dyDescent="0.2">
+      <c r="D830" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="L830" t="s">
+        <v>227</v>
+      </c>
+      <c r="N830" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="831" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D831" s="1">
+        <v>68</v>
+      </c>
+      <c r="L831" t="s">
+        <v>194</v>
+      </c>
+      <c r="M831" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="832" spans="4:20" ht="32" x14ac:dyDescent="0.2">
+      <c r="D832" s="9" t="s">
+        <v>585</v>
+      </c>
+      <c r="L832" t="s">
+        <v>227</v>
+      </c>
+      <c r="N832" t="s">
+        <v>46</v>
+      </c>
+      <c r="O832" t="s">
+        <v>69</v>
+      </c>
+      <c r="P832" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q832" t="s">
+        <v>586</v>
+      </c>
+      <c r="R832" t="s">
+        <v>587</v>
+      </c>
+      <c r="S832" t="s">
+        <v>588</v>
+      </c>
+      <c r="T832">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="833" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D833" s="1">
+        <v>70</v>
+      </c>
+      <c r="L833" t="s">
+        <v>194</v>
+      </c>
+      <c r="M833" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="834" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D834" s="1">
+        <v>71</v>
+      </c>
+      <c r="L834" t="s">
+        <v>194</v>
+      </c>
+      <c r="M834" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="835" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D835" s="1">
+        <v>72</v>
+      </c>
+      <c r="L835" t="s">
+        <v>194</v>
+      </c>
+      <c r="M835" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="836" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D836" s="1">
+        <v>73</v>
+      </c>
+      <c r="L836" t="s">
+        <v>194</v>
+      </c>
+      <c r="M836" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="837" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D837" s="1">
+        <v>74</v>
+      </c>
+      <c r="L837" t="s">
+        <v>194</v>
+      </c>
+      <c r="M837" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="838" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D838" s="1">
+        <v>75</v>
+      </c>
+      <c r="L838" t="s">
+        <v>194</v>
+      </c>
+      <c r="M838" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="839" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D839" s="1">
+        <v>76</v>
+      </c>
+      <c r="L839" t="s">
+        <v>194</v>
+      </c>
+      <c r="M839" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="840" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D840" s="1">
+        <v>77</v>
+      </c>
+      <c r="L840" t="s">
+        <v>194</v>
+      </c>
+      <c r="M840" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="841" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D841" s="1">
+        <v>78</v>
+      </c>
+      <c r="L841" t="s">
+        <v>194</v>
+      </c>
+      <c r="M841" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="842" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D842" s="1">
+        <v>79</v>
+      </c>
+      <c r="L842" t="s">
+        <v>194</v>
+      </c>
+      <c r="M842" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="843" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D843" s="1">
+        <v>80</v>
+      </c>
+      <c r="L843" t="s">
+        <v>194</v>
+      </c>
+      <c r="M843" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="844" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D844" s="1">
+        <v>81</v>
+      </c>
+      <c r="L844" t="s">
+        <v>194</v>
+      </c>
+      <c r="M844" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="845" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D845" s="1">
+        <v>82</v>
+      </c>
+      <c r="L845" t="s">
+        <v>194</v>
+      </c>
+      <c r="M845" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="846" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D846" s="1">
+        <v>83</v>
+      </c>
+      <c r="L846" t="s">
+        <v>194</v>
+      </c>
+      <c r="M846" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="847" spans="4:20" ht="48" x14ac:dyDescent="0.2">
+      <c r="D847" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="L847" t="s">
+        <v>69</v>
+      </c>
+      <c r="N847" t="s">
+        <v>46</v>
+      </c>
+      <c r="O847" t="s">
+        <v>69</v>
+      </c>
+      <c r="P847" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q847" t="s">
+        <v>591</v>
+      </c>
+      <c r="R847" t="s">
+        <v>239</v>
+      </c>
+      <c r="S847" t="s">
+        <v>240</v>
+      </c>
+      <c r="T847">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="848" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D848" s="1">
+        <v>85</v>
+      </c>
+      <c r="L848" t="s">
+        <v>194</v>
+      </c>
+      <c r="M848" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="849" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D849" s="1">
+        <v>86</v>
+      </c>
+      <c r="L849" t="s">
+        <v>194</v>
+      </c>
+      <c r="M849" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="850" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D850" s="1">
+        <v>87</v>
+      </c>
+      <c r="L850" t="s">
+        <v>194</v>
+      </c>
+      <c r="M850" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="851" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D851" s="1">
+        <v>88</v>
+      </c>
+      <c r="L851" t="s">
+        <v>194</v>
+      </c>
+      <c r="M851" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="852" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D852" s="1">
+        <v>89</v>
+      </c>
+      <c r="L852" t="s">
+        <v>194</v>
+      </c>
+      <c r="M852" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="853" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D853" s="1">
+        <v>90</v>
+      </c>
+      <c r="L853" t="s">
+        <v>194</v>
+      </c>
+      <c r="M853" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="854" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D854" s="1">
+        <v>91</v>
+      </c>
+      <c r="L854" t="s">
+        <v>194</v>
+      </c>
+      <c r="M854" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="855" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D855" s="1">
+        <v>92</v>
+      </c>
+      <c r="L855" t="s">
+        <v>194</v>
+      </c>
+      <c r="M855" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="856" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D856" s="1">
+        <v>93</v>
+      </c>
+      <c r="L856" t="s">
+        <v>194</v>
+      </c>
+      <c r="M856" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="857" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D857" s="1">
+        <v>94</v>
+      </c>
+      <c r="L857" t="s">
+        <v>194</v>
+      </c>
+      <c r="M857" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="858" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D858" s="1">
+        <v>95</v>
+      </c>
+      <c r="L858" t="s">
+        <v>194</v>
+      </c>
+      <c r="M858" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="859" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D859" s="1">
+        <v>96</v>
+      </c>
+      <c r="L859" t="s">
+        <v>194</v>
+      </c>
+      <c r="M859" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="860" spans="4:20" ht="32" x14ac:dyDescent="0.2">
+      <c r="D860" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="L860" t="s">
+        <v>69</v>
+      </c>
+      <c r="N860" t="s">
+        <v>46</v>
+      </c>
+      <c r="O860" t="s">
+        <v>69</v>
+      </c>
+      <c r="P860" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q860" t="s">
+        <v>593</v>
+      </c>
+      <c r="R860" t="s">
+        <v>594</v>
+      </c>
+      <c r="S860" t="s">
+        <v>313</v>
+      </c>
+      <c r="T860">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="861" spans="4:20" ht="32" x14ac:dyDescent="0.2">
+      <c r="D861" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="L861" t="s">
+        <v>227</v>
+      </c>
+      <c r="M861" t="s">
+        <v>470</v>
+      </c>
+      <c r="N861" t="s">
+        <v>194</v>
+      </c>
+      <c r="O861" t="s">
+        <v>227</v>
+      </c>
+      <c r="P861" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q861" t="s">
+        <v>595</v>
+      </c>
+      <c r="S861" t="s">
+        <v>596</v>
+      </c>
+      <c r="T861">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="862" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D862" s="1">
+        <v>99</v>
+      </c>
+      <c r="L862" t="s">
+        <v>194</v>
+      </c>
+      <c r="M862" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="863" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D863" s="1">
+        <v>100</v>
+      </c>
+      <c r="L863" t="s">
+        <v>194</v>
+      </c>
+      <c r="M863" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/Reading_list_abstract_sift.xlsx
+++ b/Reading_list_abstract_sift.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8629" uniqueCount="768">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9688" uniqueCount="808">
   <si>
     <t>Study (R / Q)</t>
   </si>
@@ -2367,6 +2367,126 @@
   </si>
   <si>
     <t>Gonia Jarema</t>
+  </si>
+  <si>
+    <t>statistics</t>
+  </si>
+  <si>
+    <t>Orthographic specific visual processes during word recognition in developmental dyslexia: an event-related potential study</t>
+  </si>
+  <si>
+    <t>Kellie Elizabeth Higgins</t>
+  </si>
+  <si>
+    <t>Margaret Semrud-Clikerman</t>
+  </si>
+  <si>
+    <t>The effects of morphology on the processing of compound words: Evidence from naming, lexical decisions and eye fixations</t>
+  </si>
+  <si>
+    <t>strategic control an phonological processing in visual word recognition</t>
+  </si>
+  <si>
+    <t>Penelope Maron Pexman</t>
+  </si>
+  <si>
+    <t>S J Lupker</t>
+  </si>
+  <si>
+    <t>Universtiy of Western Ontario, Canada</t>
+  </si>
+  <si>
+    <t>consciousness</t>
+  </si>
+  <si>
+    <t>Cerebral hemisphere organisation and the regulation of lexical-semantic processing in good readers and poor readers</t>
+  </si>
+  <si>
+    <t>Randy Phillip Partridge</t>
+  </si>
+  <si>
+    <t>Debra Jared</t>
+  </si>
+  <si>
+    <t>The processing of multisyllabic words effects of phonological regularity, syllable structure and frequency</t>
+  </si>
+  <si>
+    <t>A word class encoding model for adults and children in comprehension and recall tasks</t>
+  </si>
+  <si>
+    <t>Steven o Ferres</t>
+  </si>
+  <si>
+    <t>word processing druing reading sentences in patients with schizophrenia: evidences from the eyetracking technique</t>
+  </si>
+  <si>
+    <t>Bigram Frequency, Number of Syllables and Morphemes and their effects on lexical decision and word naming</t>
+  </si>
+  <si>
+    <t>On the acquisition of some basic word spelling mechanisms in a deep French and a shallow Spanish system</t>
+  </si>
+  <si>
+    <t>Effects of word frequency and modality on sentence comprehension impairments in people with aphasia</t>
+  </si>
+  <si>
+    <t>American jouranl of speech-language pathology</t>
+  </si>
+  <si>
+    <t>2012, 21 2</t>
+  </si>
+  <si>
+    <t>issue introduction</t>
+  </si>
+  <si>
+    <t>The maze task: Measuring forced incremental sentence processing time</t>
+  </si>
+  <si>
+    <t>Revisiting Orhthographic similarity</t>
+  </si>
+  <si>
+    <t>Brandon C Beltz</t>
+  </si>
+  <si>
+    <t>Christopher T Kello</t>
+  </si>
+  <si>
+    <t>George Mason University</t>
+  </si>
+  <si>
+    <t>Lexical access in Younger and older adults: The case of the mass/count distinction</t>
+  </si>
+  <si>
+    <t>Brain and behaivour in beginning readers: An event-related potential study</t>
+  </si>
+  <si>
+    <t>Donna J Coch</t>
+  </si>
+  <si>
+    <t>Kurt W Fischer</t>
+  </si>
+  <si>
+    <t>Harvard University</t>
+  </si>
+  <si>
+    <t>an investigation of the utilisation of multiple perceptual units as word recognition strategies in learning disabled and normally achieving children</t>
+  </si>
+  <si>
+    <t>Elizabeth ann Noell</t>
+  </si>
+  <si>
+    <t>NorthWestern</t>
+  </si>
+  <si>
+    <t>The effects of context, word frequency and internal redundancy in reading and word perception</t>
+  </si>
+  <si>
+    <t>Dan Jacob Swift</t>
+  </si>
+  <si>
+    <t>University of New Hampshire</t>
+  </si>
+  <si>
+    <t>Eye movements reveal readers lexical quality and reading experience</t>
   </si>
 </sst>
 </file>
@@ -2729,11 +2849,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W1894"/>
+  <dimension ref="A1:W2192"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="210" zoomScaleNormal="210" zoomScalePageLayoutView="210" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1878" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1895" sqref="D1895"/>
+      <pane ySplit="1" topLeftCell="A2179" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E2192" sqref="E2192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25882,7 +26002,7 @@
         <v>227</v>
       </c>
       <c r="P1068" t="s">
-        <v>194</v>
+        <v>262</v>
       </c>
       <c r="Q1068" t="s">
         <v>637</v>
@@ -42269,7 +42389,7 @@
         <v>227</v>
       </c>
       <c r="P1865" t="s">
-        <v>194</v>
+        <v>262</v>
       </c>
       <c r="Q1865" t="s">
         <v>766</v>
@@ -42837,6 +42957,12 @@
       <c r="D1893" s="1">
         <v>1</v>
       </c>
+      <c r="L1893" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1893" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="1894" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1894">
@@ -42850,6 +42976,5534 @@
       </c>
       <c r="D1894" s="1">
         <v>2</v>
+      </c>
+      <c r="L1894" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1894" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="1895" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1895">
+        <v>22</v>
+      </c>
+      <c r="B1895" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1895" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1895" s="1">
+        <v>3</v>
+      </c>
+      <c r="L1895" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1895" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="1896" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1896">
+        <v>22</v>
+      </c>
+      <c r="B1896" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1896" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1896" s="1">
+        <v>4</v>
+      </c>
+      <c r="L1896" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1896" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="1897" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1897">
+        <v>22</v>
+      </c>
+      <c r="B1897" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1897" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1897" s="1">
+        <v>5</v>
+      </c>
+      <c r="L1897" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1897" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="1898" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1898">
+        <v>22</v>
+      </c>
+      <c r="B1898" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1898" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1898" s="1">
+        <v>6</v>
+      </c>
+      <c r="L1898" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1898" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1899" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1899">
+        <v>22</v>
+      </c>
+      <c r="B1899" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1899" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1899" s="1">
+        <v>7</v>
+      </c>
+      <c r="L1899" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1899" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="1900" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1900">
+        <v>22</v>
+      </c>
+      <c r="B1900" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1900" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1900" s="1">
+        <v>8</v>
+      </c>
+      <c r="L1900" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1900" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="1901" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1901">
+        <v>22</v>
+      </c>
+      <c r="B1901" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1901" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1901" s="1">
+        <v>9</v>
+      </c>
+      <c r="L1901" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1901" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="1902" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1902">
+        <v>22</v>
+      </c>
+      <c r="B1902" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1902" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1902" s="1">
+        <v>10</v>
+      </c>
+      <c r="L1902" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1902" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="1903" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1903">
+        <v>22</v>
+      </c>
+      <c r="B1903" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1903" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1903" s="1">
+        <v>11</v>
+      </c>
+      <c r="L1903" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1903" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="1904" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1904">
+        <v>22</v>
+      </c>
+      <c r="B1904" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1904" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1904" s="1">
+        <v>12</v>
+      </c>
+      <c r="L1904" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1904" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="1905" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1905">
+        <v>22</v>
+      </c>
+      <c r="B1905" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1905" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1905" s="1">
+        <v>13</v>
+      </c>
+      <c r="L1905" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1905" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="1906" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1906">
+        <v>22</v>
+      </c>
+      <c r="B1906" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1906" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1906" s="1">
+        <v>14</v>
+      </c>
+      <c r="L1906" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1906" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1907" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1907">
+        <v>22</v>
+      </c>
+      <c r="B1907" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1907" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1907" s="1">
+        <v>15</v>
+      </c>
+      <c r="L1907" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1907" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="1908" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1908">
+        <v>22</v>
+      </c>
+      <c r="B1908" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1908" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1908" s="1">
+        <v>16</v>
+      </c>
+      <c r="L1908" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1908" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="1909" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1909">
+        <v>22</v>
+      </c>
+      <c r="B1909" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1909" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1909" s="1">
+        <v>17</v>
+      </c>
+      <c r="L1909" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1909" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="1910" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1910">
+        <v>22</v>
+      </c>
+      <c r="B1910" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1910" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1910" s="1">
+        <v>18</v>
+      </c>
+      <c r="L1910" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1910" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="1911" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1911">
+        <v>22</v>
+      </c>
+      <c r="B1911" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1911" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1911" s="1">
+        <v>19</v>
+      </c>
+      <c r="L1911" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1911" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="1912" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1912">
+        <v>22</v>
+      </c>
+      <c r="B1912" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1912" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1912" s="1">
+        <v>20</v>
+      </c>
+      <c r="L1912" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1912" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="1913" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1913">
+        <v>22</v>
+      </c>
+      <c r="B1913" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1913" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1913" s="1">
+        <v>21</v>
+      </c>
+      <c r="L1913" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1913" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="1914" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1914">
+        <v>22</v>
+      </c>
+      <c r="B1914" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1914" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1914" s="1">
+        <v>22</v>
+      </c>
+      <c r="L1914" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1914" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="1915" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1915">
+        <v>22</v>
+      </c>
+      <c r="B1915" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1915" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1915" s="1">
+        <v>23</v>
+      </c>
+      <c r="L1915" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1915" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="1916" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1916">
+        <v>22</v>
+      </c>
+      <c r="B1916" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1916" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1916" s="1">
+        <v>24</v>
+      </c>
+      <c r="L1916" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1916" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="1917" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1917">
+        <v>22</v>
+      </c>
+      <c r="B1917" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1917" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1917" s="1">
+        <v>25</v>
+      </c>
+      <c r="L1917" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1917" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1918" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1918">
+        <v>22</v>
+      </c>
+      <c r="B1918" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1918" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1918" s="1">
+        <v>26</v>
+      </c>
+      <c r="L1918" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1918" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="1919" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1919">
+        <v>22</v>
+      </c>
+      <c r="B1919" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1919" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1919" s="1">
+        <v>27</v>
+      </c>
+      <c r="L1919" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1919" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="1920" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1920">
+        <v>22</v>
+      </c>
+      <c r="B1920" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1920" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1920" s="1">
+        <v>28</v>
+      </c>
+      <c r="L1920" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1920" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="1921" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1921">
+        <v>22</v>
+      </c>
+      <c r="B1921" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1921" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1921" s="1">
+        <v>29</v>
+      </c>
+      <c r="L1921" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1921" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="1922" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1922">
+        <v>22</v>
+      </c>
+      <c r="B1922" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1922" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1922" s="1">
+        <v>30</v>
+      </c>
+      <c r="L1922" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1922" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="1923" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1923">
+        <v>22</v>
+      </c>
+      <c r="B1923" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1923" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1923" s="1">
+        <v>31</v>
+      </c>
+      <c r="L1923" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1923" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="1924" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1924">
+        <v>22</v>
+      </c>
+      <c r="B1924" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1924" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1924" s="1">
+        <v>32</v>
+      </c>
+      <c r="L1924" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1924" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1925" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1925">
+        <v>22</v>
+      </c>
+      <c r="B1925" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1925" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1925" s="1">
+        <v>33</v>
+      </c>
+      <c r="L1925" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1925" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="1926" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1926">
+        <v>22</v>
+      </c>
+      <c r="B1926" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1926" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1926" s="1">
+        <v>34</v>
+      </c>
+      <c r="L1926" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1926" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1927" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1927">
+        <v>22</v>
+      </c>
+      <c r="B1927" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1927" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1927" s="1">
+        <v>35</v>
+      </c>
+      <c r="L1927" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1927" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1928" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1928">
+        <v>22</v>
+      </c>
+      <c r="B1928" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1928" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1928" s="1">
+        <v>36</v>
+      </c>
+      <c r="L1928" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1928" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1929" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1929">
+        <v>22</v>
+      </c>
+      <c r="B1929" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1929" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1929" s="1">
+        <v>37</v>
+      </c>
+      <c r="L1929" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1929" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1930" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1930">
+        <v>22</v>
+      </c>
+      <c r="B1930" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1930" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1930" s="1">
+        <v>38</v>
+      </c>
+      <c r="L1930" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1930" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="1931" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1931">
+        <v>22</v>
+      </c>
+      <c r="B1931" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1931" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1931" s="1">
+        <v>39</v>
+      </c>
+      <c r="L1931" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1931" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="1932" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1932">
+        <v>22</v>
+      </c>
+      <c r="B1932" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1932" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1932" s="1">
+        <v>40</v>
+      </c>
+      <c r="L1932" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1932" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="1933" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1933">
+        <v>22</v>
+      </c>
+      <c r="B1933" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1933" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1933" s="1">
+        <v>41</v>
+      </c>
+      <c r="L1933" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1933" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="1934" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1934">
+        <v>22</v>
+      </c>
+      <c r="B1934" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1934" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1934" s="1">
+        <v>42</v>
+      </c>
+      <c r="L1934" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1934" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="1935" spans="1:20" ht="48" x14ac:dyDescent="0.2">
+      <c r="A1935">
+        <v>22</v>
+      </c>
+      <c r="B1935" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1935" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1935" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="L1935" t="s">
+        <v>227</v>
+      </c>
+      <c r="N1935" t="s">
+        <v>194</v>
+      </c>
+      <c r="O1935" t="s">
+        <v>227</v>
+      </c>
+      <c r="P1935" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q1935" t="s">
+        <v>770</v>
+      </c>
+      <c r="R1935" t="s">
+        <v>771</v>
+      </c>
+      <c r="S1935" t="s">
+        <v>725</v>
+      </c>
+      <c r="T1935">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="1936" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1936">
+        <v>22</v>
+      </c>
+      <c r="B1936" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1936" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1936" s="1">
+        <v>44</v>
+      </c>
+      <c r="L1936" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1936" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="1937" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1937">
+        <v>22</v>
+      </c>
+      <c r="B1937" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1937" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1937" s="1">
+        <v>45</v>
+      </c>
+      <c r="L1937" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1937" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="1938" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1938">
+        <v>22</v>
+      </c>
+      <c r="B1938" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1938" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1938" s="1">
+        <v>46</v>
+      </c>
+      <c r="L1938" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1938" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="1939" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1939">
+        <v>22</v>
+      </c>
+      <c r="B1939" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1939" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1939" s="1">
+        <v>47</v>
+      </c>
+      <c r="L1939" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1939" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="1940" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1940">
+        <v>22</v>
+      </c>
+      <c r="B1940" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1940" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1940" s="1">
+        <v>48</v>
+      </c>
+      <c r="L1940" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1940" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="1941" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1941">
+        <v>22</v>
+      </c>
+      <c r="B1941" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1941" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1941" s="1">
+        <v>49</v>
+      </c>
+      <c r="L1941" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1941" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="1942" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1942">
+        <v>22</v>
+      </c>
+      <c r="B1942" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1942" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1942" s="1">
+        <v>50</v>
+      </c>
+      <c r="L1942" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1942" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="1943" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1943">
+        <v>22</v>
+      </c>
+      <c r="B1943" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1943" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1943" s="1">
+        <v>51</v>
+      </c>
+      <c r="L1943" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1943" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="1944" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1944">
+        <v>22</v>
+      </c>
+      <c r="B1944" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1944" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1944" s="1">
+        <v>52</v>
+      </c>
+      <c r="L1944" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1944" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="1945" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1945">
+        <v>22</v>
+      </c>
+      <c r="B1945" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1945" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1945" s="1">
+        <v>53</v>
+      </c>
+      <c r="L1945" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1945" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="1946" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1946">
+        <v>22</v>
+      </c>
+      <c r="B1946" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1946" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1946" s="1">
+        <v>54</v>
+      </c>
+      <c r="L1946" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1946" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="1947" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="A1947">
+        <v>22</v>
+      </c>
+      <c r="B1947" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1947" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1947" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="L1947" t="s">
+        <v>227</v>
+      </c>
+      <c r="N1947" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="1948" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1948">
+        <v>22</v>
+      </c>
+      <c r="B1948" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1948" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1948" s="1">
+        <v>56</v>
+      </c>
+      <c r="L1948" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1948" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="1949" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1949">
+        <v>22</v>
+      </c>
+      <c r="B1949" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1949" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1949" s="1">
+        <v>57</v>
+      </c>
+      <c r="L1949" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1949" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1950" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1950">
+        <v>22</v>
+      </c>
+      <c r="B1950" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1950" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1950" s="1">
+        <v>58</v>
+      </c>
+      <c r="L1950" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1950" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1951" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1951">
+        <v>22</v>
+      </c>
+      <c r="B1951" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1951" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1951" s="1">
+        <v>59</v>
+      </c>
+      <c r="L1951" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1951" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1952" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1952">
+        <v>22</v>
+      </c>
+      <c r="B1952" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1952" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1952" s="1">
+        <v>60</v>
+      </c>
+      <c r="L1952" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1952" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="1953" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1953">
+        <v>22</v>
+      </c>
+      <c r="B1953" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1953" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1953" s="1">
+        <v>61</v>
+      </c>
+      <c r="L1953" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1953" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="1954" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1954">
+        <v>22</v>
+      </c>
+      <c r="B1954" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1954" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1954" s="1">
+        <v>62</v>
+      </c>
+      <c r="L1954" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1954" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="1955" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1955">
+        <v>22</v>
+      </c>
+      <c r="B1955" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1955" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1955" s="1">
+        <v>63</v>
+      </c>
+      <c r="L1955" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1955" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1956" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1956">
+        <v>22</v>
+      </c>
+      <c r="B1956" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1956" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1956" s="1">
+        <v>64</v>
+      </c>
+      <c r="L1956" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1956" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="1957" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1957">
+        <v>22</v>
+      </c>
+      <c r="B1957" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1957" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1957" s="1">
+        <v>65</v>
+      </c>
+      <c r="L1957" t="s">
+        <v>450</v>
+      </c>
+      <c r="M1957" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="1958" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1958">
+        <v>22</v>
+      </c>
+      <c r="B1958" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1958" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1958" s="1">
+        <v>66</v>
+      </c>
+      <c r="L1958" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1958" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="1959" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+      <c r="A1959">
+        <v>22</v>
+      </c>
+      <c r="B1959" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1959" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1959" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="L1959" t="s">
+        <v>227</v>
+      </c>
+      <c r="N1959" t="s">
+        <v>194</v>
+      </c>
+      <c r="O1959" t="s">
+        <v>227</v>
+      </c>
+      <c r="P1959" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q1959" t="s">
+        <v>774</v>
+      </c>
+      <c r="R1959" t="s">
+        <v>775</v>
+      </c>
+      <c r="S1959" t="s">
+        <v>776</v>
+      </c>
+      <c r="T1959">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="1960" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1960">
+        <v>22</v>
+      </c>
+      <c r="B1960" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1960" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1960" s="1">
+        <v>68</v>
+      </c>
+      <c r="L1960" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1960" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="1961" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1961">
+        <v>22</v>
+      </c>
+      <c r="B1961" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1961" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1961" s="1">
+        <v>69</v>
+      </c>
+      <c r="L1961" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1961" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="1962" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1962">
+        <v>22</v>
+      </c>
+      <c r="B1962" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1962" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1962" s="1">
+        <v>70</v>
+      </c>
+      <c r="L1962" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1962" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1963" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1963">
+        <v>22</v>
+      </c>
+      <c r="B1963" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1963" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1963" s="1">
+        <v>71</v>
+      </c>
+      <c r="L1963" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1963" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1964" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1964">
+        <v>22</v>
+      </c>
+      <c r="B1964" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1964" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1964" s="1">
+        <v>72</v>
+      </c>
+      <c r="L1964" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1964" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="1965" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1965">
+        <v>22</v>
+      </c>
+      <c r="B1965" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1965" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1965" s="1">
+        <v>73</v>
+      </c>
+      <c r="L1965" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1965" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="1966" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1966">
+        <v>22</v>
+      </c>
+      <c r="B1966" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1966" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1966" s="1">
+        <v>74</v>
+      </c>
+      <c r="L1966" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1966" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="1967" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1967">
+        <v>22</v>
+      </c>
+      <c r="B1967" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1967" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1967" s="1">
+        <v>75</v>
+      </c>
+      <c r="L1967" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1967" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="1968" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1968">
+        <v>22</v>
+      </c>
+      <c r="B1968" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1968" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1968" s="1">
+        <v>76</v>
+      </c>
+      <c r="L1968" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1968" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="1969" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1969">
+        <v>22</v>
+      </c>
+      <c r="B1969" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1969" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1969" s="1">
+        <v>77</v>
+      </c>
+      <c r="L1969" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1969" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="1970" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1970">
+        <v>22</v>
+      </c>
+      <c r="B1970" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1970" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1970" s="1">
+        <v>78</v>
+      </c>
+      <c r="L1970" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1970" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1971" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1971">
+        <v>22</v>
+      </c>
+      <c r="B1971" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1971" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1971" s="1">
+        <v>79</v>
+      </c>
+      <c r="L1971" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1971" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="1972" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1972">
+        <v>22</v>
+      </c>
+      <c r="B1972" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1972" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1972" s="1">
+        <v>80</v>
+      </c>
+      <c r="L1972" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1972" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="1973" spans="1:20" ht="48" x14ac:dyDescent="0.2">
+      <c r="A1973">
+        <v>22</v>
+      </c>
+      <c r="B1973" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1973" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1973" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="L1973" t="s">
+        <v>227</v>
+      </c>
+      <c r="N1973" t="s">
+        <v>194</v>
+      </c>
+      <c r="O1973" t="s">
+        <v>227</v>
+      </c>
+      <c r="P1973" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q1973" t="s">
+        <v>779</v>
+      </c>
+      <c r="S1973" t="s">
+        <v>161</v>
+      </c>
+      <c r="T1973">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="1974" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1974">
+        <v>22</v>
+      </c>
+      <c r="B1974" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1974" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1974" s="1">
+        <v>82</v>
+      </c>
+      <c r="L1974" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1974" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="1975" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1975">
+        <v>22</v>
+      </c>
+      <c r="B1975" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1975" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1975" s="1">
+        <v>83</v>
+      </c>
+      <c r="L1975" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1975" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="1976" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1976">
+        <v>22</v>
+      </c>
+      <c r="B1976" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1976" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1976" s="1">
+        <v>84</v>
+      </c>
+      <c r="L1976" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1976" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="1977" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1977">
+        <v>22</v>
+      </c>
+      <c r="B1977" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1977" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1977" s="1">
+        <v>85</v>
+      </c>
+      <c r="L1977" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1977" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="1978" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1978">
+        <v>22</v>
+      </c>
+      <c r="B1978" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1978" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1978" s="1">
+        <v>86</v>
+      </c>
+      <c r="L1978" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1978" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="1979" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1979">
+        <v>22</v>
+      </c>
+      <c r="B1979" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1979" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1979" s="1">
+        <v>87</v>
+      </c>
+      <c r="L1979" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1979" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="1980" spans="1:20" ht="48" x14ac:dyDescent="0.2">
+      <c r="A1980">
+        <v>22</v>
+      </c>
+      <c r="B1980" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1980" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1980" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="L1980" t="s">
+        <v>227</v>
+      </c>
+      <c r="M1980" t="s">
+        <v>470</v>
+      </c>
+      <c r="O1980" t="s">
+        <v>227</v>
+      </c>
+      <c r="P1980" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q1980" t="s">
+        <v>780</v>
+      </c>
+      <c r="T1980">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="1981" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1981">
+        <v>22</v>
+      </c>
+      <c r="B1981" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1981" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1981" s="1">
+        <v>89</v>
+      </c>
+      <c r="L1981" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1981" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="1982" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1982">
+        <v>22</v>
+      </c>
+      <c r="B1982" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1982" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1982" s="1">
+        <v>90</v>
+      </c>
+      <c r="L1982" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1982" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="1983" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1983">
+        <v>22</v>
+      </c>
+      <c r="B1983" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1983" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1983" s="1">
+        <v>91</v>
+      </c>
+      <c r="L1983" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1983" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="1984" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1984">
+        <v>22</v>
+      </c>
+      <c r="B1984" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1984" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1984" s="1">
+        <v>92</v>
+      </c>
+      <c r="L1984" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1984" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="1985" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1985">
+        <v>22</v>
+      </c>
+      <c r="B1985" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1985" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1985" s="1">
+        <v>93</v>
+      </c>
+      <c r="L1985" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1985" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="1986" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1986">
+        <v>22</v>
+      </c>
+      <c r="B1986" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1986" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1986" s="1">
+        <v>94</v>
+      </c>
+      <c r="L1986" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1986" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="1987" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1987">
+        <v>22</v>
+      </c>
+      <c r="B1987" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1987" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1987" s="1">
+        <v>95</v>
+      </c>
+      <c r="L1987" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1987" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="1988" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+      <c r="A1988">
+        <v>22</v>
+      </c>
+      <c r="B1988" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1988" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1988" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="L1988" t="s">
+        <v>227</v>
+      </c>
+      <c r="N1988" t="s">
+        <v>194</v>
+      </c>
+      <c r="O1988" t="s">
+        <v>227</v>
+      </c>
+      <c r="P1988" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q1988" t="s">
+        <v>783</v>
+      </c>
+      <c r="S1988" t="s">
+        <v>708</v>
+      </c>
+      <c r="T1988">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="1989" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1989">
+        <v>22</v>
+      </c>
+      <c r="B1989" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1989" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1989" s="1">
+        <v>97</v>
+      </c>
+      <c r="L1989" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1989" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="1990" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1990">
+        <v>22</v>
+      </c>
+      <c r="B1990" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1990" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1990" s="1">
+        <v>98</v>
+      </c>
+      <c r="L1990" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1990" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="1991" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1991">
+        <v>22</v>
+      </c>
+      <c r="B1991" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1991" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1991" s="1">
+        <v>99</v>
+      </c>
+      <c r="L1991" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1991" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="1992" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1992">
+        <v>22</v>
+      </c>
+      <c r="B1992" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1992" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1992" s="1">
+        <v>100</v>
+      </c>
+      <c r="L1992" t="s">
+        <v>450</v>
+      </c>
+      <c r="M1992" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="1993" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1993">
+        <v>23</v>
+      </c>
+      <c r="B1993" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1993" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1993" s="1">
+        <v>1</v>
+      </c>
+      <c r="L1993" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1993" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="1994" spans="1:20" ht="48" x14ac:dyDescent="0.2">
+      <c r="A1994">
+        <v>23</v>
+      </c>
+      <c r="B1994" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1994" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1994" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="L1994" t="s">
+        <v>227</v>
+      </c>
+      <c r="N1994" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="1995" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1995">
+        <v>23</v>
+      </c>
+      <c r="B1995" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1995" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1995" s="1">
+        <v>3</v>
+      </c>
+      <c r="L1995" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1995" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="1996" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1996">
+        <v>23</v>
+      </c>
+      <c r="B1996" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1996" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1996" s="1">
+        <v>4</v>
+      </c>
+      <c r="L1996" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1996" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="1997" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1997">
+        <v>23</v>
+      </c>
+      <c r="B1997" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1997" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1997" s="1">
+        <v>5</v>
+      </c>
+      <c r="L1997" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1997" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="1998" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1998">
+        <v>23</v>
+      </c>
+      <c r="B1998" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1998" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1998" s="1">
+        <v>6</v>
+      </c>
+      <c r="L1998" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1998" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="1999" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1999">
+        <v>23</v>
+      </c>
+      <c r="B1999" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1999" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1999" s="1">
+        <v>7</v>
+      </c>
+      <c r="L1999" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1999" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2000" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2000">
+        <v>23</v>
+      </c>
+      <c r="B2000" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2000" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2000" s="1">
+        <v>8</v>
+      </c>
+      <c r="L2000" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2000" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2001" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2001">
+        <v>23</v>
+      </c>
+      <c r="B2001" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2001" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2001" s="1">
+        <v>9</v>
+      </c>
+      <c r="L2001" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2001" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2002" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2002">
+        <v>23</v>
+      </c>
+      <c r="B2002" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2002" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2002" s="1">
+        <v>10</v>
+      </c>
+      <c r="L2002" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2002" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2003" spans="1:20" ht="48" x14ac:dyDescent="0.2">
+      <c r="A2003">
+        <v>23</v>
+      </c>
+      <c r="B2003" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2003" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2003" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="L2003" t="s">
+        <v>227</v>
+      </c>
+      <c r="N2003" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="2004" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2004">
+        <v>23</v>
+      </c>
+      <c r="B2004" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2004" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2004" s="1">
+        <v>12</v>
+      </c>
+      <c r="L2004" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2004" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2005" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2005">
+        <v>23</v>
+      </c>
+      <c r="B2005" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2005" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2005" s="1">
+        <v>13</v>
+      </c>
+      <c r="L2005" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2005" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2006" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2006">
+        <v>23</v>
+      </c>
+      <c r="B2006" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2006" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2006" s="1">
+        <v>14</v>
+      </c>
+      <c r="L2006" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2006" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2007" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2007">
+        <v>23</v>
+      </c>
+      <c r="B2007" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2007" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2007" s="1">
+        <v>15</v>
+      </c>
+      <c r="L2007" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2007" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2008" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2008">
+        <v>23</v>
+      </c>
+      <c r="B2008" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2008" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2008" s="1">
+        <v>16</v>
+      </c>
+      <c r="L2008" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2008" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2009" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2009">
+        <v>23</v>
+      </c>
+      <c r="B2009" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2009" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2009" s="1">
+        <v>17</v>
+      </c>
+      <c r="L2009" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2009" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2010" spans="1:20" ht="48" x14ac:dyDescent="0.2">
+      <c r="A2010">
+        <v>23</v>
+      </c>
+      <c r="B2010" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2010" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2010" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="L2010" t="s">
+        <v>227</v>
+      </c>
+      <c r="N2010" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="2011" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2011">
+        <v>23</v>
+      </c>
+      <c r="B2011" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2011" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2011" s="1">
+        <v>19</v>
+      </c>
+      <c r="L2011" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2011" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2012" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2012">
+        <v>23</v>
+      </c>
+      <c r="B2012" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2012" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2012" s="1">
+        <v>20</v>
+      </c>
+      <c r="L2012" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2012" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2013" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2013">
+        <v>23</v>
+      </c>
+      <c r="B2013" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2013" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2013" s="1">
+        <v>21</v>
+      </c>
+      <c r="L2013" t="s">
+        <v>450</v>
+      </c>
+      <c r="M2013" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2014" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+      <c r="A2014">
+        <v>23</v>
+      </c>
+      <c r="B2014" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2014" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2014" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="L2014" t="s">
+        <v>227</v>
+      </c>
+      <c r="N2014" t="s">
+        <v>788</v>
+      </c>
+      <c r="T2014" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="2015" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2015">
+        <v>23</v>
+      </c>
+      <c r="B2015" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2015" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2015" s="1">
+        <v>23</v>
+      </c>
+      <c r="L2015" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2015" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="2016" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2016">
+        <v>23</v>
+      </c>
+      <c r="B2016" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2016" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2016" s="1">
+        <v>24</v>
+      </c>
+      <c r="L2016" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2016" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2017" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2017">
+        <v>23</v>
+      </c>
+      <c r="B2017" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2017" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2017" s="1">
+        <v>25</v>
+      </c>
+      <c r="L2017" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2017" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="2018" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2018">
+        <v>23</v>
+      </c>
+      <c r="B2018" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2018" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2018" s="1">
+        <v>26</v>
+      </c>
+      <c r="L2018" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2018" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="2019" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2019">
+        <v>23</v>
+      </c>
+      <c r="B2019" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2019" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2019" s="1">
+        <v>27</v>
+      </c>
+      <c r="L2019" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2019" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="2020" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2020">
+        <v>23</v>
+      </c>
+      <c r="B2020" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2020" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2020" s="1">
+        <v>28</v>
+      </c>
+      <c r="L2020" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2020" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2021" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2021">
+        <v>23</v>
+      </c>
+      <c r="B2021" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2021" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2021" s="1">
+        <v>29</v>
+      </c>
+      <c r="L2021" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2021" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2022" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2022">
+        <v>23</v>
+      </c>
+      <c r="B2022" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2022" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2022" s="1">
+        <v>30</v>
+      </c>
+      <c r="L2022" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2022" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2023" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2023">
+        <v>23</v>
+      </c>
+      <c r="B2023" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2023" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2023" s="1">
+        <v>31</v>
+      </c>
+      <c r="L2023" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2023" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="2024" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2024">
+        <v>23</v>
+      </c>
+      <c r="B2024" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2024" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2024" s="1">
+        <v>32</v>
+      </c>
+      <c r="L2024" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2024" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2025" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2025">
+        <v>23</v>
+      </c>
+      <c r="B2025" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2025" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2025" s="1">
+        <v>33</v>
+      </c>
+      <c r="L2025" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2025" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2026" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2026">
+        <v>23</v>
+      </c>
+      <c r="B2026" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2026" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2026" s="1">
+        <v>34</v>
+      </c>
+      <c r="L2026" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2026" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2027" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2027">
+        <v>23</v>
+      </c>
+      <c r="B2027" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2027" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2027" s="1">
+        <v>35</v>
+      </c>
+      <c r="L2027" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2027" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="2028" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2028">
+        <v>23</v>
+      </c>
+      <c r="B2028" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2028" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2028" s="1">
+        <v>36</v>
+      </c>
+      <c r="L2028" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2028" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2029" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2029">
+        <v>23</v>
+      </c>
+      <c r="B2029" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2029" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2029" s="1">
+        <v>37</v>
+      </c>
+      <c r="L2029" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2029" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2030" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2030">
+        <v>23</v>
+      </c>
+      <c r="B2030" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2030" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2030" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="L2030" t="s">
+        <v>227</v>
+      </c>
+      <c r="N2030" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="2031" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+      <c r="A2031">
+        <v>23</v>
+      </c>
+      <c r="B2031" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2031" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2031" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="L2031" t="s">
+        <v>227</v>
+      </c>
+      <c r="M2031" t="s">
+        <v>54</v>
+      </c>
+      <c r="N2031" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="2032" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2032">
+        <v>23</v>
+      </c>
+      <c r="B2032" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2032" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2032" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="L2032" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2032" t="s">
+        <v>49</v>
+      </c>
+      <c r="N2032" t="s">
+        <v>194</v>
+      </c>
+      <c r="O2032" t="s">
+        <v>227</v>
+      </c>
+      <c r="P2032" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q2032" t="s">
+        <v>793</v>
+      </c>
+      <c r="R2032" t="s">
+        <v>794</v>
+      </c>
+      <c r="S2032" t="s">
+        <v>795</v>
+      </c>
+      <c r="T2032">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="2033" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2033">
+        <v>23</v>
+      </c>
+      <c r="B2033" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2033" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2033" s="1">
+        <v>41</v>
+      </c>
+      <c r="L2033" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2033" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="2034" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2034">
+        <v>23</v>
+      </c>
+      <c r="B2034" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2034" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2034" s="1">
+        <v>42</v>
+      </c>
+      <c r="L2034" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2034" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2035" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2035">
+        <v>23</v>
+      </c>
+      <c r="B2035" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2035" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2035" s="1">
+        <v>43</v>
+      </c>
+      <c r="L2035" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2035" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2036" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2036">
+        <v>23</v>
+      </c>
+      <c r="B2036" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2036" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2036" s="1">
+        <v>44</v>
+      </c>
+      <c r="L2036" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2036" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2037" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2037">
+        <v>23</v>
+      </c>
+      <c r="B2037" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2037" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2037" s="1">
+        <v>45</v>
+      </c>
+      <c r="L2037" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2037" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2038" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A2038">
+        <v>23</v>
+      </c>
+      <c r="B2038" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2038" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2038" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="L2038" t="s">
+        <v>227</v>
+      </c>
+      <c r="N2038" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="2039" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2039">
+        <v>23</v>
+      </c>
+      <c r="B2039" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2039" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2039" s="1">
+        <v>47</v>
+      </c>
+      <c r="L2039" t="s">
+        <v>450</v>
+      </c>
+      <c r="M2039" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="2040" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2040">
+        <v>23</v>
+      </c>
+      <c r="B2040" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2040" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2040" s="1">
+        <v>48</v>
+      </c>
+      <c r="L2040" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2040" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2041" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2041">
+        <v>23</v>
+      </c>
+      <c r="B2041" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2041" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2041" s="1">
+        <v>49</v>
+      </c>
+      <c r="L2041" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2041" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2042" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2042">
+        <v>23</v>
+      </c>
+      <c r="B2042" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2042" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2042" s="1">
+        <v>50</v>
+      </c>
+      <c r="L2042" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2042" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2043" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2043">
+        <v>23</v>
+      </c>
+      <c r="B2043" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2043" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2043" s="1">
+        <v>51</v>
+      </c>
+      <c r="L2043" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2043" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2044" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2044">
+        <v>23</v>
+      </c>
+      <c r="B2044" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2044" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2044" s="1">
+        <v>52</v>
+      </c>
+      <c r="L2044" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2044" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2045" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2045">
+        <v>23</v>
+      </c>
+      <c r="B2045" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2045" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2045" s="1">
+        <v>53</v>
+      </c>
+      <c r="L2045" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2045" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2046" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2046">
+        <v>23</v>
+      </c>
+      <c r="B2046" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2046" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2046" s="1">
+        <v>54</v>
+      </c>
+      <c r="L2046" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2046" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2047" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2047">
+        <v>23</v>
+      </c>
+      <c r="B2047" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2047" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2047" s="1">
+        <v>55</v>
+      </c>
+      <c r="L2047" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2047" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="2048" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2048">
+        <v>23</v>
+      </c>
+      <c r="B2048" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2048" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2048" s="1">
+        <v>56</v>
+      </c>
+      <c r="L2048" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2048" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2049" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2049">
+        <v>23</v>
+      </c>
+      <c r="B2049" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2049" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2049" s="1">
+        <v>57</v>
+      </c>
+      <c r="L2049" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2049" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2050" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2050">
+        <v>23</v>
+      </c>
+      <c r="B2050" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2050" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2050" s="1">
+        <v>58</v>
+      </c>
+      <c r="L2050" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2050" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2051" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2051">
+        <v>23</v>
+      </c>
+      <c r="B2051" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2051" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2051" s="1">
+        <v>59</v>
+      </c>
+      <c r="L2051" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2051" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2052" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2052">
+        <v>23</v>
+      </c>
+      <c r="B2052" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2052" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2052" s="1">
+        <v>60</v>
+      </c>
+      <c r="L2052" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2052" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2053" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2053">
+        <v>23</v>
+      </c>
+      <c r="B2053" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2053" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2053" s="1">
+        <v>61</v>
+      </c>
+      <c r="L2053" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2053" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="2054" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2054">
+        <v>23</v>
+      </c>
+      <c r="B2054" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2054" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2054" s="1">
+        <v>62</v>
+      </c>
+      <c r="L2054" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2054" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2055" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2055">
+        <v>23</v>
+      </c>
+      <c r="B2055" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2055" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2055" s="1">
+        <v>63</v>
+      </c>
+      <c r="L2055" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2055" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2056" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2056">
+        <v>23</v>
+      </c>
+      <c r="B2056" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2056" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2056" s="1">
+        <v>64</v>
+      </c>
+      <c r="L2056" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2056" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2057" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2057">
+        <v>23</v>
+      </c>
+      <c r="B2057" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2057" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2057" s="1">
+        <v>65</v>
+      </c>
+      <c r="L2057" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2057" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2058" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+      <c r="A2058">
+        <v>23</v>
+      </c>
+      <c r="B2058" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2058" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2058" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="L2058" t="s">
+        <v>227</v>
+      </c>
+      <c r="N2058" t="s">
+        <v>194</v>
+      </c>
+      <c r="O2058" t="s">
+        <v>227</v>
+      </c>
+      <c r="P2058" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q2058" t="s">
+        <v>798</v>
+      </c>
+      <c r="R2058" t="s">
+        <v>799</v>
+      </c>
+      <c r="S2058" t="s">
+        <v>800</v>
+      </c>
+      <c r="T2058">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="2059" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2059">
+        <v>23</v>
+      </c>
+      <c r="B2059" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2059" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2059" s="1">
+        <v>67</v>
+      </c>
+      <c r="L2059" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2059" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2060" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2060">
+        <v>23</v>
+      </c>
+      <c r="B2060" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2060" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2060" s="1">
+        <v>68</v>
+      </c>
+      <c r="L2060" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2060" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2061" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2061">
+        <v>23</v>
+      </c>
+      <c r="B2061" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2061" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2061" s="1">
+        <v>69</v>
+      </c>
+      <c r="L2061" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2061" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2062" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2062">
+        <v>23</v>
+      </c>
+      <c r="B2062" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2062" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2062" s="1">
+        <v>70</v>
+      </c>
+      <c r="L2062" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2062" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2063" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2063">
+        <v>23</v>
+      </c>
+      <c r="B2063" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2063" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2063" s="1">
+        <v>71</v>
+      </c>
+      <c r="L2063" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2063" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2064" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2064">
+        <v>23</v>
+      </c>
+      <c r="B2064" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2064" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2064" s="1">
+        <v>72</v>
+      </c>
+      <c r="L2064" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2064" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2065" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2065">
+        <v>23</v>
+      </c>
+      <c r="B2065" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2065" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2065" s="1">
+        <v>73</v>
+      </c>
+      <c r="L2065" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2065" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2066" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2066">
+        <v>23</v>
+      </c>
+      <c r="B2066" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2066" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2066" s="1">
+        <v>74</v>
+      </c>
+      <c r="L2066" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2066" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2067" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2067">
+        <v>23</v>
+      </c>
+      <c r="B2067" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2067" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2067" s="1">
+        <v>75</v>
+      </c>
+      <c r="L2067" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2067" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="2068" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2068">
+        <v>23</v>
+      </c>
+      <c r="B2068" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2068" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2068" s="1">
+        <v>76</v>
+      </c>
+      <c r="L2068" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2068" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2069" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2069">
+        <v>23</v>
+      </c>
+      <c r="B2069" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2069" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2069" s="1">
+        <v>77</v>
+      </c>
+      <c r="L2069" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2069" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2070" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2070">
+        <v>23</v>
+      </c>
+      <c r="B2070" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2070" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2070" s="1">
+        <v>78</v>
+      </c>
+      <c r="L2070" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2070" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="2071" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2071">
+        <v>23</v>
+      </c>
+      <c r="B2071" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2071" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2071" s="1">
+        <v>79</v>
+      </c>
+      <c r="L2071" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2071" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2072" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2072">
+        <v>23</v>
+      </c>
+      <c r="B2072" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2072" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2072" s="1">
+        <v>80</v>
+      </c>
+      <c r="L2072" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2072" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2073" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2073">
+        <v>23</v>
+      </c>
+      <c r="B2073" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2073" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2073" s="1">
+        <v>81</v>
+      </c>
+      <c r="L2073" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2073" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2074" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2074">
+        <v>23</v>
+      </c>
+      <c r="B2074" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2074" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2074" s="1">
+        <v>82</v>
+      </c>
+      <c r="L2074" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2074" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2075" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2075">
+        <v>23</v>
+      </c>
+      <c r="B2075" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2075" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2075" s="1">
+        <v>83</v>
+      </c>
+      <c r="L2075" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2075" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2076" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2076">
+        <v>23</v>
+      </c>
+      <c r="B2076" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2076" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2076" s="1">
+        <v>84</v>
+      </c>
+      <c r="L2076" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2076" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="2077" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2077">
+        <v>23</v>
+      </c>
+      <c r="B2077" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2077" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2077" s="1">
+        <v>85</v>
+      </c>
+      <c r="L2077" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2077" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2078" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2078">
+        <v>23</v>
+      </c>
+      <c r="B2078" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2078" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2078" s="1">
+        <v>86</v>
+      </c>
+      <c r="L2078" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2078" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2079" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2079">
+        <v>23</v>
+      </c>
+      <c r="B2079" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2079" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2079" s="1">
+        <v>87</v>
+      </c>
+      <c r="L2079" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2079" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2080" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2080">
+        <v>23</v>
+      </c>
+      <c r="B2080" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2080" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2080" s="1">
+        <v>88</v>
+      </c>
+      <c r="L2080" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2080" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2081" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2081">
+        <v>23</v>
+      </c>
+      <c r="B2081" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2081" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2081" s="1">
+        <v>89</v>
+      </c>
+      <c r="L2081" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2081" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2082" spans="1:20" ht="48" x14ac:dyDescent="0.2">
+      <c r="A2082">
+        <v>23</v>
+      </c>
+      <c r="B2082" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2082" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2082" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="L2082" t="s">
+        <v>227</v>
+      </c>
+      <c r="N2082" t="s">
+        <v>194</v>
+      </c>
+      <c r="O2082" t="s">
+        <v>227</v>
+      </c>
+      <c r="P2082" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q2082" t="s">
+        <v>802</v>
+      </c>
+      <c r="S2082" t="s">
+        <v>803</v>
+      </c>
+      <c r="T2082">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="2083" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2083">
+        <v>23</v>
+      </c>
+      <c r="B2083" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2083" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2083" s="1">
+        <v>91</v>
+      </c>
+      <c r="L2083" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2083" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2084" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2084">
+        <v>23</v>
+      </c>
+      <c r="B2084" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2084" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2084" s="1">
+        <v>92</v>
+      </c>
+      <c r="L2084" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2084" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="2085" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+      <c r="A2085">
+        <v>23</v>
+      </c>
+      <c r="B2085" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2085" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2085" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="L2085" t="s">
+        <v>227</v>
+      </c>
+      <c r="N2085" t="s">
+        <v>194</v>
+      </c>
+      <c r="O2085" t="s">
+        <v>227</v>
+      </c>
+      <c r="P2085" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q2085" t="s">
+        <v>805</v>
+      </c>
+      <c r="S2085" t="s">
+        <v>806</v>
+      </c>
+      <c r="T2085">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="2086" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2086">
+        <v>23</v>
+      </c>
+      <c r="B2086" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2086" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2086" s="1">
+        <v>94</v>
+      </c>
+      <c r="L2086" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2086" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="2087" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2087">
+        <v>23</v>
+      </c>
+      <c r="B2087" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2087" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2087" s="1">
+        <v>95</v>
+      </c>
+      <c r="L2087" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2087" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2088" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2088">
+        <v>23</v>
+      </c>
+      <c r="B2088" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2088" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2088" s="1">
+        <v>96</v>
+      </c>
+      <c r="L2088" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2088" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2089" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2089">
+        <v>23</v>
+      </c>
+      <c r="B2089" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2089" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2089" s="1">
+        <v>97</v>
+      </c>
+      <c r="L2089" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2089" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="2090" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2090">
+        <v>23</v>
+      </c>
+      <c r="B2090" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2090" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2090" s="1">
+        <v>98</v>
+      </c>
+      <c r="L2090" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2090" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="2091" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2091">
+        <v>23</v>
+      </c>
+      <c r="B2091" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2091" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2091" s="1">
+        <v>99</v>
+      </c>
+      <c r="L2091" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2091" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="2092" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2092">
+        <v>23</v>
+      </c>
+      <c r="B2092" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2092" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2092" s="1">
+        <v>100</v>
+      </c>
+      <c r="L2092" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2092" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2093" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2093">
+        <v>24</v>
+      </c>
+      <c r="B2093" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2093" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2093" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2093" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2093" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2094" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+      <c r="A2094">
+        <v>24</v>
+      </c>
+      <c r="B2094" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2094" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2094" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="L2094" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="2095" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2095">
+        <v>24</v>
+      </c>
+      <c r="B2095" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2095" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2095" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2096" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2096">
+        <v>24</v>
+      </c>
+      <c r="B2096" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2096" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2096" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2097" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2097">
+        <v>24</v>
+      </c>
+      <c r="B2097" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2097" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2097" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2098" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2098">
+        <v>24</v>
+      </c>
+      <c r="B2098" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2098" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2098" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2099" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2099">
+        <v>24</v>
+      </c>
+      <c r="B2099" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2099" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2099" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2100">
+        <v>24</v>
+      </c>
+      <c r="B2100" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2100" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2100" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2101">
+        <v>24</v>
+      </c>
+      <c r="B2101" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2101" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2101" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2102">
+        <v>24</v>
+      </c>
+      <c r="B2102" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2102" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2102" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2103">
+        <v>24</v>
+      </c>
+      <c r="B2103" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2103" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2103" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2104">
+        <v>24</v>
+      </c>
+      <c r="B2104" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2104" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2104" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2105">
+        <v>24</v>
+      </c>
+      <c r="B2105" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2105" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2105" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2106">
+        <v>24</v>
+      </c>
+      <c r="B2106" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2106" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2106" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2107">
+        <v>24</v>
+      </c>
+      <c r="B2107" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2107" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2107" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2108">
+        <v>24</v>
+      </c>
+      <c r="B2108" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2108" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2108" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2109">
+        <v>24</v>
+      </c>
+      <c r="B2109" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2109" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2109" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2110">
+        <v>24</v>
+      </c>
+      <c r="B2110" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2110" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2110" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2111">
+        <v>24</v>
+      </c>
+      <c r="B2111" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2111" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2111" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2112">
+        <v>24</v>
+      </c>
+      <c r="B2112" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2112" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2112" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2113">
+        <v>24</v>
+      </c>
+      <c r="B2113" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2113" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2113" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2114">
+        <v>24</v>
+      </c>
+      <c r="B2114" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2114" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2114" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2115">
+        <v>24</v>
+      </c>
+      <c r="B2115" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2115" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2115" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2116">
+        <v>24</v>
+      </c>
+      <c r="B2116" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2116" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2116" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2117">
+        <v>24</v>
+      </c>
+      <c r="B2117" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2117" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2117" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2118">
+        <v>24</v>
+      </c>
+      <c r="B2118" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2118" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2118" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2119">
+        <v>24</v>
+      </c>
+      <c r="B2119" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2119" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2119" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2120">
+        <v>24</v>
+      </c>
+      <c r="B2120" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2120" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2120" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2121">
+        <v>24</v>
+      </c>
+      <c r="B2121" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2121" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2121" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2122">
+        <v>24</v>
+      </c>
+      <c r="B2122" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2122" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2122" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2123">
+        <v>24</v>
+      </c>
+      <c r="B2123" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2123" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2123" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2124">
+        <v>24</v>
+      </c>
+      <c r="B2124" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2124" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2124" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2125">
+        <v>24</v>
+      </c>
+      <c r="B2125" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2125" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2125" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2126">
+        <v>24</v>
+      </c>
+      <c r="B2126" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2126" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2126" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2127">
+        <v>24</v>
+      </c>
+      <c r="B2127" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2127" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2127" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2128">
+        <v>24</v>
+      </c>
+      <c r="B2128" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2128" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2128" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2129">
+        <v>24</v>
+      </c>
+      <c r="B2129" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2129" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2129" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2130">
+        <v>24</v>
+      </c>
+      <c r="B2130" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2130" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2130" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2131">
+        <v>24</v>
+      </c>
+      <c r="B2131" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2131" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2131" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2132">
+        <v>24</v>
+      </c>
+      <c r="B2132" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2132" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2132" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2133">
+        <v>24</v>
+      </c>
+      <c r="B2133" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2133" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2133" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2134">
+        <v>24</v>
+      </c>
+      <c r="B2134" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2134" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2134" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2135">
+        <v>24</v>
+      </c>
+      <c r="B2135" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2135" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2135" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2136">
+        <v>24</v>
+      </c>
+      <c r="B2136" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2136" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2136" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2137">
+        <v>24</v>
+      </c>
+      <c r="B2137" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2137" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2137" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2138">
+        <v>24</v>
+      </c>
+      <c r="B2138" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2138" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2138" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2139">
+        <v>24</v>
+      </c>
+      <c r="B2139" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2139" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2139" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2140">
+        <v>24</v>
+      </c>
+      <c r="B2140" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2140" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2140" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2141">
+        <v>24</v>
+      </c>
+      <c r="B2141" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2141" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2141" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2142">
+        <v>24</v>
+      </c>
+      <c r="B2142" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2142" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2142" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2143">
+        <v>24</v>
+      </c>
+      <c r="B2143" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2143" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2143" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2144">
+        <v>24</v>
+      </c>
+      <c r="B2144" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2144" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2144" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2145">
+        <v>24</v>
+      </c>
+      <c r="B2145" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2145" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2145" s="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2146">
+        <v>24</v>
+      </c>
+      <c r="B2146" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2146" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2146" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2147">
+        <v>24</v>
+      </c>
+      <c r="B2147" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2147" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2147" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2148">
+        <v>24</v>
+      </c>
+      <c r="B2148" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2148" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2148" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2149">
+        <v>24</v>
+      </c>
+      <c r="B2149" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2149" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2149" s="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2150">
+        <v>24</v>
+      </c>
+      <c r="B2150" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2150" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2150" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2151">
+        <v>24</v>
+      </c>
+      <c r="B2151" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2151" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2151" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2152">
+        <v>24</v>
+      </c>
+      <c r="B2152" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2152" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2152" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2153">
+        <v>24</v>
+      </c>
+      <c r="B2153" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2153" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2153" s="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2154">
+        <v>24</v>
+      </c>
+      <c r="B2154" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2154" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2154" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2155">
+        <v>24</v>
+      </c>
+      <c r="B2155" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2155" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2155" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2156">
+        <v>24</v>
+      </c>
+      <c r="B2156" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2156" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2156" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2157">
+        <v>24</v>
+      </c>
+      <c r="B2157" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2157" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2157" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2158">
+        <v>24</v>
+      </c>
+      <c r="B2158" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2158" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2158" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2159">
+        <v>24</v>
+      </c>
+      <c r="B2159" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2159" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2159" s="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2160">
+        <v>24</v>
+      </c>
+      <c r="B2160" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2160" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2160" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2161">
+        <v>24</v>
+      </c>
+      <c r="B2161" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2161" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2161" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2162">
+        <v>24</v>
+      </c>
+      <c r="B2162" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2162" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2162" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2163">
+        <v>24</v>
+      </c>
+      <c r="B2163" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2163" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2163" s="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2164">
+        <v>24</v>
+      </c>
+      <c r="B2164" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2164" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2164" s="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2165">
+        <v>24</v>
+      </c>
+      <c r="B2165" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2165" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2165" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2166">
+        <v>24</v>
+      </c>
+      <c r="B2166" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2166" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2166" s="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2167">
+        <v>24</v>
+      </c>
+      <c r="B2167" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2167" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2167" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2168">
+        <v>24</v>
+      </c>
+      <c r="B2168" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2168" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2168" s="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2169">
+        <v>24</v>
+      </c>
+      <c r="B2169" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2169" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2169" s="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2170">
+        <v>24</v>
+      </c>
+      <c r="B2170" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2170" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2170" s="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2171">
+        <v>24</v>
+      </c>
+      <c r="B2171" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2171" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2171" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2172">
+        <v>24</v>
+      </c>
+      <c r="B2172" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2172" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2172" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2173">
+        <v>24</v>
+      </c>
+      <c r="B2173" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2173" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2173" s="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2174">
+        <v>24</v>
+      </c>
+      <c r="B2174" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2174" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2174" s="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2175">
+        <v>24</v>
+      </c>
+      <c r="B2175" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2175" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2175" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2176">
+        <v>24</v>
+      </c>
+      <c r="B2176" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2176" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2176" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2177">
+        <v>24</v>
+      </c>
+      <c r="B2177" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2177" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2177" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2178">
+        <v>24</v>
+      </c>
+      <c r="B2178" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2178" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2178" s="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2179">
+        <v>24</v>
+      </c>
+      <c r="B2179" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2179" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2179" s="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2180">
+        <v>24</v>
+      </c>
+      <c r="B2180" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2180" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2180" s="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2181">
+        <v>24</v>
+      </c>
+      <c r="B2181" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2181" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2181" s="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2182">
+        <v>24</v>
+      </c>
+      <c r="B2182" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2182" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2182" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2183">
+        <v>24</v>
+      </c>
+      <c r="B2183" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2183" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2183" s="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2184">
+        <v>24</v>
+      </c>
+      <c r="B2184" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2184" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2184" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2185">
+        <v>24</v>
+      </c>
+      <c r="B2185" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2185" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2185" s="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2186">
+        <v>24</v>
+      </c>
+      <c r="B2186" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2186" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2186" s="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2187">
+        <v>24</v>
+      </c>
+      <c r="B2187" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2187" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2187" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2188">
+        <v>24</v>
+      </c>
+      <c r="B2188" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2188" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2188" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2189">
+        <v>24</v>
+      </c>
+      <c r="B2189" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2189" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2189" s="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2190">
+        <v>24</v>
+      </c>
+      <c r="B2190" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2190" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2190" s="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2191">
+        <v>24</v>
+      </c>
+      <c r="B2191" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2191" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2191" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2192">
+        <v>24</v>
+      </c>
+      <c r="B2192" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2192" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2192" s="1">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Reading_list_abstract_sift.xlsx
+++ b/Reading_list_abstract_sift.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9688" uniqueCount="808">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10686" uniqueCount="904">
   <si>
     <t>Study (R / Q)</t>
   </si>
@@ -2487,6 +2487,294 @@
   </si>
   <si>
     <t>Eye movements reveal readers lexical quality and reading experience</t>
+  </si>
+  <si>
+    <t>how a hobby can shape cognition: visual word recogntion in competitive Scrabble players</t>
+  </si>
+  <si>
+    <t>The development of word reading automaticity in connected text of adults with reading disabilities</t>
+  </si>
+  <si>
+    <t>Jennifer Barber</t>
+  </si>
+  <si>
+    <t>University of alberta, Canada</t>
+  </si>
+  <si>
+    <t>Is there an effect of print exposure on the word  frequency effect and the neighbourhood effect?</t>
+  </si>
+  <si>
+    <t>Visual word recognition without cetnral attention: Evidence for greater automaticity with greater reading ability</t>
+  </si>
+  <si>
+    <t>Age differences in central (semantic) and peripheral processing: The importance of considering both response times and errors</t>
+  </si>
+  <si>
+    <t>2004 59B 5 210-9</t>
+  </si>
+  <si>
+    <t>Word frequency effects in priming performance for young and old adults</t>
+  </si>
+  <si>
+    <t>Examining skilled reading processes</t>
+  </si>
+  <si>
+    <t>William James Owen</t>
+  </si>
+  <si>
+    <t>Does print exposure modulate the effect of word frequency and the effect of neighbourhood size</t>
+  </si>
+  <si>
+    <t>Verna Chow</t>
+  </si>
+  <si>
+    <t>Christopher R Sears</t>
+  </si>
+  <si>
+    <t>University of Calgary, Canade</t>
+  </si>
+  <si>
+    <t>Developmental and individual differences in the influence of contextual information on visual word recognition</t>
+  </si>
+  <si>
+    <t>Jason Frederick Reimer</t>
+  </si>
+  <si>
+    <t>Brigette Ryalls</t>
+  </si>
+  <si>
+    <t>University of Nebraska - Lincoln</t>
+  </si>
+  <si>
+    <t>The relationship between decoding speed and comprehension skill among skilled and less skilled Chinese primary school readers</t>
+  </si>
+  <si>
+    <t>John Wing Ling Tse</t>
+  </si>
+  <si>
+    <t>The effects of contextual cues and word freqeuncy on word recognition</t>
+  </si>
+  <si>
+    <t>Joan Oldford Matchim</t>
+  </si>
+  <si>
+    <t>Ohio State University</t>
+  </si>
+  <si>
+    <t>perception</t>
+  </si>
+  <si>
+    <t>ephost</t>
+  </si>
+  <si>
+    <t>semantics.1</t>
+  </si>
+  <si>
+    <t>object</t>
+  </si>
+  <si>
+    <t>semantics.2</t>
+  </si>
+  <si>
+    <t>semantics.3</t>
+  </si>
+  <si>
+    <t>semantics.4</t>
+  </si>
+  <si>
+    <t>semantics.5</t>
+  </si>
+  <si>
+    <t>semantics.6</t>
+  </si>
+  <si>
+    <t>engineering</t>
+  </si>
+  <si>
+    <t>semantics.7</t>
+  </si>
+  <si>
+    <t>semantics.8</t>
+  </si>
+  <si>
+    <t>an abundance of riches: Cross task comparisons of semantic richness effcts in visual word recogntiion</t>
+  </si>
+  <si>
+    <t>Frontiers in Human Neuroscience</t>
+  </si>
+  <si>
+    <t>Yap, Pexman, Hargreaves, Huff</t>
+  </si>
+  <si>
+    <t>thinking</t>
+  </si>
+  <si>
+    <t>online study</t>
+  </si>
+  <si>
+    <t>medical study</t>
+  </si>
+  <si>
+    <t>Comprehension of lexical ambiguity in health aging, mild cognitve impairment and mild Alzheimers disease</t>
+  </si>
+  <si>
+    <t>Do statistical segmentation abilities predict lexical-phonological and lexical-semantic abilities in children with and without SLI</t>
+  </si>
+  <si>
+    <t>metaphysics</t>
+  </si>
+  <si>
+    <t>Effects of emotional experience in LDT</t>
+  </si>
+  <si>
+    <t>Frontiers in Psychology</t>
+  </si>
+  <si>
+    <t>effects of relative embodiment in lexical and semantic processing of verbs</t>
+  </si>
+  <si>
+    <t>Introduction to the research topic meaning in mind: semantic richness effects in language processing</t>
+  </si>
+  <si>
+    <t>Pexman, Siakaluk, Yap</t>
+  </si>
+  <si>
+    <t>2013 7</t>
+  </si>
+  <si>
+    <t>philosophy</t>
+  </si>
+  <si>
+    <t>Semantic classification of pictures and words</t>
+  </si>
+  <si>
+    <t>Semantic richness and aging: The effect of number of features in the LDT</t>
+  </si>
+  <si>
+    <t>The role of semantic diversity in word recognition across aging and bilingualism</t>
+  </si>
+  <si>
+    <t>5/17/2016</t>
+  </si>
+  <si>
+    <t>Johns, Sheppard, Jones, Taler</t>
+  </si>
+  <si>
+    <t>The role of semantic richness in word learning in chidlren with ASD, SLI and typcial language development</t>
+  </si>
+  <si>
+    <t>A Gladfelter</t>
+  </si>
+  <si>
+    <t>Purdue University</t>
+  </si>
+  <si>
+    <t>Lisa A Goffman</t>
+  </si>
+  <si>
+    <t>semantics.9</t>
+  </si>
+  <si>
+    <t>semantics.10</t>
+  </si>
+  <si>
+    <t>semantics.11</t>
+  </si>
+  <si>
+    <t>semantics.12</t>
+  </si>
+  <si>
+    <t>semantics.13</t>
+  </si>
+  <si>
+    <t>semantics.14</t>
+  </si>
+  <si>
+    <t>Valence.1</t>
+  </si>
+  <si>
+    <t>Valence.2</t>
+  </si>
+  <si>
+    <t>Valence.3</t>
+  </si>
+  <si>
+    <t>neigh. Effs</t>
+  </si>
+  <si>
+    <t>Individual differences in reading aloud:  A mega-study, item effects and som models</t>
+  </si>
+  <si>
+    <t>When phonology fails: Orthographic neighbourhood effects in dyslexia</t>
+  </si>
+  <si>
+    <t>AoA.1</t>
+  </si>
+  <si>
+    <t>AoA.2</t>
+  </si>
+  <si>
+    <t>Linear mixed modelling for data from double mixed factorial design with covariates: a case study on semantic categorisation times</t>
+  </si>
+  <si>
+    <t>AoA.3</t>
+  </si>
+  <si>
+    <t>AoA.4</t>
+  </si>
+  <si>
+    <t>Age of acquisition and the completeness of phonological representations</t>
+  </si>
+  <si>
+    <t>Age of acquisition differences in young and older adults affect latencies in lexical decision and semantic categorisation</t>
+  </si>
+  <si>
+    <t>an attempt to simulate letter by letter dyslexia in normal readers</t>
+  </si>
+  <si>
+    <t>word length.1</t>
+  </si>
+  <si>
+    <t>word length.2</t>
+  </si>
+  <si>
+    <t>word length.3</t>
+  </si>
+  <si>
+    <t>Reading skill and the use of orthographic knowledge by mature readers</t>
+  </si>
+  <si>
+    <t>word freq.1</t>
+  </si>
+  <si>
+    <t>opinion</t>
+  </si>
+  <si>
+    <t>word freq.2</t>
+  </si>
+  <si>
+    <t>Concurrent tasks demands and individual differences in the architecture of reading: Discriminating artifacts from real McCoys</t>
+  </si>
+  <si>
+    <t>word freq.3</t>
+  </si>
+  <si>
+    <t>word freq.4</t>
+  </si>
+  <si>
+    <t>a linear mixed model analysis of masked  repetition priming</t>
+  </si>
+  <si>
+    <t>Individual differences in categorical perception are related to sublexical/ phonological processing in reading</t>
+  </si>
+  <si>
+    <t>individual differences in the joint effects of semantic priming and word frequency revealted by RT distributional analyses: The role of lexical ambiguity</t>
+  </si>
+  <si>
+    <t>Morphology in word identification: a word-experience model that accounts for morpheme frequency effects</t>
+  </si>
+  <si>
+    <t>word freq.5</t>
   </si>
 </sst>
 </file>
@@ -2551,7 +2839,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2572,6 +2860,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2849,24 +3138,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W2192"/>
+  <dimension ref="A1:W2375"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="210" zoomScaleNormal="210" zoomScalePageLayoutView="210" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2179" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2192" sqref="E2192"/>
+      <pane ySplit="1" topLeftCell="A2361" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D2376" sqref="D2376"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="10.83203125" customWidth="1"/>
+    <col min="1" max="2" width="10.83203125" customWidth="1"/>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="46.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" customWidth="1"/>
-    <col min="6" max="6" width="24.33203125" customWidth="1"/>
-    <col min="7" max="7" width="16.5" customWidth="1"/>
-    <col min="8" max="8" width="13.5" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" customWidth="1"/>
-    <col min="10" max="10" width="21.1640625" customWidth="1"/>
-    <col min="11" max="11" width="21.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="24.33203125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="21.1640625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="21.1640625" style="1" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="21.6640625" customWidth="1"/>
     <col min="17" max="17" width="21.5" bestFit="1" customWidth="1"/>
@@ -47147,6 +47437,12 @@
       <c r="D2095" s="1">
         <v>3</v>
       </c>
+      <c r="L2095" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2095" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="2096" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2096">
@@ -47161,8 +47457,14 @@
       <c r="D2096" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="2097" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="L2096" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2096" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2097" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2097">
         <v>24</v>
       </c>
@@ -47175,8 +47477,14 @@
       <c r="D2097" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="2098" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="L2097" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2097" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2098" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2098">
         <v>24</v>
       </c>
@@ -47189,8 +47497,14 @@
       <c r="D2098" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="2099" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="L2098" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2098" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2099" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2099">
         <v>24</v>
       </c>
@@ -47203,8 +47517,14 @@
       <c r="D2099" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="2100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="L2099" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2099" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2100">
         <v>24</v>
       </c>
@@ -47217,8 +47537,14 @@
       <c r="D2100" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="2101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="L2100" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2100" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2101">
         <v>24</v>
       </c>
@@ -47231,8 +47557,14 @@
       <c r="D2101" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="2102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="L2101" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2101" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2102">
         <v>24</v>
       </c>
@@ -47245,8 +47577,14 @@
       <c r="D2102" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="L2102" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2102" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2103">
         <v>24</v>
       </c>
@@ -47259,8 +47597,14 @@
       <c r="D2103" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="L2103" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2103" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2104">
         <v>24</v>
       </c>
@@ -47273,8 +47617,14 @@
       <c r="D2104" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="L2104" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2104" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2105">
         <v>24</v>
       </c>
@@ -47287,8 +47637,14 @@
       <c r="D2105" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="L2105" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2105" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2106">
         <v>24</v>
       </c>
@@ -47301,8 +47657,14 @@
       <c r="D2106" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="2107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="L2106" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2106" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="2107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2107">
         <v>24</v>
       </c>
@@ -47315,8 +47677,14 @@
       <c r="D2107" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="L2107" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2107" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2108">
         <v>24</v>
       </c>
@@ -47329,8 +47697,14 @@
       <c r="D2108" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="L2108" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2108" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2109">
         <v>24</v>
       </c>
@@ -47343,8 +47717,14 @@
       <c r="D2109" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="2110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="L2109" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2109" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2110">
         <v>24</v>
       </c>
@@ -47357,8 +47737,14 @@
       <c r="D2110" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="2111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="L2110" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2110" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="2111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2111">
         <v>24</v>
       </c>
@@ -47371,8 +47757,14 @@
       <c r="D2111" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="2112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="L2111" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2111" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="2112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2112">
         <v>24</v>
       </c>
@@ -47385,8 +47777,14 @@
       <c r="D2112" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="2113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="L2112" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2112" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="2113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2113">
         <v>24</v>
       </c>
@@ -47399,8 +47797,14 @@
       <c r="D2113" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="2114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="L2113" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2113" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2114">
         <v>24</v>
       </c>
@@ -47413,8 +47817,14 @@
       <c r="D2114" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="2115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="L2114" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2114" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2115">
         <v>24</v>
       </c>
@@ -47427,8 +47837,14 @@
       <c r="D2115" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="2116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="L2115" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2115" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2116">
         <v>24</v>
       </c>
@@ -47441,8 +47857,14 @@
       <c r="D2116" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="2117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="L2116" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2116" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2117">
         <v>24</v>
       </c>
@@ -47455,8 +47877,14 @@
       <c r="D2117" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="2118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="L2117" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2117" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2118">
         <v>24</v>
       </c>
@@ -47469,8 +47897,14 @@
       <c r="D2118" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="2119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="L2118" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2118" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2119" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A2119">
         <v>24</v>
       </c>
@@ -47480,11 +47914,17 @@
       <c r="C2119" t="s">
         <v>729</v>
       </c>
-      <c r="D2119" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D2119" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="L2119" t="s">
+        <v>227</v>
+      </c>
+      <c r="N2119" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="2120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2120">
         <v>24</v>
       </c>
@@ -47497,8 +47937,14 @@
       <c r="D2120" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="2121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="L2120" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2120" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2121">
         <v>24</v>
       </c>
@@ -47511,8 +47957,14 @@
       <c r="D2121" s="1">
         <v>29</v>
       </c>
-    </row>
-    <row r="2122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="L2121" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2121" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2122">
         <v>24</v>
       </c>
@@ -47525,8 +47977,14 @@
       <c r="D2122" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="2123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="L2122" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2122" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2123">
         <v>24</v>
       </c>
@@ -47539,8 +47997,14 @@
       <c r="D2123" s="1">
         <v>31</v>
       </c>
-    </row>
-    <row r="2124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="L2123" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2123" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="2124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2124">
         <v>24</v>
       </c>
@@ -47553,8 +48017,14 @@
       <c r="D2124" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="2125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="L2124" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2124" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2125">
         <v>24</v>
       </c>
@@ -47567,8 +48037,14 @@
       <c r="D2125" s="1">
         <v>33</v>
       </c>
-    </row>
-    <row r="2126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="L2125" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2125" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2126">
         <v>24</v>
       </c>
@@ -47581,8 +48057,14 @@
       <c r="D2126" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="2127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="L2126" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2126" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2127">
         <v>24</v>
       </c>
@@ -47595,8 +48077,14 @@
       <c r="D2127" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="2128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="L2127" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2127" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2128">
         <v>24</v>
       </c>
@@ -47609,8 +48097,14 @@
       <c r="D2128" s="1">
         <v>36</v>
       </c>
-    </row>
-    <row r="2129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="L2128" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2128" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2129" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2129">
         <v>24</v>
       </c>
@@ -47623,8 +48117,14 @@
       <c r="D2129" s="1">
         <v>37</v>
       </c>
-    </row>
-    <row r="2130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="L2129" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2129" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2130" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2130">
         <v>24</v>
       </c>
@@ -47637,8 +48137,14 @@
       <c r="D2130" s="1">
         <v>38</v>
       </c>
-    </row>
-    <row r="2131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="L2130" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2130" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="2131" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2131">
         <v>24</v>
       </c>
@@ -47651,8 +48157,14 @@
       <c r="D2131" s="1">
         <v>39</v>
       </c>
-    </row>
-    <row r="2132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="L2131" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2131" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="2132" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A2132">
         <v>24</v>
       </c>
@@ -47662,11 +48174,32 @@
       <c r="C2132" t="s">
         <v>729</v>
       </c>
-      <c r="D2132" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D2132" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="L2132" t="s">
+        <v>227</v>
+      </c>
+      <c r="N2132" t="s">
+        <v>194</v>
+      </c>
+      <c r="O2132" t="s">
+        <v>227</v>
+      </c>
+      <c r="P2132" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q2132" t="s">
+        <v>810</v>
+      </c>
+      <c r="S2132" t="s">
+        <v>811</v>
+      </c>
+      <c r="T2132">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="2133" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2133">
         <v>24</v>
       </c>
@@ -47679,8 +48212,14 @@
       <c r="D2133" s="1">
         <v>41</v>
       </c>
-    </row>
-    <row r="2134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="L2133" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2133" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2134" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2134">
         <v>24</v>
       </c>
@@ -47693,8 +48232,14 @@
       <c r="D2134" s="1">
         <v>42</v>
       </c>
-    </row>
-    <row r="2135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="L2134" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2134" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2135" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2135">
         <v>24</v>
       </c>
@@ -47707,8 +48252,14 @@
       <c r="D2135" s="1">
         <v>43</v>
       </c>
-    </row>
-    <row r="2136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="L2135" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2135" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2136" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2136">
         <v>24</v>
       </c>
@@ -47721,8 +48272,14 @@
       <c r="D2136" s="1">
         <v>44</v>
       </c>
-    </row>
-    <row r="2137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="L2136" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2136" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="2137" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2137">
         <v>24</v>
       </c>
@@ -47735,8 +48292,14 @@
       <c r="D2137" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="2138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="L2137" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2137" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2138" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2138">
         <v>24</v>
       </c>
@@ -47749,8 +48312,14 @@
       <c r="D2138" s="1">
         <v>46</v>
       </c>
-    </row>
-    <row r="2139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="L2138" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2138" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2139" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A2139">
         <v>24</v>
       </c>
@@ -47760,11 +48329,17 @@
       <c r="C2139" t="s">
         <v>729</v>
       </c>
-      <c r="D2139" s="1">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D2139" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="L2139" t="s">
+        <v>227</v>
+      </c>
+      <c r="N2139" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="2140" spans="1:20" ht="48" x14ac:dyDescent="0.2">
       <c r="A2140">
         <v>24</v>
       </c>
@@ -47774,11 +48349,17 @@
       <c r="C2140" t="s">
         <v>729</v>
       </c>
-      <c r="D2140" s="1">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D2140" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="L2140" t="s">
+        <v>227</v>
+      </c>
+      <c r="N2140" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="2141" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2141">
         <v>24</v>
       </c>
@@ -47791,8 +48372,14 @@
       <c r="D2141" s="1">
         <v>49</v>
       </c>
-    </row>
-    <row r="2142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="L2141" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2141" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2142" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2142">
         <v>24</v>
       </c>
@@ -47805,8 +48392,14 @@
       <c r="D2142" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="2143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="L2142" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2142" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="2143" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2143">
         <v>24</v>
       </c>
@@ -47819,8 +48412,14 @@
       <c r="D2143" s="1">
         <v>51</v>
       </c>
-    </row>
-    <row r="2144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="L2143" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2143" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2144" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2144">
         <v>24</v>
       </c>
@@ -47833,8 +48432,14 @@
       <c r="D2144" s="1">
         <v>52</v>
       </c>
-    </row>
-    <row r="2145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="L2144" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2144" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2145" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2145">
         <v>24</v>
       </c>
@@ -47844,11 +48449,14 @@
       <c r="C2145" t="s">
         <v>729</v>
       </c>
-      <c r="D2145" s="1">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="L2145" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2145" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2146" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2146">
         <v>24</v>
       </c>
@@ -47861,8 +48469,14 @@
       <c r="D2146" s="1">
         <v>54</v>
       </c>
-    </row>
-    <row r="2147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="L2146" t="s">
+        <v>450</v>
+      </c>
+      <c r="M2146" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="2147" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2147">
         <v>24</v>
       </c>
@@ -47875,8 +48489,14 @@
       <c r="D2147" s="1">
         <v>55</v>
       </c>
-    </row>
-    <row r="2148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="L2147" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2147" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2148" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2148">
         <v>24</v>
       </c>
@@ -47889,8 +48509,14 @@
       <c r="D2148" s="1">
         <v>56</v>
       </c>
-    </row>
-    <row r="2149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="L2148" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2148" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2149" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2149">
         <v>24</v>
       </c>
@@ -47903,8 +48529,14 @@
       <c r="D2149" s="1">
         <v>57</v>
       </c>
-    </row>
-    <row r="2150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="L2149" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2149" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2150" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2150">
         <v>24</v>
       </c>
@@ -47917,8 +48549,14 @@
       <c r="D2150" s="1">
         <v>58</v>
       </c>
-    </row>
-    <row r="2151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="L2150" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2150" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="2151" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2151">
         <v>24</v>
       </c>
@@ -47931,8 +48569,14 @@
       <c r="D2151" s="1">
         <v>59</v>
       </c>
-    </row>
-    <row r="2152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="L2151" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2151" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2152" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2152">
         <v>24</v>
       </c>
@@ -47945,8 +48589,14 @@
       <c r="D2152" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="2153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="L2152" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2152" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="2153" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2153">
         <v>24</v>
       </c>
@@ -47959,8 +48609,14 @@
       <c r="D2153" s="1">
         <v>61</v>
       </c>
-    </row>
-    <row r="2154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="L2153" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2153" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2154" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2154">
         <v>24</v>
       </c>
@@ -47973,8 +48629,14 @@
       <c r="D2154" s="1">
         <v>62</v>
       </c>
-    </row>
-    <row r="2155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="L2154" t="s">
+        <v>450</v>
+      </c>
+      <c r="M2154" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2155" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2155">
         <v>24</v>
       </c>
@@ -47987,8 +48649,14 @@
       <c r="D2155" s="1">
         <v>63</v>
       </c>
-    </row>
-    <row r="2156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="L2155" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2155" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="2156" spans="1:20" ht="48" x14ac:dyDescent="0.2">
       <c r="A2156">
         <v>24</v>
       </c>
@@ -47998,11 +48666,20 @@
       <c r="C2156" t="s">
         <v>729</v>
       </c>
-      <c r="D2156" s="1">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D2156" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="L2156" t="s">
+        <v>227</v>
+      </c>
+      <c r="N2156" t="s">
+        <v>262</v>
+      </c>
+      <c r="T2156" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="2157" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2157">
         <v>24</v>
       </c>
@@ -48015,8 +48692,14 @@
       <c r="D2157" s="1">
         <v>65</v>
       </c>
-    </row>
-    <row r="2158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="L2157" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2157" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2158" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2158">
         <v>24</v>
       </c>
@@ -48029,8 +48712,14 @@
       <c r="D2158" s="1">
         <v>66</v>
       </c>
-    </row>
-    <row r="2159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="L2158" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2158" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2159" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2159">
         <v>24</v>
       </c>
@@ -48043,8 +48732,14 @@
       <c r="D2159" s="1">
         <v>67</v>
       </c>
-    </row>
-    <row r="2160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="L2159" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2159" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2160" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2160">
         <v>24</v>
       </c>
@@ -48057,8 +48752,14 @@
       <c r="D2160" s="1">
         <v>68</v>
       </c>
-    </row>
-    <row r="2161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="L2160" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2160" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2161" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A2161">
         <v>24</v>
       </c>
@@ -48068,11 +48769,17 @@
       <c r="C2161" t="s">
         <v>729</v>
       </c>
-      <c r="D2161" s="1">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D2161" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="L2161" t="s">
+        <v>227</v>
+      </c>
+      <c r="N2161" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="2162" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2162">
         <v>24</v>
       </c>
@@ -48082,11 +48789,38 @@
       <c r="C2162" t="s">
         <v>729</v>
       </c>
-      <c r="D2162" s="1">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D2162" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="L2162" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2162" t="s">
+        <v>49</v>
+      </c>
+      <c r="N2162" t="s">
+        <v>194</v>
+      </c>
+      <c r="O2162" t="s">
+        <v>227</v>
+      </c>
+      <c r="P2162" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q2162" t="s">
+        <v>818</v>
+      </c>
+      <c r="R2162" t="s">
+        <v>322</v>
+      </c>
+      <c r="S2162" t="s">
+        <v>323</v>
+      </c>
+      <c r="T2162">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="2163" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2163">
         <v>24</v>
       </c>
@@ -48099,8 +48833,14 @@
       <c r="D2163" s="1">
         <v>71</v>
       </c>
-    </row>
-    <row r="2164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="L2163" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2163" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2164" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2164">
         <v>24</v>
       </c>
@@ -48113,8 +48853,14 @@
       <c r="D2164" s="1">
         <v>72</v>
       </c>
-    </row>
-    <row r="2165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="L2164" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2164" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2165" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A2165">
         <v>24</v>
       </c>
@@ -48124,11 +48870,35 @@
       <c r="C2165" t="s">
         <v>729</v>
       </c>
-      <c r="D2165" s="1">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D2165" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="L2165" t="s">
+        <v>227</v>
+      </c>
+      <c r="N2165" t="s">
+        <v>194</v>
+      </c>
+      <c r="O2165" t="s">
+        <v>227</v>
+      </c>
+      <c r="P2165" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q2165" t="s">
+        <v>820</v>
+      </c>
+      <c r="R2165" t="s">
+        <v>821</v>
+      </c>
+      <c r="S2165" t="s">
+        <v>822</v>
+      </c>
+      <c r="T2165">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="2166" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2166">
         <v>24</v>
       </c>
@@ -48141,8 +48911,14 @@
       <c r="D2166" s="1">
         <v>74</v>
       </c>
-    </row>
-    <row r="2167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="L2166" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2166" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2167" spans="1:20" ht="48" x14ac:dyDescent="0.2">
       <c r="A2167">
         <v>24</v>
       </c>
@@ -48152,11 +48928,35 @@
       <c r="C2167" t="s">
         <v>729</v>
       </c>
-      <c r="D2167" s="1">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D2167" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="L2167" t="s">
+        <v>227</v>
+      </c>
+      <c r="N2167" t="s">
+        <v>194</v>
+      </c>
+      <c r="O2167" t="s">
+        <v>227</v>
+      </c>
+      <c r="P2167" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q2167" t="s">
+        <v>824</v>
+      </c>
+      <c r="R2167" t="s">
+        <v>825</v>
+      </c>
+      <c r="S2167" t="s">
+        <v>826</v>
+      </c>
+      <c r="T2167">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="2168" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2168">
         <v>24</v>
       </c>
@@ -48169,8 +48969,14 @@
       <c r="D2168" s="1">
         <v>76</v>
       </c>
-    </row>
-    <row r="2169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="L2168" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2168" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2169" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2169">
         <v>24</v>
       </c>
@@ -48183,8 +48989,14 @@
       <c r="D2169" s="1">
         <v>77</v>
       </c>
-    </row>
-    <row r="2170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="L2169" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2169" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="2170" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2170">
         <v>24</v>
       </c>
@@ -48197,8 +49009,14 @@
       <c r="D2170" s="1">
         <v>78</v>
       </c>
-    </row>
-    <row r="2171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="L2170" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2170" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2171" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2171">
         <v>24</v>
       </c>
@@ -48211,8 +49029,14 @@
       <c r="D2171" s="1">
         <v>79</v>
       </c>
-    </row>
-    <row r="2172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="L2171" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2171" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2172" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2172">
         <v>24</v>
       </c>
@@ -48225,8 +49049,14 @@
       <c r="D2172" s="1">
         <v>80</v>
       </c>
-    </row>
-    <row r="2173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="L2172" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2172" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2173" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2173">
         <v>24</v>
       </c>
@@ -48239,8 +49069,14 @@
       <c r="D2173" s="1">
         <v>81</v>
       </c>
-    </row>
-    <row r="2174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="L2173" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2173" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2174" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2174">
         <v>24</v>
       </c>
@@ -48253,8 +49089,14 @@
       <c r="D2174" s="1">
         <v>82</v>
       </c>
-    </row>
-    <row r="2175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="L2174" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2174" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2175" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2175">
         <v>24</v>
       </c>
@@ -48267,8 +49109,14 @@
       <c r="D2175" s="1">
         <v>83</v>
       </c>
-    </row>
-    <row r="2176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="L2175" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2175" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2176" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2176">
         <v>24</v>
       </c>
@@ -48281,8 +49129,14 @@
       <c r="D2176" s="1">
         <v>84</v>
       </c>
-    </row>
-    <row r="2177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="L2176" t="s">
+        <v>450</v>
+      </c>
+      <c r="M2176" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2177" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2177">
         <v>24</v>
       </c>
@@ -48295,8 +49149,14 @@
       <c r="D2177" s="1">
         <v>85</v>
       </c>
-    </row>
-    <row r="2178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="L2177" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2177" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2178" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2178">
         <v>24</v>
       </c>
@@ -48309,8 +49169,14 @@
       <c r="D2178" s="1">
         <v>86</v>
       </c>
-    </row>
-    <row r="2179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="L2178" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2178" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="2179" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2179">
         <v>24</v>
       </c>
@@ -48323,8 +49189,14 @@
       <c r="D2179" s="1">
         <v>87</v>
       </c>
-    </row>
-    <row r="2180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="L2179" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2179" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2180" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2180">
         <v>24</v>
       </c>
@@ -48337,8 +49209,14 @@
       <c r="D2180" s="1">
         <v>88</v>
       </c>
-    </row>
-    <row r="2181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="L2180" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2180" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2181" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2181">
         <v>24</v>
       </c>
@@ -48351,8 +49229,14 @@
       <c r="D2181" s="1">
         <v>89</v>
       </c>
-    </row>
-    <row r="2182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="L2181" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2181" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2182" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2182">
         <v>24</v>
       </c>
@@ -48365,8 +49249,14 @@
       <c r="D2182" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="2183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="L2182" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2182" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2183" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2183">
         <v>24</v>
       </c>
@@ -48379,8 +49269,14 @@
       <c r="D2183" s="1">
         <v>91</v>
       </c>
-    </row>
-    <row r="2184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="L2183" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2183" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2184" spans="1:20" ht="48" x14ac:dyDescent="0.2">
       <c r="A2184">
         <v>24</v>
       </c>
@@ -48390,11 +49286,32 @@
       <c r="C2184" t="s">
         <v>729</v>
       </c>
-      <c r="D2184" s="1">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D2184" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="L2184" t="s">
+        <v>227</v>
+      </c>
+      <c r="N2184" t="s">
+        <v>194</v>
+      </c>
+      <c r="O2184" t="s">
+        <v>227</v>
+      </c>
+      <c r="P2184" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q2184" t="s">
+        <v>828</v>
+      </c>
+      <c r="S2184" t="s">
+        <v>408</v>
+      </c>
+      <c r="T2184">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="2185" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2185">
         <v>24</v>
       </c>
@@ -48407,8 +49324,14 @@
       <c r="D2185" s="1">
         <v>93</v>
       </c>
-    </row>
-    <row r="2186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="L2185" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2185" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2186" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2186">
         <v>24</v>
       </c>
@@ -48421,8 +49344,14 @@
       <c r="D2186" s="1">
         <v>94</v>
       </c>
-    </row>
-    <row r="2187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="L2186" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2186" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2187" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2187">
         <v>24</v>
       </c>
@@ -48435,8 +49364,14 @@
       <c r="D2187" s="1">
         <v>95</v>
       </c>
-    </row>
-    <row r="2188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="L2187" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2187" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2188" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A2188">
         <v>24</v>
       </c>
@@ -48446,11 +49381,32 @@
       <c r="C2188" t="s">
         <v>729</v>
       </c>
-      <c r="D2188" s="1">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D2188" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="L2188" t="s">
+        <v>227</v>
+      </c>
+      <c r="N2188" t="s">
+        <v>194</v>
+      </c>
+      <c r="O2188" t="s">
+        <v>227</v>
+      </c>
+      <c r="P2188" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q2188" t="s">
+        <v>830</v>
+      </c>
+      <c r="S2188" t="s">
+        <v>831</v>
+      </c>
+      <c r="T2188">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="2189" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2189">
         <v>24</v>
       </c>
@@ -48463,8 +49419,14 @@
       <c r="D2189" s="1">
         <v>97</v>
       </c>
-    </row>
-    <row r="2190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="L2189" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2189" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2190" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2190">
         <v>24</v>
       </c>
@@ -48477,8 +49439,14 @@
       <c r="D2190" s="1">
         <v>98</v>
       </c>
-    </row>
-    <row r="2191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="L2190" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2190" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="2191" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2191">
         <v>24</v>
       </c>
@@ -48491,8 +49459,14 @@
       <c r="D2191" s="1">
         <v>99</v>
       </c>
-    </row>
-    <row r="2192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="L2191" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2191" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="2192" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2192">
         <v>24</v>
       </c>
@@ -48504,6 +49478,3705 @@
       </c>
       <c r="D2192" s="1">
         <v>100</v>
+      </c>
+      <c r="L2192" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2192" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="2193" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2193">
+        <v>25</v>
+      </c>
+      <c r="B2193" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2193" t="s">
+        <v>834</v>
+      </c>
+      <c r="D2193" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2193" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2193" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="2194" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2194">
+        <v>26</v>
+      </c>
+      <c r="B2194" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2194" t="s">
+        <v>836</v>
+      </c>
+      <c r="D2194" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2194" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2194" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="2195" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2195">
+        <v>27</v>
+      </c>
+      <c r="B2195" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2195" t="s">
+        <v>837</v>
+      </c>
+      <c r="D2195" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2195" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2195" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="2196" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2196">
+        <v>28</v>
+      </c>
+      <c r="B2196" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2196" t="s">
+        <v>838</v>
+      </c>
+      <c r="D2196" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2196" t="s">
+        <v>450</v>
+      </c>
+      <c r="M2196" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2197" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2197">
+        <v>29</v>
+      </c>
+      <c r="B2197" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2197" t="s">
+        <v>839</v>
+      </c>
+      <c r="D2197" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2197" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2197" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="2198" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2198">
+        <v>30</v>
+      </c>
+      <c r="B2198" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2198" t="s">
+        <v>840</v>
+      </c>
+      <c r="D2198" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2198" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2198" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="2199" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2199">
+        <v>31</v>
+      </c>
+      <c r="B2199" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2199" t="s">
+        <v>842</v>
+      </c>
+      <c r="D2199" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2199" t="s">
+        <v>227</v>
+      </c>
+      <c r="N2199" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="2200" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2200">
+        <v>32</v>
+      </c>
+      <c r="B2200" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2200" t="s">
+        <v>843</v>
+      </c>
+      <c r="D2200" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2200" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2200" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2201" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2201">
+        <v>32</v>
+      </c>
+      <c r="B2201" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2201" t="s">
+        <v>843</v>
+      </c>
+      <c r="D2201" s="1">
+        <v>2</v>
+      </c>
+      <c r="L2201" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2201" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="2202" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2202">
+        <v>32</v>
+      </c>
+      <c r="B2202" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2202" t="s">
+        <v>843</v>
+      </c>
+      <c r="D2202" s="1">
+        <v>3</v>
+      </c>
+      <c r="L2202" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2202" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="2203" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2203">
+        <v>32</v>
+      </c>
+      <c r="B2203" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2203" t="s">
+        <v>843</v>
+      </c>
+      <c r="D2203" s="1">
+        <v>4</v>
+      </c>
+      <c r="L2203" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2203" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2204" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+      <c r="A2204">
+        <v>32</v>
+      </c>
+      <c r="B2204" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2204" t="s">
+        <v>843</v>
+      </c>
+      <c r="D2204" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="L2204" t="s">
+        <v>227</v>
+      </c>
+      <c r="N2204" t="s">
+        <v>845</v>
+      </c>
+      <c r="Q2204" t="s">
+        <v>846</v>
+      </c>
+      <c r="T2204">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="2205" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2205">
+        <v>32</v>
+      </c>
+      <c r="B2205" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2205" t="s">
+        <v>843</v>
+      </c>
+      <c r="D2205" s="1">
+        <v>6</v>
+      </c>
+      <c r="L2205" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2205" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="2206" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2206">
+        <v>32</v>
+      </c>
+      <c r="B2206" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2206" t="s">
+        <v>843</v>
+      </c>
+      <c r="D2206" s="1">
+        <v>7</v>
+      </c>
+      <c r="L2206" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2206" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="2207" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2207">
+        <v>32</v>
+      </c>
+      <c r="B2207" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2207" t="s">
+        <v>843</v>
+      </c>
+      <c r="D2207" s="1">
+        <v>8</v>
+      </c>
+      <c r="L2207" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2207" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="2208" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2208">
+        <v>32</v>
+      </c>
+      <c r="B2208" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2208" t="s">
+        <v>843</v>
+      </c>
+      <c r="D2208" s="1">
+        <v>9</v>
+      </c>
+      <c r="L2208" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2208" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2209" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2209">
+        <v>32</v>
+      </c>
+      <c r="B2209" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2209" t="s">
+        <v>843</v>
+      </c>
+      <c r="D2209" s="1">
+        <v>10</v>
+      </c>
+      <c r="L2209" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2209" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="2210" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+      <c r="A2210">
+        <v>32</v>
+      </c>
+      <c r="B2210" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2210" t="s">
+        <v>843</v>
+      </c>
+      <c r="D2210" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="M2210" t="s">
+        <v>227</v>
+      </c>
+      <c r="N2210" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="2211" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2211">
+        <v>32</v>
+      </c>
+      <c r="B2211" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2211" t="s">
+        <v>843</v>
+      </c>
+      <c r="D2211" s="1">
+        <v>12</v>
+      </c>
+      <c r="L2211" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2211" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2212" spans="1:20" ht="48" x14ac:dyDescent="0.2">
+      <c r="A2212">
+        <v>32</v>
+      </c>
+      <c r="B2212" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2212" t="s">
+        <v>843</v>
+      </c>
+      <c r="D2212" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="L2212" t="s">
+        <v>227</v>
+      </c>
+      <c r="N2212" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="2213" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2213">
+        <v>32</v>
+      </c>
+      <c r="B2213" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2213" t="s">
+        <v>843</v>
+      </c>
+      <c r="D2213" s="1">
+        <v>14</v>
+      </c>
+      <c r="L2213" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2213" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2214" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2214">
+        <v>32</v>
+      </c>
+      <c r="B2214" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2214" t="s">
+        <v>843</v>
+      </c>
+      <c r="D2214" s="1">
+        <v>15</v>
+      </c>
+      <c r="L2214" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2214" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="2215" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2215">
+        <v>32</v>
+      </c>
+      <c r="B2215" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2215" t="s">
+        <v>843</v>
+      </c>
+      <c r="D2215" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="L2215" t="s">
+        <v>227</v>
+      </c>
+      <c r="N2215" t="s">
+        <v>854</v>
+      </c>
+      <c r="T2215" s="10">
+        <v>42621</v>
+      </c>
+    </row>
+    <row r="2216" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+      <c r="A2216">
+        <v>32</v>
+      </c>
+      <c r="B2216" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2216" t="s">
+        <v>843</v>
+      </c>
+      <c r="D2216" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="L2216" t="s">
+        <v>227</v>
+      </c>
+      <c r="N2216" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="2217" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2217">
+        <v>32</v>
+      </c>
+      <c r="B2217" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2217" t="s">
+        <v>843</v>
+      </c>
+      <c r="D2217" s="1">
+        <v>17</v>
+      </c>
+      <c r="L2217" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2217" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2218" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2218">
+        <v>32</v>
+      </c>
+      <c r="B2218" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2218" t="s">
+        <v>843</v>
+      </c>
+      <c r="D2218" s="1">
+        <v>18</v>
+      </c>
+      <c r="L2218" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2218" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2219" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2219">
+        <v>32</v>
+      </c>
+      <c r="B2219" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2219" t="s">
+        <v>843</v>
+      </c>
+      <c r="D2219" s="1">
+        <v>19</v>
+      </c>
+      <c r="L2219" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2219" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2220" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2220">
+        <v>32</v>
+      </c>
+      <c r="B2220" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2220" t="s">
+        <v>843</v>
+      </c>
+      <c r="D2220" s="1">
+        <v>20</v>
+      </c>
+      <c r="L2220" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2220" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="2221" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2221">
+        <v>32</v>
+      </c>
+      <c r="B2221" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2221" t="s">
+        <v>843</v>
+      </c>
+      <c r="D2221" s="1">
+        <v>21</v>
+      </c>
+      <c r="L2221" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2221" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2222" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2222">
+        <v>32</v>
+      </c>
+      <c r="B2222" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2222" t="s">
+        <v>843</v>
+      </c>
+      <c r="D2222" s="1">
+        <v>22</v>
+      </c>
+      <c r="L2222" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2222" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2223" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2223">
+        <v>32</v>
+      </c>
+      <c r="B2223" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2223" t="s">
+        <v>843</v>
+      </c>
+      <c r="D2223" s="1">
+        <v>23</v>
+      </c>
+      <c r="L2223" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2223" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2224" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2224">
+        <v>32</v>
+      </c>
+      <c r="B2224" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2224" t="s">
+        <v>843</v>
+      </c>
+      <c r="D2224" s="1">
+        <v>24</v>
+      </c>
+      <c r="L2224" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2224" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2225" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2225">
+        <v>32</v>
+      </c>
+      <c r="B2225" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2225" t="s">
+        <v>843</v>
+      </c>
+      <c r="D2225" s="1">
+        <v>25</v>
+      </c>
+      <c r="L2225" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2225" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2226" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2226">
+        <v>32</v>
+      </c>
+      <c r="B2226" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2226" t="s">
+        <v>843</v>
+      </c>
+      <c r="D2226" s="1">
+        <v>26</v>
+      </c>
+      <c r="L2226" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2226" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2227" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+      <c r="A2227">
+        <v>32</v>
+      </c>
+      <c r="B2227" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2227" t="s">
+        <v>843</v>
+      </c>
+      <c r="D2227" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="L2227" t="s">
+        <v>227</v>
+      </c>
+      <c r="N2227" t="s">
+        <v>845</v>
+      </c>
+      <c r="Q2227" t="s">
+        <v>857</v>
+      </c>
+      <c r="T2227" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="2228" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2228">
+        <v>32</v>
+      </c>
+      <c r="B2228" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2228" t="s">
+        <v>843</v>
+      </c>
+      <c r="D2228" s="1">
+        <v>28</v>
+      </c>
+      <c r="L2228" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2228" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2229" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2229">
+        <v>32</v>
+      </c>
+      <c r="B2229" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2229" t="s">
+        <v>843</v>
+      </c>
+      <c r="D2229" s="1">
+        <v>29</v>
+      </c>
+      <c r="L2229" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2229" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2230" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2230">
+        <v>32</v>
+      </c>
+      <c r="B2230" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2230" t="s">
+        <v>843</v>
+      </c>
+      <c r="D2230" s="1">
+        <v>30</v>
+      </c>
+      <c r="L2230" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2230" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2231" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2231">
+        <v>32</v>
+      </c>
+      <c r="B2231" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2231" t="s">
+        <v>843</v>
+      </c>
+      <c r="D2231" s="1">
+        <v>31</v>
+      </c>
+      <c r="L2231" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2231" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="2232" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2232">
+        <v>32</v>
+      </c>
+      <c r="B2232" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2232" t="s">
+        <v>843</v>
+      </c>
+      <c r="D2232" s="1">
+        <v>32</v>
+      </c>
+      <c r="L2232" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2232" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2233" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2233">
+        <v>32</v>
+      </c>
+      <c r="B2233" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2233" t="s">
+        <v>843</v>
+      </c>
+      <c r="D2233" s="1">
+        <v>33</v>
+      </c>
+      <c r="L2233" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2233" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2234" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2234">
+        <v>32</v>
+      </c>
+      <c r="B2234" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2234" t="s">
+        <v>843</v>
+      </c>
+      <c r="D2234" s="1">
+        <v>34</v>
+      </c>
+      <c r="L2234" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2234" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2235" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2235">
+        <v>32</v>
+      </c>
+      <c r="B2235" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2235" t="s">
+        <v>843</v>
+      </c>
+      <c r="D2235" s="1">
+        <v>35</v>
+      </c>
+      <c r="L2235" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2235" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2236" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2236">
+        <v>32</v>
+      </c>
+      <c r="B2236" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2236" t="s">
+        <v>843</v>
+      </c>
+      <c r="D2236" s="1">
+        <v>36</v>
+      </c>
+      <c r="L2236" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2236" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2237" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2237">
+        <v>32</v>
+      </c>
+      <c r="B2237" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2237" t="s">
+        <v>843</v>
+      </c>
+      <c r="D2237" s="1">
+        <v>37</v>
+      </c>
+      <c r="L2237" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2237" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2238" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2238">
+        <v>32</v>
+      </c>
+      <c r="B2238" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2238" t="s">
+        <v>843</v>
+      </c>
+      <c r="D2238" s="1">
+        <v>38</v>
+      </c>
+      <c r="L2238" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2238" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2239" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2239">
+        <v>32</v>
+      </c>
+      <c r="B2239" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2239" t="s">
+        <v>843</v>
+      </c>
+      <c r="D2239" s="1">
+        <v>39</v>
+      </c>
+      <c r="L2239" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2239" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2240" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2240">
+        <v>32</v>
+      </c>
+      <c r="B2240" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2240" t="s">
+        <v>843</v>
+      </c>
+      <c r="D2240" s="1">
+        <v>40</v>
+      </c>
+      <c r="L2240" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2240" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="2241" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2241">
+        <v>32</v>
+      </c>
+      <c r="B2241" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2241" t="s">
+        <v>843</v>
+      </c>
+      <c r="D2241" s="1">
+        <v>41</v>
+      </c>
+      <c r="L2241" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2241" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2242" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2242">
+        <v>32</v>
+      </c>
+      <c r="B2242" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2242" t="s">
+        <v>843</v>
+      </c>
+      <c r="D2242" s="1">
+        <v>42</v>
+      </c>
+      <c r="L2242" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2242" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="2243" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2243">
+        <v>32</v>
+      </c>
+      <c r="B2243" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2243" t="s">
+        <v>843</v>
+      </c>
+      <c r="D2243" s="1">
+        <v>43</v>
+      </c>
+      <c r="L2243" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2243" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2244" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2244">
+        <v>32</v>
+      </c>
+      <c r="B2244" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2244" t="s">
+        <v>843</v>
+      </c>
+      <c r="D2244" s="1">
+        <v>44</v>
+      </c>
+      <c r="L2244" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2244" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2245" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2245">
+        <v>32</v>
+      </c>
+      <c r="B2245" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2245" t="s">
+        <v>843</v>
+      </c>
+      <c r="D2245" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="L2245" t="s">
+        <v>227</v>
+      </c>
+      <c r="N2245" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="2246" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2246">
+        <v>32</v>
+      </c>
+      <c r="B2246" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2246" t="s">
+        <v>843</v>
+      </c>
+      <c r="D2246" s="1">
+        <v>45</v>
+      </c>
+      <c r="L2246" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2246" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2247" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2247">
+        <v>32</v>
+      </c>
+      <c r="B2247" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2247" t="s">
+        <v>843</v>
+      </c>
+      <c r="D2247" s="1">
+        <v>46</v>
+      </c>
+      <c r="L2247" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2247" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="2248" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A2248">
+        <v>32</v>
+      </c>
+      <c r="B2248" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2248" t="s">
+        <v>843</v>
+      </c>
+      <c r="D2248" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="L2248" t="s">
+        <v>227</v>
+      </c>
+      <c r="N2248" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="2249" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2249">
+        <v>32</v>
+      </c>
+      <c r="B2249" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2249" t="s">
+        <v>843</v>
+      </c>
+      <c r="D2249" s="1">
+        <v>48</v>
+      </c>
+      <c r="L2249" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2249" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2250" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2250">
+        <v>32</v>
+      </c>
+      <c r="B2250" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2250" t="s">
+        <v>843</v>
+      </c>
+      <c r="D2250" s="1">
+        <v>49</v>
+      </c>
+      <c r="L2250" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2250" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2251" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2251">
+        <v>32</v>
+      </c>
+      <c r="B2251" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2251" t="s">
+        <v>843</v>
+      </c>
+      <c r="D2251" s="1">
+        <v>50</v>
+      </c>
+      <c r="L2251" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2251" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2252" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2252">
+        <v>32</v>
+      </c>
+      <c r="B2252" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2252" t="s">
+        <v>843</v>
+      </c>
+      <c r="D2252" s="1">
+        <v>51</v>
+      </c>
+      <c r="L2252" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2252" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2253" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2253">
+        <v>32</v>
+      </c>
+      <c r="B2253" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2253" t="s">
+        <v>843</v>
+      </c>
+      <c r="D2253" s="1">
+        <v>52</v>
+      </c>
+      <c r="L2253" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2253" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2254" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2254">
+        <v>32</v>
+      </c>
+      <c r="B2254" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2254" t="s">
+        <v>843</v>
+      </c>
+      <c r="D2254" s="1">
+        <v>53</v>
+      </c>
+      <c r="L2254" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2254" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2255" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2255">
+        <v>32</v>
+      </c>
+      <c r="B2255" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2255" t="s">
+        <v>843</v>
+      </c>
+      <c r="D2255" s="1">
+        <v>54</v>
+      </c>
+      <c r="L2255" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2255" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2256" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2256">
+        <v>32</v>
+      </c>
+      <c r="B2256" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2256" t="s">
+        <v>843</v>
+      </c>
+      <c r="D2256" s="1">
+        <v>55</v>
+      </c>
+      <c r="L2256" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2256" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2257" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2257">
+        <v>32</v>
+      </c>
+      <c r="B2257" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2257" t="s">
+        <v>843</v>
+      </c>
+      <c r="D2257" s="1">
+        <v>56</v>
+      </c>
+      <c r="L2257" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2257" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="2258" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2258">
+        <v>32</v>
+      </c>
+      <c r="B2258" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2258" t="s">
+        <v>843</v>
+      </c>
+      <c r="D2258" s="1">
+        <v>57</v>
+      </c>
+      <c r="L2258" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2258" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="2259" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2259">
+        <v>32</v>
+      </c>
+      <c r="B2259" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2259" t="s">
+        <v>843</v>
+      </c>
+      <c r="D2259" s="1">
+        <v>58</v>
+      </c>
+      <c r="L2259" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2259" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2260" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2260">
+        <v>32</v>
+      </c>
+      <c r="B2260" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2260" t="s">
+        <v>843</v>
+      </c>
+      <c r="D2260" s="1">
+        <v>59</v>
+      </c>
+      <c r="L2260" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2260" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="2261" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2261">
+        <v>32</v>
+      </c>
+      <c r="B2261" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2261" t="s">
+        <v>843</v>
+      </c>
+      <c r="D2261" s="1">
+        <v>60</v>
+      </c>
+      <c r="L2261" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2261" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="2262" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2262">
+        <v>32</v>
+      </c>
+      <c r="B2262" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2262" t="s">
+        <v>843</v>
+      </c>
+      <c r="D2262" s="1">
+        <v>61</v>
+      </c>
+      <c r="L2262" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2262" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2263" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2263">
+        <v>32</v>
+      </c>
+      <c r="B2263" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2263" t="s">
+        <v>843</v>
+      </c>
+      <c r="D2263" s="1">
+        <v>62</v>
+      </c>
+      <c r="L2263" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2263" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="2264" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2264">
+        <v>32</v>
+      </c>
+      <c r="B2264" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2264" t="s">
+        <v>843</v>
+      </c>
+      <c r="D2264" s="1">
+        <v>63</v>
+      </c>
+      <c r="L2264" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2264" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2265" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2265">
+        <v>32</v>
+      </c>
+      <c r="B2265" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2265" t="s">
+        <v>843</v>
+      </c>
+      <c r="D2265" s="1">
+        <v>64</v>
+      </c>
+      <c r="L2265" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2265" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="2266" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2266">
+        <v>32</v>
+      </c>
+      <c r="B2266" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2266" t="s">
+        <v>843</v>
+      </c>
+      <c r="D2266" s="1">
+        <v>65</v>
+      </c>
+      <c r="L2266" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2266" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2267" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2267">
+        <v>32</v>
+      </c>
+      <c r="B2267" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2267" t="s">
+        <v>843</v>
+      </c>
+      <c r="D2267" s="1">
+        <v>66</v>
+      </c>
+      <c r="L2267" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2267" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2268" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+      <c r="A2268">
+        <v>32</v>
+      </c>
+      <c r="B2268" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2268" t="s">
+        <v>843</v>
+      </c>
+      <c r="D2268" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="L2268" t="s">
+        <v>227</v>
+      </c>
+      <c r="N2268" t="s">
+        <v>854</v>
+      </c>
+      <c r="Q2268" t="s">
+        <v>864</v>
+      </c>
+      <c r="T2268" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="2269" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2269">
+        <v>32</v>
+      </c>
+      <c r="B2269" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2269" t="s">
+        <v>843</v>
+      </c>
+      <c r="D2269" s="1">
+        <v>68</v>
+      </c>
+      <c r="L2269" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2269" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2270" spans="1:20" ht="48" x14ac:dyDescent="0.2">
+      <c r="A2270">
+        <v>32</v>
+      </c>
+      <c r="B2270" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2270" t="s">
+        <v>843</v>
+      </c>
+      <c r="D2270" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="L2270" t="s">
+        <v>227</v>
+      </c>
+      <c r="N2270" t="s">
+        <v>194</v>
+      </c>
+      <c r="O2270" t="s">
+        <v>227</v>
+      </c>
+      <c r="P2270" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q2270" t="s">
+        <v>866</v>
+      </c>
+      <c r="R2270" t="s">
+        <v>868</v>
+      </c>
+      <c r="S2270" t="s">
+        <v>867</v>
+      </c>
+      <c r="T2270">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="2271" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2271">
+        <v>32</v>
+      </c>
+      <c r="B2271" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2271" t="s">
+        <v>843</v>
+      </c>
+      <c r="D2271" s="1">
+        <v>70</v>
+      </c>
+      <c r="L2271" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2271" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2272" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2272">
+        <v>32</v>
+      </c>
+      <c r="B2272" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2272" t="s">
+        <v>843</v>
+      </c>
+      <c r="D2272" s="1">
+        <v>71</v>
+      </c>
+      <c r="L2272" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2272" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2273" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2273">
+        <v>32</v>
+      </c>
+      <c r="B2273" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2273" t="s">
+        <v>843</v>
+      </c>
+      <c r="D2273" s="1">
+        <v>72</v>
+      </c>
+      <c r="L2273" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2273" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2274" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2274">
+        <v>32</v>
+      </c>
+      <c r="B2274" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2274" t="s">
+        <v>843</v>
+      </c>
+      <c r="D2274" s="1">
+        <v>73</v>
+      </c>
+      <c r="L2274" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2274" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="2275" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2275">
+        <v>32</v>
+      </c>
+      <c r="B2275" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2275" t="s">
+        <v>843</v>
+      </c>
+      <c r="D2275" s="1">
+        <v>74</v>
+      </c>
+      <c r="L2275" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2275" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2276" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2276">
+        <v>32</v>
+      </c>
+      <c r="B2276" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2276" t="s">
+        <v>843</v>
+      </c>
+      <c r="D2276" s="1">
+        <v>75</v>
+      </c>
+      <c r="L2276" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2276" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2277" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2277">
+        <v>33</v>
+      </c>
+      <c r="B2277" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2277" t="s">
+        <v>869</v>
+      </c>
+      <c r="D2277" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2277" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2277" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2278" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2278">
+        <v>34</v>
+      </c>
+      <c r="B2278" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2278" t="s">
+        <v>870</v>
+      </c>
+      <c r="D2278" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2278" t="s">
+        <v>450</v>
+      </c>
+      <c r="M2278" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2279" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2279">
+        <v>35</v>
+      </c>
+      <c r="B2279" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2279" t="s">
+        <v>871</v>
+      </c>
+      <c r="D2279" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2279" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2279" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2280" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2280">
+        <v>36</v>
+      </c>
+      <c r="B2280" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2280" t="s">
+        <v>872</v>
+      </c>
+      <c r="D2280" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2280" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2280" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2281" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2281">
+        <v>37</v>
+      </c>
+      <c r="B2281" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2281" t="s">
+        <v>873</v>
+      </c>
+      <c r="D2281" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2281" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2281" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2282" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2282">
+        <v>38</v>
+      </c>
+      <c r="B2282" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2282" t="s">
+        <v>874</v>
+      </c>
+      <c r="D2282" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2282" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2282" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2283" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2283">
+        <v>39</v>
+      </c>
+      <c r="B2283" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2283" t="s">
+        <v>875</v>
+      </c>
+      <c r="D2283" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2283" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2283" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="2284" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2284">
+        <v>40</v>
+      </c>
+      <c r="B2284" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2284" t="s">
+        <v>876</v>
+      </c>
+      <c r="D2284" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2284" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2284" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2285" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2285">
+        <v>41</v>
+      </c>
+      <c r="B2285" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2285" t="s">
+        <v>877</v>
+      </c>
+      <c r="D2285" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2285" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2285" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2286" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2286">
+        <v>41</v>
+      </c>
+      <c r="B2286" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2286" t="s">
+        <v>877</v>
+      </c>
+      <c r="D2286" s="1">
+        <v>2</v>
+      </c>
+      <c r="L2286" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2286" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="2287" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2287">
+        <v>41</v>
+      </c>
+      <c r="B2287" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2287" t="s">
+        <v>877</v>
+      </c>
+      <c r="D2287" s="1">
+        <v>3</v>
+      </c>
+      <c r="L2287" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2287" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="2288" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2288">
+        <v>41</v>
+      </c>
+      <c r="B2288" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2288" t="s">
+        <v>877</v>
+      </c>
+      <c r="D2288" s="1">
+        <v>4</v>
+      </c>
+      <c r="L2288" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2288" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2289" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2289">
+        <v>41</v>
+      </c>
+      <c r="B2289" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2289" t="s">
+        <v>877</v>
+      </c>
+      <c r="D2289" s="1">
+        <v>5</v>
+      </c>
+      <c r="L2289" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2289" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2290" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2290">
+        <v>41</v>
+      </c>
+      <c r="B2290" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2290" t="s">
+        <v>877</v>
+      </c>
+      <c r="D2290" s="1">
+        <v>6</v>
+      </c>
+      <c r="L2290" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2290" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2291" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2291">
+        <v>42</v>
+      </c>
+      <c r="B2291" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2291" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2291" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2291" t="s">
+        <v>227</v>
+      </c>
+      <c r="N2291" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="2292" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2292">
+        <v>43</v>
+      </c>
+      <c r="B2292" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2292" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2292" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2292" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2292" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2293" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2293">
+        <v>44</v>
+      </c>
+      <c r="B2293" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2293" t="s">
+        <v>506</v>
+      </c>
+      <c r="D2293" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2293" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2293" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2294" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2294">
+        <v>45</v>
+      </c>
+      <c r="B2294" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2294" t="s">
+        <v>507</v>
+      </c>
+      <c r="D2294" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2294" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2294" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2295" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2295">
+        <v>45</v>
+      </c>
+      <c r="B2295" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2295" t="s">
+        <v>507</v>
+      </c>
+      <c r="D2295" s="1">
+        <v>2</v>
+      </c>
+      <c r="L2295" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2295" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2296" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2296">
+        <v>45</v>
+      </c>
+      <c r="B2296" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2296" t="s">
+        <v>507</v>
+      </c>
+      <c r="D2296" s="1">
+        <v>3</v>
+      </c>
+      <c r="L2296" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2296" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2297" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2297">
+        <v>45</v>
+      </c>
+      <c r="B2297" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2297" t="s">
+        <v>507</v>
+      </c>
+      <c r="D2297" s="1">
+        <v>4</v>
+      </c>
+      <c r="L2297" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2297" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2298" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2298">
+        <v>45</v>
+      </c>
+      <c r="B2298" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2298" t="s">
+        <v>507</v>
+      </c>
+      <c r="D2298" s="1">
+        <v>5</v>
+      </c>
+      <c r="L2298" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2298" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2299" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2299">
+        <v>45</v>
+      </c>
+      <c r="B2299" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2299" t="s">
+        <v>507</v>
+      </c>
+      <c r="D2299" s="1">
+        <v>6</v>
+      </c>
+      <c r="L2299" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2299" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2300" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2300">
+        <v>45</v>
+      </c>
+      <c r="B2300" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2300" t="s">
+        <v>507</v>
+      </c>
+      <c r="D2300" s="1">
+        <v>7</v>
+      </c>
+      <c r="L2300" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2300" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2301" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A2301">
+        <v>46</v>
+      </c>
+      <c r="B2301" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2301" t="s">
+        <v>878</v>
+      </c>
+      <c r="D2301" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="L2301" t="s">
+        <v>227</v>
+      </c>
+      <c r="N2301" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="2302" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2302">
+        <v>46</v>
+      </c>
+      <c r="B2302" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2302" t="s">
+        <v>878</v>
+      </c>
+      <c r="D2302" s="1">
+        <v>2</v>
+      </c>
+      <c r="L2302" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2302" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2303" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A2303">
+        <v>46</v>
+      </c>
+      <c r="B2303" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2303" t="s">
+        <v>878</v>
+      </c>
+      <c r="D2303" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="L2303" t="s">
+        <v>227</v>
+      </c>
+      <c r="N2303" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="2304" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2304">
+        <v>47</v>
+      </c>
+      <c r="B2304" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2304" t="s">
+        <v>881</v>
+      </c>
+      <c r="D2304" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2304" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2304" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="2305" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="A2305">
+        <v>48</v>
+      </c>
+      <c r="B2305" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2305" t="s">
+        <v>882</v>
+      </c>
+      <c r="D2305" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="L2305" t="s">
+        <v>227</v>
+      </c>
+      <c r="N2305" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="2306" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2306">
+        <v>49</v>
+      </c>
+      <c r="B2306" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2306" t="s">
+        <v>884</v>
+      </c>
+      <c r="D2306" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2306" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2306" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2307" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A2307">
+        <v>50</v>
+      </c>
+      <c r="B2307" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2307" t="s">
+        <v>885</v>
+      </c>
+      <c r="D2307" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="L2307" t="s">
+        <v>227</v>
+      </c>
+      <c r="N2307" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="2308" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="A2308">
+        <v>50</v>
+      </c>
+      <c r="B2308" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2308" t="s">
+        <v>885</v>
+      </c>
+      <c r="D2308" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="L2308" t="s">
+        <v>227</v>
+      </c>
+      <c r="N2308" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="2309" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2309">
+        <v>50</v>
+      </c>
+      <c r="B2309" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2309" t="s">
+        <v>885</v>
+      </c>
+      <c r="D2309" s="1">
+        <v>3</v>
+      </c>
+      <c r="L2309" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2309" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2310" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2310">
+        <v>50</v>
+      </c>
+      <c r="B2310" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2310" t="s">
+        <v>885</v>
+      </c>
+      <c r="D2310" s="1">
+        <v>4</v>
+      </c>
+      <c r="L2310" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2310" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2311" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2311">
+        <v>50</v>
+      </c>
+      <c r="B2311" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2311" t="s">
+        <v>885</v>
+      </c>
+      <c r="D2311" s="1">
+        <v>5</v>
+      </c>
+      <c r="L2311" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2311" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2312" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2312">
+        <v>50</v>
+      </c>
+      <c r="B2312" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2312" t="s">
+        <v>885</v>
+      </c>
+      <c r="D2312" s="1">
+        <v>6</v>
+      </c>
+      <c r="L2312" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2312" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2313" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2313">
+        <v>50</v>
+      </c>
+      <c r="B2313" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2313" t="s">
+        <v>885</v>
+      </c>
+      <c r="D2313" s="1">
+        <v>7</v>
+      </c>
+      <c r="L2313" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2313" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2314" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2314">
+        <v>50</v>
+      </c>
+      <c r="B2314" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2314" t="s">
+        <v>885</v>
+      </c>
+      <c r="D2314" s="1">
+        <v>8</v>
+      </c>
+      <c r="L2314" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2314" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2315" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2315">
+        <v>50</v>
+      </c>
+      <c r="B2315" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2315" t="s">
+        <v>885</v>
+      </c>
+      <c r="D2315" s="1">
+        <v>9</v>
+      </c>
+      <c r="L2315" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2315" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="2316" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2316">
+        <v>50</v>
+      </c>
+      <c r="B2316" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2316" t="s">
+        <v>885</v>
+      </c>
+      <c r="D2316" s="1">
+        <v>10</v>
+      </c>
+      <c r="L2316" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2316" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2317" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2317">
+        <v>50</v>
+      </c>
+      <c r="B2317" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2317" t="s">
+        <v>885</v>
+      </c>
+      <c r="D2317" s="1">
+        <v>11</v>
+      </c>
+      <c r="L2317" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2317" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2318" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2318">
+        <v>50</v>
+      </c>
+      <c r="B2318" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2318" t="s">
+        <v>885</v>
+      </c>
+      <c r="D2318" s="1">
+        <v>12</v>
+      </c>
+      <c r="L2318" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2318" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2319" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2319">
+        <v>50</v>
+      </c>
+      <c r="B2319" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2319" t="s">
+        <v>885</v>
+      </c>
+      <c r="D2319" s="1">
+        <v>13</v>
+      </c>
+      <c r="L2319" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2319" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2320" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2320">
+        <v>50</v>
+      </c>
+      <c r="B2320" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2320" t="s">
+        <v>885</v>
+      </c>
+      <c r="D2320" s="1">
+        <v>14</v>
+      </c>
+      <c r="L2320" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2320" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2321" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2321">
+        <v>50</v>
+      </c>
+      <c r="B2321" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2321" t="s">
+        <v>885</v>
+      </c>
+      <c r="D2321" s="1">
+        <v>15</v>
+      </c>
+      <c r="L2321" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2321" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="2322" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2322">
+        <v>50</v>
+      </c>
+      <c r="B2322" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2322" t="s">
+        <v>885</v>
+      </c>
+      <c r="D2322" s="1">
+        <v>16</v>
+      </c>
+      <c r="L2322" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2322" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2323" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2323">
+        <v>50</v>
+      </c>
+      <c r="B2323" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2323" t="s">
+        <v>885</v>
+      </c>
+      <c r="D2323" s="1">
+        <v>17</v>
+      </c>
+      <c r="L2323" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2323" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2324" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2324">
+        <v>50</v>
+      </c>
+      <c r="B2324" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2324" t="s">
+        <v>885</v>
+      </c>
+      <c r="D2324" s="1">
+        <v>18</v>
+      </c>
+      <c r="L2324" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2324" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2325" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2325">
+        <v>50</v>
+      </c>
+      <c r="B2325" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2325" t="s">
+        <v>885</v>
+      </c>
+      <c r="D2325" s="1">
+        <v>19</v>
+      </c>
+      <c r="L2325" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2325" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2326" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2326">
+        <v>50</v>
+      </c>
+      <c r="B2326" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2326" t="s">
+        <v>885</v>
+      </c>
+      <c r="D2326" s="1">
+        <v>20</v>
+      </c>
+      <c r="L2326" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2326" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2327" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2327">
+        <v>50</v>
+      </c>
+      <c r="B2327" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2327" t="s">
+        <v>885</v>
+      </c>
+      <c r="D2327" s="1">
+        <v>21</v>
+      </c>
+      <c r="L2327" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2327" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2328" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2328">
+        <v>50</v>
+      </c>
+      <c r="B2328" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2328" t="s">
+        <v>885</v>
+      </c>
+      <c r="D2328" s="1">
+        <v>22</v>
+      </c>
+      <c r="L2328" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2328" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2329" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2329">
+        <v>50</v>
+      </c>
+      <c r="B2329" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2329" t="s">
+        <v>885</v>
+      </c>
+      <c r="D2329" s="1">
+        <v>23</v>
+      </c>
+      <c r="L2329" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2329" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2330" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2330">
+        <v>51</v>
+      </c>
+      <c r="B2330" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2330" t="s">
+        <v>889</v>
+      </c>
+      <c r="D2330" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2330" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2330" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2331" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2331">
+        <v>52</v>
+      </c>
+      <c r="B2331" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2331" t="s">
+        <v>890</v>
+      </c>
+      <c r="D2331" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2331" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2331" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2332" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+      <c r="A2332">
+        <v>53</v>
+      </c>
+      <c r="B2332" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2332" t="s">
+        <v>891</v>
+      </c>
+      <c r="D2332" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="L2332" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="2333" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2333">
+        <v>53</v>
+      </c>
+      <c r="B2333" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2333" t="s">
+        <v>891</v>
+      </c>
+      <c r="D2333" s="1">
+        <v>2</v>
+      </c>
+      <c r="L2333" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2333" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2334" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2334">
+        <v>53</v>
+      </c>
+      <c r="B2334" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2334" t="s">
+        <v>891</v>
+      </c>
+      <c r="D2334" s="1">
+        <v>3</v>
+      </c>
+      <c r="L2334" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2334" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2335" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2335">
+        <v>53</v>
+      </c>
+      <c r="B2335" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2335" t="s">
+        <v>891</v>
+      </c>
+      <c r="D2335" s="1">
+        <v>4</v>
+      </c>
+      <c r="L2335" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2335" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="2336" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2336">
+        <v>53</v>
+      </c>
+      <c r="B2336" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2336" t="s">
+        <v>891</v>
+      </c>
+      <c r="D2336" s="1">
+        <v>5</v>
+      </c>
+      <c r="L2336" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2336" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2337" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2337">
+        <v>53</v>
+      </c>
+      <c r="B2337" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2337" t="s">
+        <v>891</v>
+      </c>
+      <c r="D2337" s="1">
+        <v>6</v>
+      </c>
+      <c r="L2337" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2337" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2338" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2338">
+        <v>53</v>
+      </c>
+      <c r="B2338" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2338" t="s">
+        <v>891</v>
+      </c>
+      <c r="D2338" s="1">
+        <v>7</v>
+      </c>
+      <c r="L2338" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2338" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2339" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2339">
+        <v>53</v>
+      </c>
+      <c r="B2339" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2339" t="s">
+        <v>891</v>
+      </c>
+      <c r="D2339" s="1">
+        <v>8</v>
+      </c>
+      <c r="L2339" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2339" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2340" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2340">
+        <v>53</v>
+      </c>
+      <c r="B2340" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2340" t="s">
+        <v>891</v>
+      </c>
+      <c r="D2340" s="1">
+        <v>9</v>
+      </c>
+      <c r="L2340" t="s">
+        <v>450</v>
+      </c>
+      <c r="M2340" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2341" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2341">
+        <v>53</v>
+      </c>
+      <c r="B2341" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2341" t="s">
+        <v>891</v>
+      </c>
+      <c r="D2341" s="1">
+        <v>10</v>
+      </c>
+      <c r="L2341" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2341" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2342" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A2342">
+        <v>53</v>
+      </c>
+      <c r="B2342" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2342" t="s">
+        <v>891</v>
+      </c>
+      <c r="D2342" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="L2342" t="s">
+        <v>227</v>
+      </c>
+      <c r="N2342" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="2343" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2343">
+        <v>54</v>
+      </c>
+      <c r="B2343" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2343" t="s">
+        <v>893</v>
+      </c>
+      <c r="D2343" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2343" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2343" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="2344" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="A2344">
+        <v>55</v>
+      </c>
+      <c r="B2344" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2344" t="s">
+        <v>895</v>
+      </c>
+      <c r="D2344" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="L2344" t="s">
+        <v>227</v>
+      </c>
+      <c r="N2344" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="2345" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2345">
+        <v>56</v>
+      </c>
+      <c r="B2345" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2345" t="s">
+        <v>897</v>
+      </c>
+      <c r="D2345" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2345" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2345" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2346" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A2346">
+        <v>57</v>
+      </c>
+      <c r="B2346" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2346" t="s">
+        <v>898</v>
+      </c>
+      <c r="D2346" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="L2346" t="s">
+        <v>227</v>
+      </c>
+      <c r="N2346" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="2347" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2347">
+        <v>57</v>
+      </c>
+      <c r="B2347" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2347" t="s">
+        <v>898</v>
+      </c>
+      <c r="D2347" s="1">
+        <v>2</v>
+      </c>
+      <c r="L2347" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2347" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2348" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2348">
+        <v>57</v>
+      </c>
+      <c r="B2348" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2348" t="s">
+        <v>898</v>
+      </c>
+      <c r="D2348" s="1">
+        <v>3</v>
+      </c>
+      <c r="L2348" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2348" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2349" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2349">
+        <v>57</v>
+      </c>
+      <c r="B2349" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2349" t="s">
+        <v>898</v>
+      </c>
+      <c r="D2349" s="1">
+        <v>4</v>
+      </c>
+      <c r="L2349" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2349" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2350" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2350">
+        <v>57</v>
+      </c>
+      <c r="B2350" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2350" t="s">
+        <v>898</v>
+      </c>
+      <c r="D2350" s="1">
+        <v>5</v>
+      </c>
+      <c r="L2350" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2350" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2351" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2351">
+        <v>57</v>
+      </c>
+      <c r="B2351" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2351" t="s">
+        <v>898</v>
+      </c>
+      <c r="D2351" s="1">
+        <v>6</v>
+      </c>
+      <c r="L2351" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2351" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2352" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2352">
+        <v>57</v>
+      </c>
+      <c r="B2352" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2352" t="s">
+        <v>898</v>
+      </c>
+      <c r="D2352" s="1">
+        <v>7</v>
+      </c>
+      <c r="L2352" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2352" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2353" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2353">
+        <v>57</v>
+      </c>
+      <c r="B2353" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2353" t="s">
+        <v>898</v>
+      </c>
+      <c r="D2353" s="1">
+        <v>8</v>
+      </c>
+      <c r="L2353" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2353" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2354" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2354">
+        <v>57</v>
+      </c>
+      <c r="B2354" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2354" t="s">
+        <v>898</v>
+      </c>
+      <c r="D2354" s="1">
+        <v>9</v>
+      </c>
+      <c r="L2354" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2354" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2355" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2355">
+        <v>57</v>
+      </c>
+      <c r="B2355" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2355" t="s">
+        <v>898</v>
+      </c>
+      <c r="D2355" s="1">
+        <v>10</v>
+      </c>
+      <c r="L2355" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2355" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2356" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2356">
+        <v>57</v>
+      </c>
+      <c r="B2356" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2356" t="s">
+        <v>898</v>
+      </c>
+      <c r="D2356" s="1">
+        <v>11</v>
+      </c>
+      <c r="L2356" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2356" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2357" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2357">
+        <v>57</v>
+      </c>
+      <c r="B2357" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2357" t="s">
+        <v>898</v>
+      </c>
+      <c r="D2357" s="1">
+        <v>12</v>
+      </c>
+      <c r="L2357" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2357" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2358" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2358">
+        <v>57</v>
+      </c>
+      <c r="B2358" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2358" t="s">
+        <v>898</v>
+      </c>
+      <c r="D2358" s="1">
+        <v>13</v>
+      </c>
+      <c r="L2358" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2358" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2359" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="A2359">
+        <v>57</v>
+      </c>
+      <c r="B2359" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2359" t="s">
+        <v>898</v>
+      </c>
+      <c r="D2359" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="L2359" t="s">
+        <v>227</v>
+      </c>
+      <c r="N2359" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="2360" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2360">
+        <v>57</v>
+      </c>
+      <c r="B2360" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2360" t="s">
+        <v>898</v>
+      </c>
+      <c r="D2360" s="1">
+        <v>15</v>
+      </c>
+      <c r="L2360" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2360" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2361" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="A2361">
+        <v>57</v>
+      </c>
+      <c r="B2361" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2361" t="s">
+        <v>898</v>
+      </c>
+      <c r="D2361" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="L2361" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="2362" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2362">
+        <v>57</v>
+      </c>
+      <c r="B2362" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2362" t="s">
+        <v>898</v>
+      </c>
+      <c r="D2362" s="1">
+        <v>17</v>
+      </c>
+      <c r="L2362" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2362" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2363" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2363">
+        <v>57</v>
+      </c>
+      <c r="B2363" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2363" t="s">
+        <v>898</v>
+      </c>
+      <c r="D2363" s="1">
+        <v>18</v>
+      </c>
+      <c r="L2363" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2363" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2364" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2364">
+        <v>57</v>
+      </c>
+      <c r="B2364" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2364" t="s">
+        <v>898</v>
+      </c>
+      <c r="D2364" s="1">
+        <v>19</v>
+      </c>
+      <c r="L2364" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2364" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2365" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2365">
+        <v>57</v>
+      </c>
+      <c r="B2365" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2365" t="s">
+        <v>898</v>
+      </c>
+      <c r="D2365" s="1">
+        <v>20</v>
+      </c>
+      <c r="L2365" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2365" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2366" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A2366">
+        <v>57</v>
+      </c>
+      <c r="B2366" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2366" t="s">
+        <v>898</v>
+      </c>
+      <c r="D2366" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="L2366" t="s">
+        <v>227</v>
+      </c>
+      <c r="N2366" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="2367" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2367">
+        <v>57</v>
+      </c>
+      <c r="B2367" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2367" t="s">
+        <v>898</v>
+      </c>
+      <c r="D2367" s="1">
+        <v>22</v>
+      </c>
+      <c r="L2367" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2367" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2368" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2368">
+        <v>57</v>
+      </c>
+      <c r="B2368" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2368" t="s">
+        <v>898</v>
+      </c>
+      <c r="D2368" s="1">
+        <v>23</v>
+      </c>
+      <c r="L2368" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2368" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2369" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2369">
+        <v>57</v>
+      </c>
+      <c r="B2369" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2369" t="s">
+        <v>898</v>
+      </c>
+      <c r="D2369" s="1">
+        <v>24</v>
+      </c>
+      <c r="L2369" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2369" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2370" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2370">
+        <v>57</v>
+      </c>
+      <c r="B2370" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2370" t="s">
+        <v>898</v>
+      </c>
+      <c r="D2370" s="1">
+        <v>25</v>
+      </c>
+      <c r="L2370" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2370" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2371" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2371">
+        <v>57</v>
+      </c>
+      <c r="B2371" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2371" t="s">
+        <v>898</v>
+      </c>
+      <c r="D2371" s="1">
+        <v>26</v>
+      </c>
+      <c r="L2371" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2371" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="2372" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2372">
+        <v>57</v>
+      </c>
+      <c r="B2372" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2372" t="s">
+        <v>898</v>
+      </c>
+      <c r="D2372" s="1">
+        <v>27</v>
+      </c>
+      <c r="L2372" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2372" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="2373" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2373">
+        <v>57</v>
+      </c>
+      <c r="B2373" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2373" t="s">
+        <v>898</v>
+      </c>
+      <c r="D2373" s="1">
+        <v>28</v>
+      </c>
+      <c r="L2373" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2373" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2374" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2374">
+        <v>57</v>
+      </c>
+      <c r="B2374" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2374" t="s">
+        <v>898</v>
+      </c>
+      <c r="D2374" s="1">
+        <v>29</v>
+      </c>
+      <c r="L2374" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2374" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="2375" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2375">
+        <v>58</v>
+      </c>
+      <c r="B2375" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2375" t="s">
+        <v>903</v>
+      </c>
+      <c r="D2375" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2375" t="s">
+        <v>450</v>
+      </c>
+      <c r="M2375" t="s">
+        <v>432</v>
       </c>
     </row>
   </sheetData>
